--- a/Diagrams/Diagrams-1.xlsx
+++ b/Diagrams/Diagrams-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,11 +13,11 @@
     <sheet name="arc" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="reg" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="des" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="mem" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="pag" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="int" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="pro" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="IO" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="int" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="pro" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="mem" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="pag" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="fs,IO" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="266">
   <si>
     <t xml:space="preserve">Part 1: Our First Assembly Program</t>
   </si>
@@ -321,178 +321,6 @@
     <t xml:space="preserve">IDT - trap gate</t>
   </si>
   <si>
-    <t xml:space="preserve">physical address space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16MiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virtual address space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liner address space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 MiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x03FFFFFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4MiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 MiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1MiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seg base add</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x00000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video &amp; BIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384 KiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640KiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~ 440 KiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~200 KiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0KiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buffer memory layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 MiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1KiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1Kib for 1 buffer slot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video &amp; BIOS, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192M + 640K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buffer head structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128M + 640K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  16M + 640K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end
-~200KiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 1024 * 4 byte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page table 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K = 4 byte * 1024 pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page table 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dir 1024 * 4 byte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page table 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page table 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR3 PDBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page table 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K = 4 byte * 1024 ptr</t>
-  </si>
-  <si>
     <t xml:space="preserve">files</t>
   </si>
   <si>
@@ -514,7 +342,7 @@
     <t xml:space="preserve">8259A</t>
   </si>
   <si>
-    <t xml:space="preserve">CPU pushes to kernel stack</t>
+    <t xml:space="preserve">CPU pushes to kernel stack automatically</t>
   </si>
   <si>
     <t xml:space="preserve">SS</t>
@@ -529,33 +357,96 @@
     <t xml:space="preserve">ERROR CODE</t>
   </si>
   <si>
+    <t xml:space="preserve">interrupt handling flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interrupt kernel stack life cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system call flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fork.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signal.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit.c</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT0</t>
   </si>
   <si>
+    <t xml:space="preserve">die</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do_exit()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no error code</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT1</t>
   </si>
   <si>
+    <t xml:space="preserve">_do_int3</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT2</t>
   </si>
   <si>
     <t xml:space="preserve">INT3</t>
   </si>
   <si>
+    <t xml:space="preserve">print error and ret</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT4</t>
   </si>
   <si>
     <t xml:space="preserve">INT5</t>
   </si>
   <si>
+    <t xml:space="preserve">INT6</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT7</t>
   </si>
   <si>
-    <t xml:space="preserve">DEVICE NOT EXIST</t>
+    <t xml:space="preserve">device_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jmp math_error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft interrupt</t>
   </si>
   <si>
     <t xml:space="preserve">INT8</t>
   </si>
   <si>
+    <t xml:space="preserve">error code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_coprocessor_segment_overrun</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT10</t>
   </si>
   <si>
@@ -571,15 +462,30 @@
     <t xml:space="preserve">INT14</t>
   </si>
   <si>
+    <t xml:space="preserve">page_fault</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT15</t>
   </si>
   <si>
+    <t xml:space="preserve">reserved</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT16</t>
   </si>
   <si>
     <t xml:space="preserve">COPROCESSOR ERROR</t>
   </si>
   <si>
+    <t xml:space="preserve">INT17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT18-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">except the following</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT32</t>
   </si>
   <si>
@@ -595,13 +501,47 @@
     <t xml:space="preserve">do_timer(CPL):</t>
   </si>
   <si>
-    <t xml:space="preserve">current_p_time--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit if time&gt;0 or (time==0 &amp;&amp; CPL ==0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schedule() if time==0 &amp;&amp; CPL &gt;0</t>
+    <t xml:space="preserve">deal blankscreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hd_timeout handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beepcount handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utime++ or stime++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next_timer handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floppy_timer handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter--; if counter &gt;0, exit;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">if counter &lt;=0, kernel?exit:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">schedule()</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ret_from_sys_call: sig handling</t>
@@ -638,32 +578,22 @@
     <t xml:space="preserve">exit if eax==0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFED1C24"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Reschedule()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> &amp;&amp; ret_from_sys_call</t>
-    </r>
+    <t xml:space="preserve">State==0 Or counter ==0 ? nothing: reschedule()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ret_from_sys_call</t>
   </si>
   <si>
     <t xml:space="preserve">INT38</t>
   </si>
   <si>
-    <t xml:space="preserve">FLOPPY INTERRUPT</t>
+    <t xml:space="preserve">FLOPPY INTERRUPT (no plan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel_interrupt</t>
   </si>
   <si>
     <t xml:space="preserve">INT45</t>
@@ -678,43 +608,22 @@
     <t xml:space="preserve">HARD DISK INTERRUPT</t>
   </si>
   <si>
+    <t xml:space="preserve">call do_hd</t>
+  </si>
+  <si>
     <t xml:space="preserve">INT47</t>
   </si>
   <si>
-    <t xml:space="preserve">interrupt handle flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interrupt kernel stack life cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">system call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fork.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signal.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sys.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit.c</t>
-  </si>
-  <si>
     <t xml:space="preserve">INT128(0x80)</t>
   </si>
   <si>
-    <t xml:space="preserve">system call flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p304</t>
+    <t xml:space="preserve">registers pushed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call C handler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jump to reschedule() if process.status !=0 or counter ==0</t>
   </si>
   <si>
     <t xml:space="preserve">Cycle in main</t>
@@ -768,10 +677,203 @@
     <t xml:space="preserve">schedule()</t>
   </si>
   <si>
+    <t xml:space="preserve">Wake up each process that gets signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check counter and use switch_to()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys_pause()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set current process to TASK_INTERRUPTIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch_to(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jump to selected process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do_signal()</t>
+  </si>
+  <si>
     <t xml:space="preserve">sleep_on()</t>
   </si>
   <si>
     <t xml:space="preserve">wakeup()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">physical address space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virtual address space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liner address space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x03FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seg base add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video &amp; BIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384 KiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640KiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~ 440 KiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~200 KiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0KiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffer memory layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1KiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Kib for 1 buffer slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video &amp; BIOS, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192M + 640K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffer head structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128M + 640K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16M + 640K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end
+~200KiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1024 * 4 byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page table 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K = 4 byte * 1024 pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page table 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dir 1024 * 4 byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page table 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page table 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR3 PDBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page table 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K = 4 byte * 1024 ptr</t>
   </si>
   <si>
     <t xml:space="preserve">8253/8254</t>
@@ -794,7 +896,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -908,6 +1010,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFED1C24"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -983,6 +1092,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE0EFD4"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFBCC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCAED5"/>
+        <bgColor rgb="FFB4C7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFBE5D6"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
@@ -999,26 +1126,8 @@
         <bgColor rgb="FFC9C9C9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EFD4"/>
-        <bgColor rgb="FFE2F0D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFBCC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCAED5"/>
-        <bgColor rgb="FFB4C7E7"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1080,6 +1189,126 @@
       <right style="medium"/>
       <top/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000080"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FF000080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000080"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1173,48 +1402,6 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1244,7 +1431,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="141">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1449,19 +1636,99 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,23 +1744,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1517,7 +1784,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1537,15 +1804,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1553,39 +1820,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1605,11 +1872,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1621,23 +1888,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1657,23 +1924,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1681,27 +1948,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1726,50 +1993,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1802,7 +2025,7 @@
       <rgbColor rgb="FFC9C9C9"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF8FAADC"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FFFFFBCC"/>
       <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FF660066"/>
@@ -1837,7 +2060,7 @@
       <rgbColor rgb="FF00A65D"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1857,9 +2080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1869,7 +2092,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="183960"/>
-          <a:ext cx="2005920" cy="367560"/>
+          <a:ext cx="2005560" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,9 +2150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1939,7 +2162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="552240"/>
-          <a:ext cx="2005920" cy="367560"/>
+          <a:ext cx="2005560" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2009,9 +2232,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2021,7 +2244,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="920520"/>
-          <a:ext cx="2005920" cy="367560"/>
+          <a:ext cx="2005560" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2081,9 +2304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2093,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="1473120"/>
-          <a:ext cx="1504440" cy="367560"/>
+          <a:ext cx="1504080" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2151,9 +2374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2163,7 +2386,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1755720" y="1473120"/>
-          <a:ext cx="1504080" cy="367560"/>
+          <a:ext cx="1503720" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2223,9 +2446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
+      <xdr:colOff>132120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2235,7 +2458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3142800" y="1473120"/>
-          <a:ext cx="1504440" cy="367560"/>
+          <a:ext cx="1504080" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,9 +2518,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2307,7 +2530,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="2393640"/>
-          <a:ext cx="12791520" cy="367560"/>
+          <a:ext cx="12791160" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2365,9 +2588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2377,7 +2600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="3130200"/>
-          <a:ext cx="12791520" cy="367920"/>
+          <a:ext cx="12791160" cy="367560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2435,9 +2658,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2447,7 +2670,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="3867120"/>
-          <a:ext cx="14045400" cy="367560"/>
+          <a:ext cx="14045040" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2517,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="4419360"/>
-          <a:ext cx="12791520" cy="735840"/>
+          <a:ext cx="12791160" cy="735480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2575,9 +2798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
+      <xdr:colOff>11520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2587,7 +2810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="263160" y="5340240"/>
-          <a:ext cx="12791520" cy="367560"/>
+          <a:ext cx="12791160" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2645,9 +2868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2657,7 +2880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="5892480"/>
-          <a:ext cx="12791520" cy="736200"/>
+          <a:ext cx="12791160" cy="735840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2715,9 +2938,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2950,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257040" y="6813360"/>
-          <a:ext cx="12791520" cy="367560"/>
+          <a:ext cx="12791160" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2785,9 +3008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2797,7 +3020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="7365960"/>
-          <a:ext cx="12791520" cy="367560"/>
+          <a:ext cx="12791160" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2857,7 +3080,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2867,7 +3090,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="2761920"/>
-          <a:ext cx="360" cy="367560"/>
+          <a:ext cx="360" cy="367200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2916,7 +3139,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2926,7 +3149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="3498840"/>
-          <a:ext cx="360" cy="367560"/>
+          <a:ext cx="360" cy="367200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2975,7 +3198,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2985,7 +3208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="4235400"/>
-          <a:ext cx="360" cy="183240"/>
+          <a:ext cx="360" cy="182880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3032,9 +3255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
+      <xdr:colOff>109800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3044,7 +3267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="5155920"/>
-          <a:ext cx="11880" cy="183600"/>
+          <a:ext cx="11520" cy="183240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3091,9 +3314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>109440</xdr:colOff>
+      <xdr:colOff>109080</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3103,7 +3326,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="6618960" y="5708520"/>
-          <a:ext cx="11880" cy="183240"/>
+          <a:ext cx="11520" cy="182880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3150,9 +3373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3162,7 +3385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="6629400"/>
-          <a:ext cx="5760" cy="183240"/>
+          <a:ext cx="5400" cy="182880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3203,15 +3426,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3220,8 +3443,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6618960" y="7181640"/>
-          <a:ext cx="5760" cy="183600"/>
+          <a:off x="6618240" y="7181640"/>
+          <a:ext cx="5400" cy="183240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3268,9 +3491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3280,7 +3503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="8464320"/>
-          <a:ext cx="12791520" cy="367560"/>
+          <a:ext cx="12791160" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3338,9 +3561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3350,7 +3573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="226440" y="9016920"/>
-          <a:ext cx="12791160" cy="367560"/>
+          <a:ext cx="12790800" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3402,15 +3625,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>90720</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3419,8 +3642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6612840" y="8832600"/>
-          <a:ext cx="5760" cy="183600"/>
+          <a:off x="6612120" y="8832600"/>
+          <a:ext cx="5400" cy="183240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3467,9 +3690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3479,7 +3702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="9943920"/>
-          <a:ext cx="4012560" cy="367560"/>
+          <a:ext cx="4012200" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3537,9 +3760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3549,7 +3772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="10699560"/>
-          <a:ext cx="4012560" cy="367560"/>
+          <a:ext cx="4012200" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3607,9 +3830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3619,7 +3842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="11417040"/>
-          <a:ext cx="4012560" cy="367560"/>
+          <a:ext cx="4012200" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3677,9 +3900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3689,7 +3912,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="12172680"/>
-          <a:ext cx="4012560" cy="367560"/>
+          <a:ext cx="4012200" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3747,9 +3970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3759,7 +3982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="12890160"/>
-          <a:ext cx="4012560" cy="367920"/>
+          <a:ext cx="4012200" cy="367560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3817,9 +4040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3829,7 +4052,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="13646160"/>
-          <a:ext cx="4012560" cy="367560"/>
+          <a:ext cx="4012200" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3887,9 +4110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3899,7 +4122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="10312200"/>
-          <a:ext cx="18360" cy="386640"/>
+          <a:ext cx="18000" cy="386280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3946,9 +4169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3958,7 +4181,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2256480" y="11067840"/>
-          <a:ext cx="18360" cy="348480"/>
+          <a:ext cx="18000" cy="348120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4005,9 +4228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4017,7 +4240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="11785320"/>
-          <a:ext cx="18360" cy="386640"/>
+          <a:ext cx="18000" cy="386280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4064,9 +4287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4076,7 +4299,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2256480" y="12540960"/>
-          <a:ext cx="18360" cy="348480"/>
+          <a:ext cx="18000" cy="348120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4123,9 +4346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4135,7 +4358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="13258800"/>
-          <a:ext cx="18360" cy="386640"/>
+          <a:ext cx="18000" cy="386280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4182,9 +4405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4194,7 +4417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="14731920"/>
-          <a:ext cx="7524000" cy="367560"/>
+          <a:ext cx="7523640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4252,9 +4475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4264,7 +4487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="15487560"/>
-          <a:ext cx="7524000" cy="1269360"/>
+          <a:ext cx="7523640" cy="1269000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4398,9 +4621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4410,7 +4633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="17145000"/>
-          <a:ext cx="7524000" cy="1269000"/>
+          <a:ext cx="7523640" cy="1268640"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4506,9 +4729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4518,7 +4741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="18783000"/>
-          <a:ext cx="7524000" cy="367560"/>
+          <a:ext cx="7523640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4586,9 +4809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4598,7 +4821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="19519560"/>
-          <a:ext cx="7524000" cy="367920"/>
+          <a:ext cx="7523640" cy="367560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4666,9 +4889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4678,7 +4901,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="20256480"/>
-          <a:ext cx="7524000" cy="1269360"/>
+          <a:ext cx="7523640" cy="1269000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4812,9 +5035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4824,7 +5047,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="21932640"/>
-          <a:ext cx="7524000" cy="1269360"/>
+          <a:ext cx="7523640" cy="1269000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4939,9 +5162,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4951,7 +5174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="23590080"/>
-          <a:ext cx="7524000" cy="2005920"/>
+          <a:ext cx="7523640" cy="2005560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5180,9 +5403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5192,7 +5415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="25965000"/>
-          <a:ext cx="7524000" cy="1104120"/>
+          <a:ext cx="7523640" cy="1103760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5288,9 +5511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5300,7 +5523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="27438120"/>
-          <a:ext cx="7524000" cy="367560"/>
+          <a:ext cx="7523640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5358,9 +5581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5370,7 +5593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="28174680"/>
-          <a:ext cx="7524000" cy="367560"/>
+          <a:ext cx="7523640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5428,9 +5651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5440,7 +5663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="28911240"/>
-          <a:ext cx="7524000" cy="1098000"/>
+          <a:ext cx="7523640" cy="1097640"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5603,9 +5826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5615,7 +5838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8277120" y="23571000"/>
-          <a:ext cx="6018840" cy="1840680"/>
+          <a:ext cx="6018480" cy="1840320"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
           <a:avLst>
@@ -5716,7 +5939,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5726,301 +5949,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="15100200"/>
-          <a:ext cx="360" cy="386640"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4263840" y="16757640"/>
-          <a:ext cx="360" cy="367560"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4263840" y="18414720"/>
-          <a:ext cx="360" cy="367560"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4263840" y="19151280"/>
-          <a:ext cx="360" cy="367560"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4263840" y="19888200"/>
-          <a:ext cx="360" cy="367560"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4263840" y="21526560"/>
           <a:ext cx="360" cy="386280"/>
         </a:xfrm>
         <a:custGeom>
@@ -6063,24 +5991,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4263840" y="23202720"/>
-          <a:ext cx="360" cy="367560"/>
+          <a:off x="4263840" y="16757640"/>
+          <a:ext cx="360" cy="367200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6122,24 +6050,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4263840" y="25596720"/>
-          <a:ext cx="360" cy="367560"/>
+          <a:off x="4263840" y="18414720"/>
+          <a:ext cx="360" cy="367200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6181,24 +6109,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4263840" y="27069840"/>
-          <a:ext cx="360" cy="367560"/>
+          <a:off x="4263840" y="19151280"/>
+          <a:ext cx="360" cy="367200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6240,24 +6168,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4263840" y="27806400"/>
-          <a:ext cx="360" cy="367560"/>
+          <a:off x="4263840" y="19888200"/>
+          <a:ext cx="360" cy="367200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6299,24 +6227,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>165240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4263840" y="28542960"/>
-          <a:ext cx="360" cy="367560"/>
+          <a:off x="4263840" y="21526560"/>
+          <a:ext cx="360" cy="385920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6356,6 +6284,301 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="23202720"/>
+          <a:ext cx="360" cy="367200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>183240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="25596720"/>
+          <a:ext cx="360" cy="367200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="27069840"/>
+          <a:ext cx="360" cy="367200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="27806400"/>
+          <a:ext cx="360" cy="367200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="28542960"/>
+          <a:ext cx="360" cy="367200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>165</xdr:row>
@@ -6363,9 +6586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6375,7 +6598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="30384720"/>
-          <a:ext cx="7524000" cy="367560"/>
+          <a:ext cx="7523640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6435,7 +6658,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6445,7 +6668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="30009960"/>
-          <a:ext cx="360" cy="374040"/>
+          <a:ext cx="360" cy="373680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6494,7 +6717,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>190800</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6504,7 +6727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4203360" y="30759480"/>
-          <a:ext cx="360" cy="374040"/>
+          <a:ext cx="360" cy="373680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6551,9 +6774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6563,7 +6786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="507960" y="31140360"/>
-          <a:ext cx="7524000" cy="367560"/>
+          <a:ext cx="7523640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6623,7 +6846,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>6840</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6633,7 +6856,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4270320" y="31496040"/>
-          <a:ext cx="360" cy="374040"/>
+          <a:ext cx="360" cy="373680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6680,9 +6903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6692,7 +6915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="520560" y="31876920"/>
-          <a:ext cx="7524000" cy="367560"/>
+          <a:ext cx="7523640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6752,7 +6975,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>190800</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6762,7 +6985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4203360" y="32238720"/>
-          <a:ext cx="360" cy="374040"/>
+          <a:ext cx="360" cy="373680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6809,9 +7032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6821,7 +7044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="507960" y="32619960"/>
-          <a:ext cx="7524000" cy="367560"/>
+          <a:ext cx="7523640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6889,9 +7112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>189720</xdr:colOff>
+      <xdr:colOff>189360</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6901,7 +7124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="441000" y="33337440"/>
-          <a:ext cx="7524000" cy="367560"/>
+          <a:ext cx="7523640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6959,9 +7182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6971,7 +7194,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4202640" y="32988240"/>
-          <a:ext cx="65880" cy="348480"/>
+          <a:ext cx="65520" cy="348120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7018,9 +7241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170640</xdr:colOff>
+      <xdr:colOff>170280</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7030,7 +7253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="441000" y="34264440"/>
-          <a:ext cx="3492000" cy="367560"/>
+          <a:ext cx="3491640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7082,15 +7305,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>179640</xdr:colOff>
       <xdr:row>183</xdr:row>
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7099,8 +7322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2186640" y="33705720"/>
-          <a:ext cx="69120" cy="558360"/>
+          <a:off x="2185920" y="33705720"/>
+          <a:ext cx="68760" cy="558000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7147,9 +7370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>189720</xdr:colOff>
+      <xdr:colOff>189360</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7159,7 +7382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4777920" y="34264440"/>
-          <a:ext cx="3438000" cy="367560"/>
+          <a:ext cx="3437640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7217,9 +7440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7229,7 +7452,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2196720" y="33890040"/>
-          <a:ext cx="4327200" cy="374040"/>
+          <a:ext cx="4326840" cy="373680"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7263,9 +7486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>177120</xdr:colOff>
+      <xdr:colOff>176760</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7275,7 +7498,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="35001000"/>
-          <a:ext cx="3438000" cy="367560"/>
+          <a:ext cx="3437640" cy="367200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7333,9 +7556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7345,7 +7568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="35934480"/>
-          <a:ext cx="3491640" cy="500760"/>
+          <a:ext cx="3491280" cy="500400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7403,9 +7626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>177120</xdr:colOff>
+      <xdr:colOff>176760</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7415,7 +7638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4765320" y="35928000"/>
-          <a:ext cx="3438000" cy="494640"/>
+          <a:ext cx="3437640" cy="494280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7475,7 +7698,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>187560</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7485,7 +7708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2193480" y="35369280"/>
-          <a:ext cx="360" cy="684720"/>
+          <a:ext cx="360" cy="684360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7532,9 +7755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>186840</xdr:colOff>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7544,7 +7767,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2187360" y="34632720"/>
-          <a:ext cx="5760" cy="367560"/>
+          <a:ext cx="5400" cy="367200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7591,9 +7814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185400</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7603,7 +7826,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2192760" y="35369280"/>
-          <a:ext cx="4263480" cy="558000"/>
+          <a:ext cx="4263120" cy="557640"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7639,9 +7862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>177120</xdr:colOff>
+      <xdr:colOff>176760</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7651,7 +7874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="36664920"/>
-          <a:ext cx="3412440" cy="494640"/>
+          <a:ext cx="3412080" cy="494280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7709,9 +7932,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7721,7 +7944,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2259720" y="36435960"/>
-          <a:ext cx="11880" cy="228240"/>
+          <a:ext cx="11520" cy="227880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7768,9 +7991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
+      <xdr:colOff>37080</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7780,7 +8003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="36185400"/>
-          <a:ext cx="11880" cy="726480"/>
+          <a:ext cx="11520" cy="726120"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7812,13 +8035,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7827,8 +8050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4019400" y="36174960"/>
-          <a:ext cx="745200" cy="8640"/>
+          <a:off x="4019400" y="36174240"/>
+          <a:ext cx="744840" cy="8280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7880,9 +8103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>748440</xdr:colOff>
+      <xdr:colOff>748080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7896,7 +8119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2393640"/>
-          <a:ext cx="3925080" cy="2377800"/>
+          <a:ext cx="3924720" cy="2377440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7917,9 +8140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>140760</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7933,7 +8156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4971960"/>
-          <a:ext cx="7064280" cy="2655360"/>
+          <a:ext cx="7063920" cy="2655000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7954,9 +8177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7970,7 +8193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4090680" cy="2437200"/>
+          <a:ext cx="4090320" cy="2436840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7991,9 +8214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8007,7 +8230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7967160"/>
-          <a:ext cx="6195240" cy="3348360"/>
+          <a:ext cx="6194880" cy="3348000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8028,9 +8251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
+      <xdr:colOff>30600</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8044,7 +8267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11519640"/>
-          <a:ext cx="4706280" cy="3045960"/>
+          <a:ext cx="4705920" cy="3045600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8065,9 +8288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
+      <xdr:colOff>30600</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8081,7 +8304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14635440"/>
-          <a:ext cx="4706280" cy="2856960"/>
+          <a:ext cx="4705920" cy="2856600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8102,9 +8325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>469080</xdr:colOff>
+      <xdr:colOff>468720</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8118,7 +8341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17766000"/>
-          <a:ext cx="8141760" cy="2431440"/>
+          <a:ext cx="8141400" cy="2431080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8139,9 +8362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8155,7 +8378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20464920"/>
-          <a:ext cx="6357600" cy="2907720"/>
+          <a:ext cx="6357240" cy="2907360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8176,9 +8399,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>488160</xdr:colOff>
+      <xdr:colOff>487800</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8192,7 +8415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23548320"/>
-          <a:ext cx="5912640" cy="4622040"/>
+          <a:ext cx="5912280" cy="4621680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8218,7 +8441,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
+      <xdr:colOff>11520</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
@@ -8230,7 +8453,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="3835080"/>
-          <a:ext cx="1224000" cy="360"/>
+          <a:ext cx="1223640" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8273,13 +8496,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>590400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>589680</xdr:colOff>
+      <xdr:colOff>589320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8288,8 +8511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3723840" y="2183400"/>
-          <a:ext cx="748800" cy="5760"/>
+          <a:off x="3723840" y="2182680"/>
+          <a:ext cx="748440" cy="5400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8332,13 +8555,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8347,8 +8570,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3889440" y="1853280"/>
-          <a:ext cx="748440" cy="5760"/>
+          <a:off x="3889440" y="1852560"/>
+          <a:ext cx="748080" cy="5400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8391,13 +8614,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>748440</xdr:colOff>
+      <xdr:colOff>748080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8406,8 +8629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3882960" y="1516680"/>
-          <a:ext cx="748440" cy="5760"/>
+          <a:off x="3882960" y="1515960"/>
+          <a:ext cx="748080" cy="5400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8450,13 +8673,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>748440</xdr:colOff>
+      <xdr:colOff>748080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8465,8 +8688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3882960" y="1014840"/>
-          <a:ext cx="748440" cy="5760"/>
+          <a:off x="3882960" y="1014120"/>
+          <a:ext cx="748080" cy="5400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8509,13 +8732,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>12600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
+      <xdr:colOff>11520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>195480</xdr:rowOff>
+      <xdr:rowOff>194400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8524,8 +8747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3895560" y="189720"/>
-          <a:ext cx="748440" cy="5760"/>
+          <a:off x="3895560" y="189000"/>
+          <a:ext cx="748080" cy="5400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8572,7 +8795,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18000</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
@@ -8584,7 +8807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1030680" y="2851200"/>
-          <a:ext cx="1224000" cy="360"/>
+          <a:ext cx="1223640" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8631,7 +8854,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
@@ -8643,7 +8866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="878040" y="3263760"/>
-          <a:ext cx="1364040" cy="360"/>
+          <a:ext cx="1363680" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8690,7 +8913,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
@@ -8702,7 +8925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="878040" y="4489200"/>
-          <a:ext cx="1364040" cy="360"/>
+          <a:ext cx="1363680" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8749,9 +8972,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1211400</xdr:colOff>
+      <xdr:colOff>1211040</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8761,7 +8984,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="1030680" y="6463440"/>
-          <a:ext cx="1204920" cy="11880"/>
+          <a:ext cx="1204560" cy="11520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8808,7 +9031,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
+      <xdr:colOff>11520</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
@@ -8820,7 +9043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="5581800"/>
-          <a:ext cx="1224000" cy="360"/>
+          <a:ext cx="1223640" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8867,7 +9090,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
+      <xdr:colOff>11520</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
@@ -8879,7 +9102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="4070160"/>
-          <a:ext cx="1224000" cy="360"/>
+          <a:ext cx="1223640" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9076,7 +9299,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9084,17 +9307,17 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -13620,6 +13843,706 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF00A65D"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J71"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="53"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="54"/>
+      <c r="E2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="54"/>
+      <c r="E3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="54"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="54"/>
+      <c r="E5" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="J5" s="55"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="54"/>
+      <c r="E6" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="54"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="54"/>
+      <c r="E8" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="54"/>
+      <c r="E9" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="63"/>
+      <c r="E11" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="63"/>
+      <c r="E12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="63"/>
+      <c r="E14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="63"/>
+      <c r="E15" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="68"/>
+      <c r="D37" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="68"/>
+      <c r="D38" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="68"/>
+      <c r="D39" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF00A65D"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="70" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFFCD4D1"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -13649,715 +14572,715 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="56"/>
-      <c r="K1" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="56"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="76"/>
+      <c r="K1" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="77"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="85"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="M9" s="88"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="51"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
+      <c r="D13" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="J15" s="85"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="0" t="s">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
-      <c r="D17" s="89" t="s">
-        <v>112</v>
+      <c r="D17" s="109" t="s">
+        <v>227</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
-      <c r="B18" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="89"/>
+      <c r="B18" s="110" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="109"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="68"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
+      <c r="H18" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" s="76"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="M18" s="88"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
-      <c r="B19" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="B19" s="111" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" s="65"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="65"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="M19" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="N19" s="85"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="85"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
-      <c r="B20" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
+      <c r="B20" s="111" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
-      <c r="B21" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
+      <c r="B21" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
-      <c r="B22" s="91" t="s">
-        <v>113</v>
+      <c r="B22" s="111" t="s">
+        <v>228</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
-      <c r="B23" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="89" t="s">
-        <v>102</v>
+      <c r="B23" s="111" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>217</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" s="85"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
-      <c r="B24" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="89"/>
+      <c r="B24" s="114" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="109"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="68"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="88"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
-      <c r="B25" s="94"/>
+      <c r="B25" s="114"/>
       <c r="D25" s="23" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="68"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="90"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="88"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
-      <c r="B26" s="94"/>
+      <c r="B26" s="114"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="56"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="M26" s="68"/>
+      <c r="H26" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="76"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" s="88"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="B27" s="94"/>
-      <c r="D27" s="89" t="s">
-        <v>107</v>
+      <c r="B27" s="114"/>
+      <c r="D27" s="109" t="s">
+        <v>222</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="64"/>
-      <c r="K27" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="L27" s="67"/>
-      <c r="M27" s="64"/>
+      <c r="H27" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="K27" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" s="87"/>
+      <c r="M27" s="84"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
-      <c r="B28" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="89"/>
+      <c r="B28" s="111" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="109"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="56"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="76"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="91" t="s">
-        <v>113</v>
+      <c r="B29" s="111" t="s">
+        <v>228</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
-      <c r="B30" s="91" t="s">
-        <v>113</v>
+      <c r="B30" s="111" t="s">
+        <v>228</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
-      <c r="B31" s="91" t="s">
-        <v>113</v>
+      <c r="B31" s="111" t="s">
+        <v>228</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
-      <c r="B32" s="91"/>
+      <c r="B32" s="111"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="K32" s="98" t="s">
-        <v>121</v>
+      <c r="H32" s="115" t="s">
+        <v>233</v>
+      </c>
+      <c r="I32" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" s="117" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" s="118" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
-      <c r="B33" s="91" t="s">
-        <v>122</v>
+      <c r="B33" s="111" t="s">
+        <v>237</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" s="99" t="s">
-        <v>124</v>
-      </c>
-      <c r="K33" s="100" t="s">
-        <v>125</v>
+      <c r="H33" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" s="119" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" s="120" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
-      <c r="B34" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
+      <c r="B34" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="K34" s="102" t="s">
-        <v>129</v>
+      <c r="H34" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="122" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
-      <c r="B35" s="91" t="s">
-        <v>122</v>
+      <c r="B35" s="111" t="s">
+        <v>237</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="J35" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35" s="102" t="s">
-        <v>132</v>
+      <c r="H35" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" s="121" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" s="122" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
-      <c r="B36" s="91" t="s">
-        <v>115</v>
+      <c r="B36" s="111" t="s">
+        <v>230</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="101" t="n">
+      <c r="H36" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="I36" s="92" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" s="121" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="102" t="s">
-        <v>130</v>
+      <c r="K36" s="122" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
-      <c r="B37" s="91" t="s">
-        <v>122</v>
+      <c r="B37" s="111" t="s">
+        <v>237</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="104" t="s">
+      <c r="H37" s="123" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="105" t="n">
+      <c r="J37" s="125" t="n">
         <v>0</v>
       </c>
-      <c r="K37" s="106" t="s">
-        <v>134</v>
+      <c r="K37" s="126" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
-      <c r="B38" s="91" t="s">
-        <v>122</v>
+      <c r="B38" s="111" t="s">
+        <v>237</v>
       </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
-      <c r="B39" s="107" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="93" t="s">
-        <v>135</v>
+      <c r="B39" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="113" t="s">
+        <v>250</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
-      <c r="D40" s="93"/>
+      <c r="D40" s="113"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="88"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="108"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -14402,7 +15325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFCD4D1"/>
@@ -14420,431 +15343,431 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="68" t="s">
-        <v>137</v>
+      <c r="A1" s="83"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="88" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="108"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="68"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="128"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="88"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="108"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="68"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="128"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="88"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="108"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="68"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="128"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="88"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="108"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="68"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="128"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="88"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="108"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="68"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="128"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="88"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="108"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="68"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="128"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="88"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="109"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="108"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="68"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130"/>
+      <c r="AD8" s="130"/>
+      <c r="AE8" s="130"/>
+      <c r="AF8" s="131"/>
+      <c r="AG8" s="128"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="88"/>
       <c r="AO8" s="0" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="112"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="108"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="68" t="s">
-        <v>139</v>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
+      <c r="AB9" s="133"/>
+      <c r="AC9" s="133"/>
+      <c r="AD9" s="133"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="134"/>
+      <c r="AG9" s="128"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="88" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="108"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="70"/>
-      <c r="AN10" s="68"/>
+      <c r="A10" s="132"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="128"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="88"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="112"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="108"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="70"/>
-      <c r="AN11" s="68"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="134"/>
+      <c r="AG11" s="128"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="88"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="n">
@@ -14943,293 +15866,293 @@
       <c r="AF12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AG12" s="108"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="70"/>
-      <c r="AN12" s="68"/>
+      <c r="AG12" s="128"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="88"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="70"/>
-      <c r="AN13" s="68"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="90"/>
+      <c r="AN13" s="88"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="70"/>
-      <c r="AN14" s="68"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="90"/>
+      <c r="AN14" s="88"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="70"/>
-      <c r="AN15" s="68"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="128" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="90"/>
+      <c r="AN15" s="88"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="108"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="68"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="128"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="88"/>
       <c r="AO16" s="0" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="69"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="108"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="64"/>
-      <c r="AN17" s="68" t="s">
-        <v>141</v>
+      <c r="A17" s="89"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="90"/>
+      <c r="AG17" s="128"/>
+      <c r="AL17" s="83"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="88" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="115"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
-      <c r="AA18" s="116"/>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="116"/>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="116"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="108"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="70"/>
-      <c r="AN18" s="68"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
+      <c r="S18" s="136"/>
+      <c r="T18" s="136"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="136"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="136"/>
+      <c r="Y18" s="136"/>
+      <c r="Z18" s="136"/>
+      <c r="AA18" s="136"/>
+      <c r="AB18" s="136"/>
+      <c r="AC18" s="136"/>
+      <c r="AD18" s="136"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="128"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="88"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="118"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="119"/>
-      <c r="AC19" s="119"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="119"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="108"/>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="70"/>
-      <c r="AN19" s="68"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="128"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="90"/>
+      <c r="AN19" s="88"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="118"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="119"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="119"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="119"/>
-      <c r="AF20" s="120"/>
-      <c r="AG20" s="108"/>
-      <c r="AL20" s="69"/>
-      <c r="AM20" s="70"/>
-      <c r="AN20" s="68"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="140"/>
+      <c r="AG20" s="128"/>
+      <c r="AL20" s="89"/>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="88"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="119"/>
-      <c r="S21" s="119"/>
-      <c r="T21" s="119"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="119"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="119"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="119"/>
-      <c r="AC21" s="119"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="119"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="108"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="70"/>
-      <c r="AN21" s="68"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="128"/>
+      <c r="AL21" s="89"/>
+      <c r="AM21" s="90"/>
+      <c r="AN21" s="88"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="n">
@@ -15328,75 +16251,75 @@
       <c r="AF22" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AG22" s="108"/>
-      <c r="AL22" s="69"/>
-      <c r="AM22" s="70"/>
-      <c r="AN22" s="68"/>
+      <c r="AG22" s="128"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="90"/>
+      <c r="AN22" s="88"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL23" s="69"/>
-      <c r="AM23" s="70"/>
-      <c r="AN23" s="68"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="90"/>
+      <c r="AN23" s="88"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
-      <c r="AN24" s="68"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="88"/>
       <c r="AO24" s="0" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="64"/>
-      <c r="AN25" s="68" t="s">
-        <v>142</v>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="88" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="70"/>
-      <c r="AN26" s="68"/>
+        <v>258</v>
+      </c>
+      <c r="AL26" s="89"/>
+      <c r="AM26" s="90"/>
+      <c r="AN26" s="88"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="118"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="119"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="119"/>
-      <c r="AA27" s="119"/>
-      <c r="AB27" s="119"/>
-      <c r="AC27" s="119"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="119"/>
-      <c r="AF27" s="120"/>
-      <c r="AL27" s="69"/>
-      <c r="AM27" s="70"/>
-      <c r="AN27" s="68"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="139"/>
+      <c r="AF27" s="140"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="90"/>
+      <c r="AN27" s="88"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="n">
@@ -15495,121 +16418,121 @@
       <c r="AF28" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AL28" s="69"/>
-      <c r="AM28" s="70"/>
-      <c r="AN28" s="68"/>
+      <c r="AL28" s="89"/>
+      <c r="AM28" s="90"/>
+      <c r="AN28" s="88"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL29" s="69"/>
-      <c r="AM29" s="70"/>
-      <c r="AN29" s="68"/>
+      <c r="AL29" s="89"/>
+      <c r="AM29" s="90"/>
+      <c r="AN29" s="88"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL30" s="69"/>
-      <c r="AM30" s="70"/>
-      <c r="AN30" s="68"/>
+      <c r="AL30" s="89"/>
+      <c r="AM30" s="90"/>
+      <c r="AN30" s="88"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL31" s="69"/>
-      <c r="AM31" s="70"/>
-      <c r="AN31" s="68"/>
+      <c r="AL31" s="89"/>
+      <c r="AM31" s="90"/>
+      <c r="AN31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="68"/>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="76"/>
+      <c r="AN32" s="88"/>
       <c r="AO32" s="0" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="68" t="s">
-        <v>144</v>
+      <c r="AL33" s="83"/>
+      <c r="AM33" s="84"/>
+      <c r="AN33" s="88" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL34" s="69"/>
-      <c r="AM34" s="70"/>
-      <c r="AN34" s="68"/>
+      <c r="AL34" s="89"/>
+      <c r="AM34" s="90"/>
+      <c r="AN34" s="88"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL35" s="69"/>
-      <c r="AM35" s="70"/>
-      <c r="AN35" s="68"/>
+      <c r="AL35" s="89"/>
+      <c r="AM35" s="90"/>
+      <c r="AN35" s="88"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL36" s="69"/>
-      <c r="AM36" s="70"/>
-      <c r="AN36" s="68"/>
+      <c r="AL36" s="89"/>
+      <c r="AM36" s="90"/>
+      <c r="AN36" s="88"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL37" s="69"/>
-      <c r="AM37" s="70"/>
-      <c r="AN37" s="68"/>
+      <c r="AL37" s="89"/>
+      <c r="AM37" s="90"/>
+      <c r="AN37" s="88"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL38" s="69"/>
-      <c r="AM38" s="70"/>
-      <c r="AN38" s="68"/>
+      <c r="AL38" s="89"/>
+      <c r="AM38" s="90"/>
+      <c r="AN38" s="88"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL39" s="69"/>
-      <c r="AM39" s="70"/>
-      <c r="AN39" s="68"/>
+      <c r="AL39" s="89"/>
+      <c r="AM39" s="90"/>
+      <c r="AN39" s="88"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="56"/>
-      <c r="AN40" s="68"/>
+      <c r="AL40" s="75"/>
+      <c r="AM40" s="76"/>
+      <c r="AN40" s="88"/>
       <c r="AO40" s="0" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL41" s="63"/>
-      <c r="AM41" s="64"/>
-      <c r="AN41" s="68" t="s">
-        <v>145</v>
+      <c r="AL41" s="83"/>
+      <c r="AM41" s="84"/>
+      <c r="AN41" s="88" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL42" s="69"/>
-      <c r="AM42" s="70"/>
-      <c r="AN42" s="68"/>
+      <c r="AL42" s="89"/>
+      <c r="AM42" s="90"/>
+      <c r="AN42" s="88"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL43" s="69"/>
-      <c r="AM43" s="70"/>
-      <c r="AN43" s="68"/>
+      <c r="AL43" s="89"/>
+      <c r="AM43" s="90"/>
+      <c r="AN43" s="88"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL44" s="69"/>
-      <c r="AM44" s="70"/>
-      <c r="AN44" s="68"/>
+      <c r="AL44" s="89"/>
+      <c r="AM44" s="90"/>
+      <c r="AN44" s="88"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL45" s="69"/>
-      <c r="AM45" s="70"/>
-      <c r="AN45" s="68"/>
+      <c r="AL45" s="89"/>
+      <c r="AM45" s="90"/>
+      <c r="AN45" s="88"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL46" s="69"/>
-      <c r="AM46" s="70"/>
-      <c r="AN46" s="68"/>
+      <c r="AL46" s="89"/>
+      <c r="AM46" s="90"/>
+      <c r="AN46" s="88"/>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL47" s="69"/>
-      <c r="AM47" s="70"/>
-      <c r="AN47" s="68"/>
+      <c r="AL47" s="89"/>
+      <c r="AM47" s="90"/>
+      <c r="AN47" s="88"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="56"/>
-      <c r="AN48" s="68"/>
+      <c r="AL48" s="75"/>
+      <c r="AM48" s="76"/>
+      <c r="AN48" s="88"/>
       <c r="AO48" s="0" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -15631,478 +16554,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A65D"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="121"/>
-      <c r="C4" s="122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="123"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="124" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="124"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="125"/>
-      <c r="C7" s="126" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="124" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="124"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="127" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="127"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="129" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="129" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="129" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="129" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="129" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="129" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="128" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="128" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="129" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129"/>
-      <c r="D33" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
-      <c r="D34" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
-      <c r="D35" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="128" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="128" t="s">
-        <v>194</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="129" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FF00A65D"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="130" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="131" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Diagrams/Diagrams-1.xlsx
+++ b/Diagrams/Diagrams-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="290">
   <si>
     <t xml:space="preserve">Part 1: Our First Assembly Program</t>
   </si>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">close(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Goto 1</t>
+    <t xml:space="preserve">goto 1</t>
   </si>
   <si>
     <t xml:space="preserve">close(2)</t>
@@ -671,37 +671,109 @@
     <t xml:space="preserve">_exit(execve("/bin/sh", argv, envp))</t>
   </si>
   <si>
-    <t xml:space="preserve">process management</t>
+    <t xml:space="preserve">find_empty_process()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy_process()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_free_page()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy_mem() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy_page_tables()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free_page_tables()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free_page()</t>
   </si>
   <si>
     <t xml:space="preserve">schedule()</t>
   </si>
   <si>
-    <t xml:space="preserve">Wake up each process that gets signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check counter and use switch_to()</t>
+    <t xml:space="preserve">wake up the process(es) that gets signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch_to()</t>
   </si>
   <si>
     <t xml:space="preserve">sys_pause()</t>
   </si>
   <si>
-    <t xml:space="preserve">Set current process to TASK_INTERRUPTIBLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">switch_to(n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jump to selected process</t>
+    <t xml:space="preserve">set current process to TASK_INTERRUPTIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when this process gets a signal (killed), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">or other signal, returns here after the signal handler finishes</t>
   </si>
   <si>
     <t xml:space="preserve">do_signal()</t>
   </si>
   <si>
+    <t xml:space="preserve">insert the signal handler into the user code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_exit()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free_page_tables();release the memory of data and code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys_close();close all the files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set current process to TASK_ZOMBIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send SIGHUP &amp; SIGCONT if process’ grp is not parent’s grp &amp;&amp; same session &amp;&amp; is orphaned grp &amp;&amp; has stopped process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tell parent I die</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deal the children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deal if leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waitpid()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_area()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release the process slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free_page() free the PCB page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule() and return</t>
+  </si>
+  <si>
     <t xml:space="preserve">sleep_on()</t>
   </si>
   <si>
-    <t xml:space="preserve">wakeup()</t>
+    <t xml:space="preserve">wake_up()</t>
   </si>
   <si>
     <t xml:space="preserve">physical address space</t>
@@ -896,7 +968,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1022,8 +1094,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF21409A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,7 +1160,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFFCD4D1"/>
+        <bgColor rgb="FFFFE699"/>
       </patternFill>
     </fill>
     <fill>
@@ -1100,6 +1179,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFBCC"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
@@ -1431,7 +1516,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="143">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1700,7 +1785,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1716,19 +1801,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1760,7 +1853,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1848,11 +1941,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1892,19 +1985,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1948,27 +2041,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2029,7 +2122,7 @@
       <rgbColor rgb="FFFFFBCC"/>
       <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFCD4D1"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FF0563C1"/>
       <rgbColor rgb="FFB4C7E7"/>
       <rgbColor rgb="FF000080"/>
@@ -2052,8 +2145,8 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FFFFD966"/>
-      <rgbColor rgb="FFFBE5D6"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFEF413D"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF8F93C7"/>
       <rgbColor rgb="FF003366"/>
@@ -2062,7 +2155,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF21409A"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -2080,9 +2173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2092,7 +2185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="183960"/>
-          <a:ext cx="2005560" cy="367200"/>
+          <a:ext cx="2004840" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2150,9 +2243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2162,7 +2255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="552240"/>
-          <a:ext cx="2005560" cy="367200"/>
+          <a:ext cx="2004840" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2232,9 +2325,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2244,7 +2337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="920520"/>
-          <a:ext cx="2005560" cy="367200"/>
+          <a:ext cx="2004840" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2304,9 +2397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2316,7 +2409,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="1473120"/>
-          <a:ext cx="1504080" cy="367200"/>
+          <a:ext cx="1503360" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2374,9 +2467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2386,7 +2479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1755720" y="1473120"/>
-          <a:ext cx="1503720" cy="367200"/>
+          <a:ext cx="1503000" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2446,9 +2539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>132120</xdr:colOff>
+      <xdr:colOff>131400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2458,7 +2551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3142800" y="1473120"/>
-          <a:ext cx="1504080" cy="367200"/>
+          <a:ext cx="1503360" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2518,9 +2611,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2530,7 +2623,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="2393640"/>
-          <a:ext cx="12791160" cy="367200"/>
+          <a:ext cx="12790440" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2588,9 +2681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2600,7 +2693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="3130200"/>
-          <a:ext cx="12791160" cy="367560"/>
+          <a:ext cx="12790440" cy="366840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2658,9 +2751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2670,7 +2763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="3867120"/>
-          <a:ext cx="14045040" cy="367200"/>
+          <a:ext cx="14044320" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2728,9 +2821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="4419360"/>
-          <a:ext cx="12791160" cy="735480"/>
+          <a:ext cx="12790440" cy="734760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2798,9 +2891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2810,7 +2903,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="263160" y="5340240"/>
-          <a:ext cx="12791160" cy="367200"/>
+          <a:ext cx="12790440" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2868,9 +2961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2880,7 +2973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="5892480"/>
-          <a:ext cx="12791160" cy="735840"/>
+          <a:ext cx="12790440" cy="735120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2938,9 +3031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2950,7 +3043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257040" y="6813360"/>
-          <a:ext cx="12791160" cy="367200"/>
+          <a:ext cx="12790440" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3008,9 +3101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3020,7 +3113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="7365960"/>
-          <a:ext cx="12791160" cy="367200"/>
+          <a:ext cx="12790440" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3080,7 +3173,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3090,7 +3183,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="2761920"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3139,7 +3232,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3149,7 +3242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="3498840"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3198,7 +3291,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3208,7 +3301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="4235400"/>
-          <a:ext cx="360" cy="182880"/>
+          <a:ext cx="360" cy="182160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3255,9 +3348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>109800</xdr:colOff>
+      <xdr:colOff>109080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3267,7 +3360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="5155920"/>
-          <a:ext cx="11520" cy="183240"/>
+          <a:ext cx="10800" cy="182520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3308,15 +3401,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>97560</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
+      <xdr:colOff>107640</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3325,8 +3418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6618960" y="5708520"/>
-          <a:ext cx="11520" cy="182880"/>
+          <a:off x="6618240" y="5708520"/>
+          <a:ext cx="10800" cy="182160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3373,9 +3466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>102960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3385,7 +3478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="6629400"/>
-          <a:ext cx="5400" cy="182880"/>
+          <a:ext cx="4680" cy="182160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3426,15 +3519,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>96840</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>100800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3443,8 +3536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6618240" y="7181640"/>
-          <a:ext cx="5400" cy="183240"/>
+          <a:off x="6617520" y="7181640"/>
+          <a:ext cx="4680" cy="182520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3491,9 +3584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3503,7 +3596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="8464320"/>
-          <a:ext cx="12791160" cy="367200"/>
+          <a:ext cx="12790440" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3561,9 +3654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>224640</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3573,7 +3666,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="226440" y="9016920"/>
-          <a:ext cx="12790800" cy="367200"/>
+          <a:ext cx="12790080" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3625,15 +3718,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>90720</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3642,8 +3735,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6612120" y="8832600"/>
-          <a:ext cx="5400" cy="183240"/>
+          <a:off x="6611400" y="8832600"/>
+          <a:ext cx="4680" cy="182520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3690,9 +3783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3702,7 +3795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="9943920"/>
-          <a:ext cx="4012200" cy="367200"/>
+          <a:ext cx="4011480" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3760,9 +3853,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3772,7 +3865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="10699560"/>
-          <a:ext cx="4012200" cy="367200"/>
+          <a:ext cx="4011480" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3830,9 +3923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3842,7 +3935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="11417040"/>
-          <a:ext cx="4012200" cy="367200"/>
+          <a:ext cx="4011480" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3900,9 +3993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3912,7 +4005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="12172680"/>
-          <a:ext cx="4012200" cy="367200"/>
+          <a:ext cx="4011480" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3970,9 +4063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3982,7 +4075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="12890160"/>
-          <a:ext cx="4012200" cy="367560"/>
+          <a:ext cx="4011480" cy="366840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4040,9 +4133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4052,7 +4145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="13646160"/>
-          <a:ext cx="4012200" cy="367200"/>
+          <a:ext cx="4011480" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4110,9 +4203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4122,7 +4215,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="10312200"/>
-          <a:ext cx="18000" cy="386280"/>
+          <a:ext cx="17280" cy="385560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4163,15 +4256,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4180,8 +4273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2256480" y="11067840"/>
-          <a:ext cx="18000" cy="348120"/>
+          <a:off x="2255760" y="11067840"/>
+          <a:ext cx="17280" cy="347400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4228,9 +4321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4240,7 +4333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="11785320"/>
-          <a:ext cx="18000" cy="386280"/>
+          <a:ext cx="17280" cy="385560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4281,15 +4374,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4298,8 +4391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2256480" y="12540960"/>
-          <a:ext cx="18000" cy="348120"/>
+          <a:off x="2255760" y="12540960"/>
+          <a:ext cx="17280" cy="347400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4346,9 +4439,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4358,7 +4451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="13258800"/>
-          <a:ext cx="18000" cy="386280"/>
+          <a:ext cx="17280" cy="385560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4405,9 +4498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4417,7 +4510,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="14731920"/>
-          <a:ext cx="7523640" cy="367200"/>
+          <a:ext cx="7522920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4475,9 +4568,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4487,7 +4580,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="15487560"/>
-          <a:ext cx="7523640" cy="1269000"/>
+          <a:ext cx="7522920" cy="1268280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4621,9 +4714,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4633,7 +4726,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="17145000"/>
-          <a:ext cx="7523640" cy="1268640"/>
+          <a:ext cx="7522920" cy="1267920"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4729,9 +4822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4741,7 +4834,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="18783000"/>
-          <a:ext cx="7523640" cy="367200"/>
+          <a:ext cx="7522920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4809,9 +4902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4821,7 +4914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="19519560"/>
-          <a:ext cx="7523640" cy="367560"/>
+          <a:ext cx="7522920" cy="366840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4889,9 +4982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4901,7 +4994,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="20256480"/>
-          <a:ext cx="7523640" cy="1269000"/>
+          <a:ext cx="7522920" cy="1268280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5035,9 +5128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5047,7 +5140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="21932640"/>
-          <a:ext cx="7523640" cy="1269000"/>
+          <a:ext cx="7522920" cy="1268280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5162,9 +5255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5174,7 +5267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="23590080"/>
-          <a:ext cx="7523640" cy="2005560"/>
+          <a:ext cx="7522920" cy="2004840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5403,9 +5496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5415,7 +5508,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="25965000"/>
-          <a:ext cx="7523640" cy="1103760"/>
+          <a:ext cx="7522920" cy="1103040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5511,9 +5604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5523,7 +5616,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="27438120"/>
-          <a:ext cx="7523640" cy="367200"/>
+          <a:ext cx="7522920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5581,9 +5674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5593,7 +5686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="28174680"/>
-          <a:ext cx="7523640" cy="367200"/>
+          <a:ext cx="7522920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5651,9 +5744,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5663,7 +5756,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="28911240"/>
-          <a:ext cx="7523640" cy="1097640"/>
+          <a:ext cx="7522920" cy="1096920"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5826,9 +5919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5838,7 +5931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8277120" y="23571000"/>
-          <a:ext cx="6018480" cy="1840320"/>
+          <a:ext cx="6017760" cy="1839600"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
           <a:avLst>
@@ -5939,7 +6032,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5949,7 +6042,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="15100200"/>
-          <a:ext cx="360" cy="386280"/>
+          <a:ext cx="360" cy="385560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5998,7 +6091,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6008,7 +6101,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="16757640"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6057,7 +6150,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6067,7 +6160,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="18414720"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6116,7 +6209,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6126,7 +6219,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="19151280"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6175,7 +6268,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6185,7 +6278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="19888200"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6234,7 +6327,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6244,7 +6337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="21526560"/>
-          <a:ext cx="360" cy="385920"/>
+          <a:ext cx="360" cy="385200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6293,7 +6386,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6303,7 +6396,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="23202720"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6352,7 +6445,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6362,7 +6455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="25596720"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6411,7 +6504,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6421,7 +6514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="27069840"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6470,7 +6563,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6480,7 +6573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="27806400"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6529,7 +6622,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6539,7 +6632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="28542960"/>
-          <a:ext cx="360" cy="367200"/>
+          <a:ext cx="360" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6586,9 +6679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6598,7 +6691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="30384720"/>
-          <a:ext cx="7523640" cy="367200"/>
+          <a:ext cx="7522920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6658,7 +6751,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6668,7 +6761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="30009960"/>
-          <a:ext cx="360" cy="373680"/>
+          <a:ext cx="360" cy="372960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6717,7 +6810,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>190800</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6727,7 +6820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4203360" y="30759480"/>
-          <a:ext cx="360" cy="373680"/>
+          <a:ext cx="360" cy="372960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6774,9 +6867,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6786,7 +6879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="507960" y="31140360"/>
-          <a:ext cx="7523640" cy="367200"/>
+          <a:ext cx="7522920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6846,7 +6939,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>6840</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6856,7 +6949,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4270320" y="31496040"/>
-          <a:ext cx="360" cy="373680"/>
+          <a:ext cx="360" cy="372960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6903,9 +6996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6915,7 +7008,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="520560" y="31876920"/>
-          <a:ext cx="7523640" cy="367200"/>
+          <a:ext cx="7522920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6975,7 +7068,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>190800</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6985,7 +7078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4203360" y="32238720"/>
-          <a:ext cx="360" cy="373680"/>
+          <a:ext cx="360" cy="372960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7032,9 +7125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7044,7 +7137,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="507960" y="32619960"/>
-          <a:ext cx="7523640" cy="367200"/>
+          <a:ext cx="7522920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7112,9 +7205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>189360</xdr:colOff>
+      <xdr:colOff>188640</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7124,7 +7217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="441000" y="33337440"/>
-          <a:ext cx="7523640" cy="367200"/>
+          <a:ext cx="7522920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7176,15 +7269,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>189720</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>179</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7193,8 +7286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4202640" y="32988240"/>
-          <a:ext cx="65520" cy="348120"/>
+          <a:off x="4201920" y="32988240"/>
+          <a:ext cx="64800" cy="347400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7241,9 +7334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7253,7 +7346,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="441000" y="34264440"/>
-          <a:ext cx="3491640" cy="367200"/>
+          <a:ext cx="3490920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7305,15 +7398,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>179640</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>183</xdr:row>
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>246960</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7322,8 +7415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2185920" y="33705720"/>
-          <a:ext cx="68760" cy="558000"/>
+          <a:off x="2185200" y="33705720"/>
+          <a:ext cx="68040" cy="557280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7370,9 +7463,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>189360</xdr:colOff>
+      <xdr:colOff>188640</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7382,7 +7475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4777920" y="34264440"/>
-          <a:ext cx="3437640" cy="367200"/>
+          <a:ext cx="3436920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7440,9 +7533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7452,7 +7545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2196720" y="33890040"/>
-          <a:ext cx="4326840" cy="373680"/>
+          <a:ext cx="4326120" cy="372960"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7486,9 +7579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>176760</xdr:colOff>
+      <xdr:colOff>176040</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7498,7 +7591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="35001000"/>
-          <a:ext cx="3437640" cy="367200"/>
+          <a:ext cx="3436920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7556,9 +7649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7568,7 +7661,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="35934480"/>
-          <a:ext cx="3491280" cy="500400"/>
+          <a:ext cx="3490560" cy="499680"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7626,9 +7719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>176760</xdr:colOff>
+      <xdr:colOff>176040</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7638,7 +7731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4765320" y="35928000"/>
-          <a:ext cx="3437640" cy="494280"/>
+          <a:ext cx="3436920" cy="493560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7698,7 +7791,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>187560</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7708,7 +7801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2193480" y="35369280"/>
-          <a:ext cx="360" cy="684360"/>
+          <a:ext cx="360" cy="683640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7755,9 +7848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>186480</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7767,7 +7860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2187360" y="34632720"/>
-          <a:ext cx="5400" cy="367200"/>
+          <a:ext cx="4680" cy="366480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7808,15 +7901,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>186480</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>192</xdr:row>
       <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>185400</xdr:colOff>
+      <xdr:colOff>183960</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7825,8 +7918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2192760" y="35369280"/>
-          <a:ext cx="4263120" cy="557640"/>
+          <a:off x="2192040" y="35369280"/>
+          <a:ext cx="4262400" cy="556920"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7862,9 +7955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>176760</xdr:colOff>
+      <xdr:colOff>176040</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7874,7 +7967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="36664920"/>
-          <a:ext cx="3412080" cy="494280"/>
+          <a:ext cx="3411360" cy="493560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7926,15 +8019,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>197</xdr:row>
       <xdr:rowOff>158760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7943,8 +8036,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2259720" y="36435960"/>
-          <a:ext cx="11520" cy="227880"/>
+          <a:off x="2259000" y="36435960"/>
+          <a:ext cx="10800" cy="227160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7991,9 +8084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8003,7 +8096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="36185400"/>
-          <a:ext cx="11520" cy="726120"/>
+          <a:ext cx="10800" cy="725400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8035,13 +8128,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8050,8 +8143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4019400" y="36174240"/>
-          <a:ext cx="744840" cy="8280"/>
+          <a:off x="4019400" y="36173520"/>
+          <a:ext cx="744120" cy="7560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8103,9 +8196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>748080</xdr:colOff>
+      <xdr:colOff>747360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8119,7 +8212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2393640"/>
-          <a:ext cx="3924720" cy="2377440"/>
+          <a:ext cx="3924000" cy="2376720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8140,9 +8233,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>140760</xdr:colOff>
+      <xdr:colOff>140040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8156,7 +8249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4971960"/>
-          <a:ext cx="7063920" cy="2655000"/>
+          <a:ext cx="7063200" cy="2654280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8177,9 +8270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8193,7 +8286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4090320" cy="2436840"/>
+          <a:ext cx="4089600" cy="2436120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8214,9 +8307,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>20880</xdr:colOff>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8230,7 +8323,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7967160"/>
-          <a:ext cx="6194880" cy="3348000"/>
+          <a:ext cx="6194160" cy="3347280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8251,9 +8344,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
+      <xdr:colOff>29880</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8267,7 +8360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11519640"/>
-          <a:ext cx="4705920" cy="3045600"/>
+          <a:ext cx="4705200" cy="3044880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8288,9 +8381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
+      <xdr:colOff>29880</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8304,7 +8397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14635440"/>
-          <a:ext cx="4705920" cy="2856600"/>
+          <a:ext cx="4705200" cy="2855880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8325,9 +8418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>468720</xdr:colOff>
+      <xdr:colOff>468000</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8341,7 +8434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17766000"/>
-          <a:ext cx="8141400" cy="2431080"/>
+          <a:ext cx="8140680" cy="2430360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8362,9 +8455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>182520</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8378,7 +8471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20464920"/>
-          <a:ext cx="6357240" cy="2907360"/>
+          <a:ext cx="6356520" cy="2906640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8399,9 +8492,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>487800</xdr:colOff>
+      <xdr:colOff>487080</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8415,7 +8508,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23548320"/>
-          <a:ext cx="5912280" cy="4621680"/>
+          <a:ext cx="5911560" cy="4620960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8441,7 +8534,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
@@ -8453,7 +8546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="3835080"/>
-          <a:ext cx="1223640" cy="360"/>
+          <a:ext cx="1222920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8496,13 +8589,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>590400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>588600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8511,8 +8604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3723840" y="2182680"/>
-          <a:ext cx="748440" cy="5400"/>
+          <a:off x="3723840" y="2181960"/>
+          <a:ext cx="747720" cy="4680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8555,13 +8648,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8570,8 +8663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3889440" y="1852560"/>
-          <a:ext cx="748080" cy="5400"/>
+          <a:off x="3889440" y="1851840"/>
+          <a:ext cx="747360" cy="4680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8614,13 +8707,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>748080</xdr:colOff>
+      <xdr:colOff>747360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8629,8 +8722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3882960" y="1515960"/>
-          <a:ext cx="748080" cy="5400"/>
+          <a:off x="3882960" y="1515240"/>
+          <a:ext cx="747360" cy="4680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8673,13 +8766,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>748080</xdr:colOff>
+      <xdr:colOff>747360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8688,8 +8781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3882960" y="1014120"/>
-          <a:ext cx="748080" cy="5400"/>
+          <a:off x="3882960" y="1013400"/>
+          <a:ext cx="747360" cy="4680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8732,13 +8825,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>12600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>194400</xdr:rowOff>
+      <xdr:rowOff>192960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8747,8 +8840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3895560" y="189000"/>
-          <a:ext cx="748080" cy="5400"/>
+          <a:off x="3895560" y="188280"/>
+          <a:ext cx="747360" cy="4680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8795,7 +8888,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
@@ -8807,7 +8900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1030680" y="2851200"/>
-          <a:ext cx="1223640" cy="360"/>
+          <a:ext cx="1222920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8854,7 +8947,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
@@ -8866,7 +8959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="878040" y="3263760"/>
-          <a:ext cx="1363680" cy="360"/>
+          <a:ext cx="1362960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8913,7 +9006,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
@@ -8925,7 +9018,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="878040" y="4489200"/>
-          <a:ext cx="1363680" cy="360"/>
+          <a:ext cx="1362960" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8968,13 +9061,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1211040</xdr:colOff>
+      <xdr:colOff>1210320</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8983,8 +9076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1030680" y="6463440"/>
-          <a:ext cx="1204560" cy="11520"/>
+          <a:off x="1030680" y="6462720"/>
+          <a:ext cx="1203840" cy="10800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9031,7 +9124,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
@@ -9043,7 +9136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="5581800"/>
-          <a:ext cx="1223640" cy="360"/>
+          <a:ext cx="1222920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9090,7 +9183,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
@@ -9102,7 +9195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="4070160"/>
-          <a:ext cx="1223640" cy="360"/>
+          <a:ext cx="1222920" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9277,7 +9370,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFF200"/>
+    <tabColor rgb="FF21409A"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -9299,7 +9392,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9307,17 +9400,17 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -11937,7 +12030,7 @@
   </sheetPr>
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -13848,8 +13941,8 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14386,23 +14479,26 @@
     <tabColor rgb="FF00A65D"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="70" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>179</v>
       </c>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
@@ -14411,30 +14507,37 @@
       <c r="D2" s="0" t="s">
         <v>181</v>
       </c>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="66" t="s">
         <v>183</v>
       </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="66" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>185</v>
       </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="66" t="s">
         <v>186</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>187</v>
       </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
@@ -14443,92 +14546,237 @@
       <c r="D6" s="0" t="s">
         <v>189</v>
       </c>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="66" t="s">
         <v>190</v>
       </c>
+      <c r="H7" s="71"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
         <v>191</v>
       </c>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
         <v>192</v>
       </c>
+      <c r="H9" s="71"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
         <v>192</v>
       </c>
+      <c r="H10" s="71"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
         <v>193</v>
       </c>
+      <c r="H11" s="71"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0" t="s">
         <v>195</v>
       </c>
+      <c r="E14" s="68" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="70" t="s">
-        <v>196</v>
+      <c r="B15" s="0"/>
+      <c r="E15" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="70" t="s">
-        <v>197</v>
+      <c r="B16" s="0"/>
+      <c r="G16" s="68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="E17" s="68" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>198</v>
-      </c>
+      <c r="B18" s="0"/>
+      <c r="C18" s="70"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="70" t="s">
-        <v>199</v>
+      <c r="A19" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="0"/>
+      <c r="C19" s="70" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="70" t="s">
-        <v>195</v>
+      <c r="B20" s="0"/>
+      <c r="C20" s="70" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0"/>
+      <c r="C21" s="0" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>200</v>
-      </c>
+      <c r="B22" s="0"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="70" t="s">
+      <c r="A23" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="0"/>
+      <c r="C23" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+      <c r="C24" s="70" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>202</v>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="66" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>203</v>
+      <c r="E46" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -14543,13 +14791,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFCD4D1"/>
+    <tabColor rgb="FFEF413D"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14572,715 +14820,715 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="76"/>
-      <c r="K1" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="76"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="78"/>
+      <c r="K1" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="79"/>
+      <c r="M1" s="78"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="71"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="M2" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="71"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="71"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="M9" s="88"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="I9" s="78"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="M9" s="90"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="M10" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="98" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="71"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="103" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="D13" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="J15" s="85"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15" s="87"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="0" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
-      <c r="D17" s="109" t="s">
-        <v>227</v>
+      <c r="D17" s="111" t="s">
+        <v>251</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
-      <c r="B18" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="109"/>
+      <c r="B18" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="111"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="M18" s="88"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
+      <c r="H18" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="I18" s="78"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="M18" s="90"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
-      <c r="B19" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
+      <c r="B19" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="N19" s="85"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="M19" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="N19" s="87"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="87"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
-      <c r="B20" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" s="113" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
+      <c r="B20" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="115" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
-      <c r="B21" s="111" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
+      <c r="B21" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
-      <c r="B22" s="111" t="s">
-        <v>228</v>
+      <c r="B22" s="113" t="s">
+        <v>252</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
-      <c r="B23" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>217</v>
+      <c r="B23" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="111" t="s">
+        <v>241</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="85"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="J23" s="87"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
-      <c r="B24" s="114" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="109"/>
+      <c r="B24" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="111"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="88"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="90"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
-      <c r="B25" s="114"/>
+      <c r="B25" s="116"/>
       <c r="D25" s="23" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="88"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="92"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="90"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
-      <c r="B26" s="114"/>
+      <c r="B26" s="116"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="I26" s="76"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="M26" s="88"/>
+      <c r="H26" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="I26" s="78"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" s="90"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="B27" s="114"/>
-      <c r="D27" s="109" t="s">
-        <v>222</v>
+      <c r="B27" s="116"/>
+      <c r="D27" s="111" t="s">
+        <v>246</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="I27" s="84"/>
-      <c r="K27" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="L27" s="87"/>
-      <c r="M27" s="84"/>
+      <c r="H27" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="I27" s="86"/>
+      <c r="K27" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" s="89"/>
+      <c r="M27" s="86"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
-      <c r="B28" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" s="109"/>
+      <c r="B28" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="111"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="76"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="78"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="78"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="111" t="s">
-        <v>228</v>
+      <c r="B29" s="113" t="s">
+        <v>252</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
-      <c r="B30" s="111" t="s">
-        <v>228</v>
+      <c r="B30" s="113" t="s">
+        <v>252</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
-      <c r="B31" s="111" t="s">
-        <v>228</v>
+      <c r="B31" s="113" t="s">
+        <v>252</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
-      <c r="B32" s="111"/>
+      <c r="B32" s="113"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="115" t="s">
-        <v>233</v>
-      </c>
-      <c r="I32" s="116" t="s">
-        <v>234</v>
-      </c>
-      <c r="J32" s="117" t="s">
-        <v>235</v>
-      </c>
-      <c r="K32" s="118" t="s">
-        <v>236</v>
+      <c r="H32" s="117" t="s">
+        <v>257</v>
+      </c>
+      <c r="I32" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" s="120" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
-      <c r="B33" s="111" t="s">
-        <v>237</v>
+      <c r="B33" s="113" t="s">
+        <v>261</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="I33" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="J33" s="119" t="s">
-        <v>239</v>
-      </c>
-      <c r="K33" s="120" t="s">
-        <v>240</v>
+      <c r="H33" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" s="121" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" s="122" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
-      <c r="B34" s="111" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
+      <c r="B34" s="113" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" s="115" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="I34" s="92" t="s">
-        <v>242</v>
-      </c>
-      <c r="J34" s="121" t="s">
-        <v>243</v>
-      </c>
-      <c r="K34" s="122" t="s">
-        <v>244</v>
+      <c r="H34" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="I34" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" s="123" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" s="124" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
-      <c r="B35" s="111" t="s">
-        <v>237</v>
+      <c r="B35" s="113" t="s">
+        <v>261</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="I35" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="J35" s="121" t="s">
-        <v>212</v>
-      </c>
-      <c r="K35" s="122" t="s">
-        <v>247</v>
+      <c r="H35" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="I35" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" s="123" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" s="124" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
-      <c r="B36" s="111" t="s">
-        <v>230</v>
+      <c r="B36" s="113" t="s">
+        <v>254</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="89" t="s">
-        <v>245</v>
-      </c>
-      <c r="I36" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="J36" s="121" t="n">
+      <c r="H36" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" s="123" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="122" t="s">
-        <v>245</v>
+      <c r="K36" s="124" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
-      <c r="B37" s="111" t="s">
-        <v>237</v>
+      <c r="B37" s="113" t="s">
+        <v>261</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="123" t="s">
-        <v>249</v>
-      </c>
-      <c r="I37" s="124" t="s">
+      <c r="H37" s="125" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="125" t="n">
+      <c r="J37" s="127" t="n">
         <v>0</v>
       </c>
-      <c r="K37" s="126" t="s">
-        <v>249</v>
+      <c r="K37" s="128" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
-      <c r="B38" s="111" t="s">
-        <v>237</v>
+      <c r="B38" s="113" t="s">
+        <v>261</v>
       </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
-      <c r="B39" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="113" t="s">
-        <v>250</v>
+      <c r="B39" s="129" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="115" t="s">
+        <v>274</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
-      <c r="D40" s="113"/>
+      <c r="D40" s="115"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="110"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -15328,7 +15576,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFCD4D1"/>
+    <tabColor rgb="FFEF413D"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AO48"/>
@@ -15343,431 +15591,431 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="83"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="128" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="88" t="s">
-        <v>252</v>
+      <c r="A1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="90" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="89"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="128"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="88"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="130"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="90"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="89"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="92"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="128"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="88"/>
+      <c r="A3" s="91"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="130"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="90"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="128"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="88"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="130"/>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="90"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="89"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="128"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="88"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="130"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="92"/>
+      <c r="AN5" s="90"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="89"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-      <c r="AD6" s="92"/>
-      <c r="AE6" s="92"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="128"/>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="88"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="130"/>
+      <c r="AL6" s="91"/>
+      <c r="AM6" s="92"/>
+      <c r="AN6" s="90"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="89"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="128"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="88"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="130"/>
+      <c r="AL7" s="91"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="90"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="130"/>
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="130"/>
-      <c r="AD8" s="130"/>
-      <c r="AE8" s="130"/>
-      <c r="AF8" s="131"/>
-      <c r="AG8" s="128"/>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="88"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="132"/>
+      <c r="AD8" s="132"/>
+      <c r="AE8" s="132"/>
+      <c r="AF8" s="133"/>
+      <c r="AG8" s="130"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="90"/>
       <c r="AO8" s="0" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="133"/>
-      <c r="AB9" s="133"/>
-      <c r="AC9" s="133"/>
-      <c r="AD9" s="133"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="134"/>
-      <c r="AG9" s="128"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="88" t="s">
-        <v>254</v>
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="135"/>
+      <c r="AF9" s="136"/>
+      <c r="AG9" s="130"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="90" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="132"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="133"/>
-      <c r="AA10" s="133"/>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="133"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="134"/>
-      <c r="AG10" s="128"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="88"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="136"/>
+      <c r="AG10" s="130"/>
+      <c r="AL10" s="91"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="90"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="132"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="133"/>
-      <c r="AB11" s="133"/>
-      <c r="AC11" s="133"/>
-      <c r="AD11" s="133"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="134"/>
-      <c r="AG11" s="128"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="88"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="135"/>
+      <c r="AF11" s="136"/>
+      <c r="AG11" s="130"/>
+      <c r="AL11" s="91"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="90"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="n">
@@ -15866,293 +16114,293 @@
       <c r="AF12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AG12" s="128"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="88"/>
+      <c r="AG12" s="130"/>
+      <c r="AL12" s="91"/>
+      <c r="AM12" s="92"/>
+      <c r="AN12" s="90"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="90"/>
-      <c r="AN13" s="88"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="90"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="90"/>
-      <c r="AN14" s="88"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="92"/>
+      <c r="AN14" s="90"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="128" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="90"/>
-      <c r="AN15" s="88"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL15" s="91"/>
+      <c r="AM15" s="92"/>
+      <c r="AN15" s="90"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="89"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="128"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="88"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="130"/>
+      <c r="AL16" s="77"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="90"/>
       <c r="AO16" s="0" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="89"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="92"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="128"/>
-      <c r="AL17" s="83"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="88" t="s">
-        <v>256</v>
+      <c r="A17" s="91"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="130"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="86"/>
+      <c r="AN17" s="90" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="135"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
-      <c r="U18" s="136"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="136"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="136"/>
-      <c r="AD18" s="136"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="128"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="90"/>
-      <c r="AN18" s="88"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="138"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="138"/>
+      <c r="W18" s="138"/>
+      <c r="X18" s="138"/>
+      <c r="Y18" s="138"/>
+      <c r="Z18" s="138"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="138"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="130"/>
+      <c r="AL18" s="91"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="90"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="138"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="139"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="128"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="90"/>
-      <c r="AN19" s="88"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="141"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="141"/>
+      <c r="Y19" s="141"/>
+      <c r="Z19" s="141"/>
+      <c r="AA19" s="141"/>
+      <c r="AB19" s="141"/>
+      <c r="AC19" s="141"/>
+      <c r="AD19" s="141"/>
+      <c r="AE19" s="141"/>
+      <c r="AF19" s="142"/>
+      <c r="AG19" s="130"/>
+      <c r="AL19" s="91"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="90"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="138"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="128"/>
-      <c r="AL20" s="89"/>
-      <c r="AM20" s="90"/>
-      <c r="AN20" s="88"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
+      <c r="S20" s="141"/>
+      <c r="T20" s="141"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="141"/>
+      <c r="W20" s="141"/>
+      <c r="X20" s="141"/>
+      <c r="Y20" s="141"/>
+      <c r="Z20" s="141"/>
+      <c r="AA20" s="141"/>
+      <c r="AB20" s="141"/>
+      <c r="AC20" s="141"/>
+      <c r="AD20" s="141"/>
+      <c r="AE20" s="141"/>
+      <c r="AF20" s="142"/>
+      <c r="AG20" s="130"/>
+      <c r="AL20" s="91"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="90"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="138"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="128"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="90"/>
-      <c r="AN21" s="88"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="141"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="141"/>
+      <c r="X21" s="141"/>
+      <c r="Y21" s="141"/>
+      <c r="Z21" s="141"/>
+      <c r="AA21" s="141"/>
+      <c r="AB21" s="141"/>
+      <c r="AC21" s="141"/>
+      <c r="AD21" s="141"/>
+      <c r="AE21" s="141"/>
+      <c r="AF21" s="142"/>
+      <c r="AG21" s="130"/>
+      <c r="AL21" s="91"/>
+      <c r="AM21" s="92"/>
+      <c r="AN21" s="90"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="n">
@@ -16251,75 +16499,75 @@
       <c r="AF22" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AG22" s="128"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="90"/>
-      <c r="AN22" s="88"/>
+      <c r="AG22" s="130"/>
+      <c r="AL22" s="91"/>
+      <c r="AM22" s="92"/>
+      <c r="AN22" s="90"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="90"/>
-      <c r="AN23" s="88"/>
+      <c r="AL23" s="91"/>
+      <c r="AM23" s="92"/>
+      <c r="AN23" s="90"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL24" s="75"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="88"/>
+      <c r="AL24" s="77"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="90"/>
       <c r="AO24" s="0" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL25" s="83"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="88" t="s">
-        <v>257</v>
+      <c r="AL25" s="85"/>
+      <c r="AM25" s="86"/>
+      <c r="AN25" s="90" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="90"/>
-      <c r="AN26" s="88"/>
+        <v>282</v>
+      </c>
+      <c r="AL26" s="91"/>
+      <c r="AM26" s="92"/>
+      <c r="AN26" s="90"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="138"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="139"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="139"/>
-      <c r="X27" s="139"/>
-      <c r="Y27" s="139"/>
-      <c r="Z27" s="139"/>
-      <c r="AA27" s="139"/>
-      <c r="AB27" s="139"/>
-      <c r="AC27" s="139"/>
-      <c r="AD27" s="139"/>
-      <c r="AE27" s="139"/>
-      <c r="AF27" s="140"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="90"/>
-      <c r="AN27" s="88"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="141"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="141"/>
+      <c r="Y27" s="141"/>
+      <c r="Z27" s="141"/>
+      <c r="AA27" s="141"/>
+      <c r="AB27" s="141"/>
+      <c r="AC27" s="141"/>
+      <c r="AD27" s="141"/>
+      <c r="AE27" s="141"/>
+      <c r="AF27" s="142"/>
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="92"/>
+      <c r="AN27" s="90"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="n">
@@ -16418,121 +16666,121 @@
       <c r="AF28" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AL28" s="89"/>
-      <c r="AM28" s="90"/>
-      <c r="AN28" s="88"/>
+      <c r="AL28" s="91"/>
+      <c r="AM28" s="92"/>
+      <c r="AN28" s="90"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL29" s="89"/>
-      <c r="AM29" s="90"/>
-      <c r="AN29" s="88"/>
+      <c r="AL29" s="91"/>
+      <c r="AM29" s="92"/>
+      <c r="AN29" s="90"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL30" s="89"/>
-      <c r="AM30" s="90"/>
-      <c r="AN30" s="88"/>
+      <c r="AL30" s="91"/>
+      <c r="AM30" s="92"/>
+      <c r="AN30" s="90"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL31" s="89"/>
-      <c r="AM31" s="90"/>
-      <c r="AN31" s="88"/>
+      <c r="AL31" s="91"/>
+      <c r="AM31" s="92"/>
+      <c r="AN31" s="90"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="76"/>
-      <c r="AN32" s="88"/>
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="90"/>
       <c r="AO32" s="0" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL33" s="83"/>
-      <c r="AM33" s="84"/>
-      <c r="AN33" s="88" t="s">
-        <v>259</v>
+      <c r="AL33" s="85"/>
+      <c r="AM33" s="86"/>
+      <c r="AN33" s="90" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL34" s="89"/>
-      <c r="AM34" s="90"/>
-      <c r="AN34" s="88"/>
+      <c r="AL34" s="91"/>
+      <c r="AM34" s="92"/>
+      <c r="AN34" s="90"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL35" s="89"/>
-      <c r="AM35" s="90"/>
-      <c r="AN35" s="88"/>
+      <c r="AL35" s="91"/>
+      <c r="AM35" s="92"/>
+      <c r="AN35" s="90"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL36" s="89"/>
-      <c r="AM36" s="90"/>
-      <c r="AN36" s="88"/>
+      <c r="AL36" s="91"/>
+      <c r="AM36" s="92"/>
+      <c r="AN36" s="90"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL37" s="89"/>
-      <c r="AM37" s="90"/>
-      <c r="AN37" s="88"/>
+      <c r="AL37" s="91"/>
+      <c r="AM37" s="92"/>
+      <c r="AN37" s="90"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL38" s="89"/>
-      <c r="AM38" s="90"/>
-      <c r="AN38" s="88"/>
+      <c r="AL38" s="91"/>
+      <c r="AM38" s="92"/>
+      <c r="AN38" s="90"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL39" s="89"/>
-      <c r="AM39" s="90"/>
-      <c r="AN39" s="88"/>
+      <c r="AL39" s="91"/>
+      <c r="AM39" s="92"/>
+      <c r="AN39" s="90"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL40" s="75"/>
-      <c r="AM40" s="76"/>
-      <c r="AN40" s="88"/>
+      <c r="AL40" s="77"/>
+      <c r="AM40" s="78"/>
+      <c r="AN40" s="90"/>
       <c r="AO40" s="0" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL41" s="83"/>
-      <c r="AM41" s="84"/>
-      <c r="AN41" s="88" t="s">
-        <v>260</v>
+      <c r="AL41" s="85"/>
+      <c r="AM41" s="86"/>
+      <c r="AN41" s="90" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL42" s="89"/>
-      <c r="AM42" s="90"/>
-      <c r="AN42" s="88"/>
+      <c r="AL42" s="91"/>
+      <c r="AM42" s="92"/>
+      <c r="AN42" s="90"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL43" s="89"/>
-      <c r="AM43" s="90"/>
-      <c r="AN43" s="88"/>
+      <c r="AL43" s="91"/>
+      <c r="AM43" s="92"/>
+      <c r="AN43" s="90"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL44" s="89"/>
-      <c r="AM44" s="90"/>
-      <c r="AN44" s="88"/>
+      <c r="AL44" s="91"/>
+      <c r="AM44" s="92"/>
+      <c r="AN44" s="90"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL45" s="89"/>
-      <c r="AM45" s="90"/>
-      <c r="AN45" s="88"/>
+      <c r="AL45" s="91"/>
+      <c r="AM45" s="92"/>
+      <c r="AN45" s="90"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL46" s="89"/>
-      <c r="AM46" s="90"/>
-      <c r="AN46" s="88"/>
+      <c r="AL46" s="91"/>
+      <c r="AM46" s="92"/>
+      <c r="AN46" s="90"/>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL47" s="89"/>
-      <c r="AM47" s="90"/>
-      <c r="AN47" s="88"/>
+      <c r="AL47" s="91"/>
+      <c r="AM47" s="92"/>
+      <c r="AN47" s="90"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL48" s="75"/>
-      <c r="AM48" s="76"/>
-      <c r="AN48" s="88"/>
+      <c r="AL48" s="77"/>
+      <c r="AM48" s="78"/>
+      <c r="AN48" s="90"/>
       <c r="AO48" s="0" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Diagrams/Diagrams-1.xlsx
+++ b/Diagrams/Diagrams-1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="301">
   <si>
     <t xml:space="preserve">Part 1: Our First Assembly Program</t>
   </si>
@@ -776,6 +776,36 @@
     <t xml:space="preserve">wake_up()</t>
   </si>
   <si>
+    <t xml:space="preserve">typical process structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">environment parametre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">command line parametre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">physical address space</t>
   </si>
   <si>
@@ -913,6 +943,9 @@
   <si>
     <t xml:space="preserve">end
 ~200KiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 388, page table entry</t>
   </si>
   <si>
     <t xml:space="preserve">Table 1024 * 4 byte</t>
@@ -1212,7 +1245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1397,6 +1430,34 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="medium"/>
@@ -1516,7 +1577,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="152">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1809,6 +1870,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1837,19 +1934,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1877,7 +1974,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1897,15 +1994,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1913,31 +2010,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1965,11 +2062,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1981,7 +2078,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2017,23 +2114,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2173,9 +2270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2185,7 +2282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="183960"/>
-          <a:ext cx="2004840" cy="366480"/>
+          <a:ext cx="2004120" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2243,9 +2340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2255,7 +2352,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="552240"/>
-          <a:ext cx="2004840" cy="366480"/>
+          <a:ext cx="2004120" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2325,9 +2422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2337,7 +2434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="920520"/>
-          <a:ext cx="2004840" cy="366480"/>
+          <a:ext cx="2004120" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2397,9 +2494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2409,7 +2506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="1473120"/>
-          <a:ext cx="1503360" cy="366480"/>
+          <a:ext cx="1502640" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2467,9 +2564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2479,7 +2576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1755720" y="1473120"/>
-          <a:ext cx="1503000" cy="366480"/>
+          <a:ext cx="1502280" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2539,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:colOff>130680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2551,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3142800" y="1473120"/>
-          <a:ext cx="1503360" cy="366480"/>
+          <a:ext cx="1502640" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2611,9 +2708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2623,7 +2720,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="2393640"/>
-          <a:ext cx="12790440" cy="366480"/>
+          <a:ext cx="12789720" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2681,9 +2778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2693,7 +2790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="3130200"/>
-          <a:ext cx="12790440" cy="366840"/>
+          <a:ext cx="12789720" cy="366120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2751,9 +2848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2763,7 +2860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="3867120"/>
-          <a:ext cx="14044320" cy="366480"/>
+          <a:ext cx="14043600" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2821,9 +2918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2833,7 +2930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="4419360"/>
-          <a:ext cx="12790440" cy="734760"/>
+          <a:ext cx="12789720" cy="734040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2891,9 +2988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2903,7 +3000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="263160" y="5340240"/>
-          <a:ext cx="12790440" cy="366480"/>
+          <a:ext cx="12789720" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2961,9 +3058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2973,7 +3070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="5892480"/>
-          <a:ext cx="12790440" cy="735120"/>
+          <a:ext cx="12789720" cy="734400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3031,9 +3128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3043,7 +3140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257040" y="6813360"/>
-          <a:ext cx="12790440" cy="366480"/>
+          <a:ext cx="12789720" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3101,9 +3198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3113,7 +3210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="7365960"/>
-          <a:ext cx="12790440" cy="366480"/>
+          <a:ext cx="12789720" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3173,7 +3270,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3183,7 +3280,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="2761920"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3232,7 +3329,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3242,7 +3339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="3498840"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3291,7 +3388,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3301,7 +3398,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="4235400"/>
-          <a:ext cx="360" cy="182160"/>
+          <a:ext cx="360" cy="181440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3348,9 +3445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
+      <xdr:colOff>108360</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3360,7 +3457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="5155920"/>
-          <a:ext cx="10800" cy="182520"/>
+          <a:ext cx="10080" cy="181800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3401,15 +3498,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>96840</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3418,8 +3515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6618240" y="5708520"/>
-          <a:ext cx="10800" cy="182160"/>
+          <a:off x="6617520" y="5708520"/>
+          <a:ext cx="10080" cy="181440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3466,9 +3563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3478,7 +3575,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="6629400"/>
-          <a:ext cx="4680" cy="182160"/>
+          <a:ext cx="3960" cy="181440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3519,15 +3616,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>100800</xdr:colOff>
+      <xdr:colOff>99360</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3536,8 +3633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6617520" y="7181640"/>
-          <a:ext cx="4680" cy="182520"/>
+          <a:off x="6616800" y="7181640"/>
+          <a:ext cx="3960" cy="181800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3584,9 +3681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3596,7 +3693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="8464320"/>
-          <a:ext cx="12790440" cy="366480"/>
+          <a:ext cx="12789720" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3654,9 +3751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>224640</xdr:colOff>
+      <xdr:colOff>223920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3666,7 +3763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="226440" y="9016920"/>
-          <a:ext cx="12790080" cy="366480"/>
+          <a:ext cx="12789360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3718,15 +3815,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89280</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>93240</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3735,8 +3832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6611400" y="8832600"/>
-          <a:ext cx="4680" cy="182520"/>
+          <a:off x="6610680" y="8832600"/>
+          <a:ext cx="3960" cy="181800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3783,9 +3880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3795,7 +3892,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="9943920"/>
-          <a:ext cx="4011480" cy="366480"/>
+          <a:ext cx="4010760" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3853,9 +3950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3865,7 +3962,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="10699560"/>
-          <a:ext cx="4011480" cy="366480"/>
+          <a:ext cx="4010760" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3923,9 +4020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3935,7 +4032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="11417040"/>
-          <a:ext cx="4011480" cy="366480"/>
+          <a:ext cx="4010760" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3993,9 +4090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4005,7 +4102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="12172680"/>
-          <a:ext cx="4011480" cy="366480"/>
+          <a:ext cx="4010760" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4063,9 +4160,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4075,7 +4172,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="12890160"/>
-          <a:ext cx="4011480" cy="366840"/>
+          <a:ext cx="4010760" cy="366120"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4133,9 +4230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4145,7 +4242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="13646160"/>
-          <a:ext cx="4011480" cy="366480"/>
+          <a:ext cx="4010760" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4203,9 +4300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4215,7 +4312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="10312200"/>
-          <a:ext cx="17280" cy="385560"/>
+          <a:ext cx="16560" cy="384840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4256,15 +4353,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4273,8 +4370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2255760" y="11067840"/>
-          <a:ext cx="17280" cy="347400"/>
+          <a:off x="2255040" y="11067840"/>
+          <a:ext cx="16560" cy="346680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4321,9 +4418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4333,7 +4430,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="11785320"/>
-          <a:ext cx="17280" cy="385560"/>
+          <a:ext cx="16560" cy="384840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4374,15 +4471,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>248760</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4391,8 +4488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2255760" y="12540960"/>
-          <a:ext cx="17280" cy="347400"/>
+          <a:off x="2255040" y="12540960"/>
+          <a:ext cx="16560" cy="346680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4439,9 +4536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4451,7 +4548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="13258800"/>
-          <a:ext cx="17280" cy="385560"/>
+          <a:ext cx="16560" cy="384840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4498,9 +4595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4510,7 +4607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="14731920"/>
-          <a:ext cx="7522920" cy="366480"/>
+          <a:ext cx="7522200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4568,9 +4665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4580,7 +4677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="15487560"/>
-          <a:ext cx="7522920" cy="1268280"/>
+          <a:ext cx="7522200" cy="1267560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4714,9 +4811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4726,7 +4823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="17145000"/>
-          <a:ext cx="7522920" cy="1267920"/>
+          <a:ext cx="7522200" cy="1267200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4822,9 +4919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4834,7 +4931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="18783000"/>
-          <a:ext cx="7522920" cy="366480"/>
+          <a:ext cx="7522200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4902,9 +4999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4914,7 +5011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="19519560"/>
-          <a:ext cx="7522920" cy="366840"/>
+          <a:ext cx="7522200" cy="366120"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4982,9 +5079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4994,7 +5091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="20256480"/>
-          <a:ext cx="7522920" cy="1268280"/>
+          <a:ext cx="7522200" cy="1267560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5128,9 +5225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5140,7 +5237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="21932640"/>
-          <a:ext cx="7522920" cy="1268280"/>
+          <a:ext cx="7522200" cy="1267560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5255,9 +5352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5267,7 +5364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="23590080"/>
-          <a:ext cx="7522920" cy="2004840"/>
+          <a:ext cx="7522200" cy="2004120"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5496,9 +5593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5508,7 +5605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="25965000"/>
-          <a:ext cx="7522920" cy="1103040"/>
+          <a:ext cx="7522200" cy="1102320"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5604,9 +5701,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5616,7 +5713,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="27438120"/>
-          <a:ext cx="7522920" cy="366480"/>
+          <a:ext cx="7522200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5674,9 +5771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5686,7 +5783,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="28174680"/>
-          <a:ext cx="7522920" cy="366480"/>
+          <a:ext cx="7522200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5744,9 +5841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5756,7 +5853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="28911240"/>
-          <a:ext cx="7522920" cy="1096920"/>
+          <a:ext cx="7522200" cy="1096200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5919,9 +6016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5931,7 +6028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8277120" y="23571000"/>
-          <a:ext cx="6017760" cy="1839600"/>
+          <a:ext cx="6017040" cy="1838880"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
           <a:avLst>
@@ -6032,7 +6129,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6042,7 +6139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="15100200"/>
-          <a:ext cx="360" cy="385560"/>
+          <a:ext cx="360" cy="384840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6091,7 +6188,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6101,7 +6198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="16757640"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6150,7 +6247,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6160,7 +6257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="18414720"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6209,7 +6306,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6219,7 +6316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="19151280"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6268,7 +6365,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6278,7 +6375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="19888200"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6327,7 +6424,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6337,7 +6434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="21526560"/>
-          <a:ext cx="360" cy="385200"/>
+          <a:ext cx="360" cy="384480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6386,7 +6483,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6396,7 +6493,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="23202720"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6445,7 +6542,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6455,7 +6552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="25596720"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6504,7 +6601,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6514,7 +6611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="27069840"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6563,7 +6660,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6573,7 +6670,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="27806400"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6622,7 +6719,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6632,7 +6729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="28542960"/>
-          <a:ext cx="360" cy="366480"/>
+          <a:ext cx="360" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6679,9 +6776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6691,7 +6788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="30384720"/>
-          <a:ext cx="7522920" cy="366480"/>
+          <a:ext cx="7522200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6751,7 +6848,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6761,7 +6858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="30009960"/>
-          <a:ext cx="360" cy="372960"/>
+          <a:ext cx="360" cy="372240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6810,7 +6907,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>190800</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6820,7 +6917,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4203360" y="30759480"/>
-          <a:ext cx="360" cy="372960"/>
+          <a:ext cx="360" cy="372240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6867,9 +6964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6879,7 +6976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="507960" y="31140360"/>
-          <a:ext cx="7522920" cy="366480"/>
+          <a:ext cx="7522200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6939,7 +7036,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>6840</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6949,7 +7046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4270320" y="31496040"/>
-          <a:ext cx="360" cy="372960"/>
+          <a:ext cx="360" cy="372240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6996,9 +7093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7008,7 +7105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="520560" y="31876920"/>
-          <a:ext cx="7522920" cy="366480"/>
+          <a:ext cx="7522200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7068,7 +7165,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>190800</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7078,7 +7175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4203360" y="32238720"/>
-          <a:ext cx="360" cy="372960"/>
+          <a:ext cx="360" cy="372240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7125,9 +7222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7137,7 +7234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="507960" y="32619960"/>
-          <a:ext cx="7522920" cy="366480"/>
+          <a:ext cx="7522200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7205,9 +7302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>188640</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7217,7 +7314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="441000" y="33337440"/>
-          <a:ext cx="7522920" cy="366480"/>
+          <a:ext cx="7522200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7269,15 +7366,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>188280</xdr:colOff>
       <xdr:row>179</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7286,8 +7383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4201920" y="32988240"/>
-          <a:ext cx="64800" cy="347400"/>
+          <a:off x="4201200" y="32988240"/>
+          <a:ext cx="64080" cy="346680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7334,9 +7431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>169560</xdr:colOff>
+      <xdr:colOff>168840</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7346,7 +7443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="441000" y="34264440"/>
-          <a:ext cx="3490920" cy="366480"/>
+          <a:ext cx="3490200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7398,15 +7495,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>178200</xdr:colOff>
       <xdr:row>183</xdr:row>
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
+      <xdr:colOff>245520</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7415,8 +7512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2185200" y="33705720"/>
-          <a:ext cx="68040" cy="557280"/>
+          <a:off x="2184480" y="33705720"/>
+          <a:ext cx="67320" cy="556560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7463,9 +7560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>188640</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7475,7 +7572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4777920" y="34264440"/>
-          <a:ext cx="3436920" cy="366480"/>
+          <a:ext cx="3436200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7533,9 +7630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7545,7 +7642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2196720" y="33890040"/>
-          <a:ext cx="4326120" cy="372960"/>
+          <a:ext cx="4325400" cy="372240"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7579,9 +7676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>176040</xdr:colOff>
+      <xdr:colOff>175320</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7591,7 +7688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="35001000"/>
-          <a:ext cx="3436920" cy="366480"/>
+          <a:ext cx="3436200" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7649,9 +7746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7661,7 +7758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="35934480"/>
-          <a:ext cx="3490560" cy="499680"/>
+          <a:ext cx="3489840" cy="498960"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7719,9 +7816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>176040</xdr:colOff>
+      <xdr:colOff>175320</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7731,7 +7828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4765320" y="35928000"/>
-          <a:ext cx="3436920" cy="493560"/>
+          <a:ext cx="3436200" cy="492840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7791,7 +7888,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>187560</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7801,7 +7898,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2193480" y="35369280"/>
-          <a:ext cx="360" cy="683640"/>
+          <a:ext cx="360" cy="682920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7848,9 +7945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185040</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7860,7 +7957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2187360" y="34632720"/>
-          <a:ext cx="4680" cy="366480"/>
+          <a:ext cx="3960" cy="365760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7901,15 +7998,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185040</xdr:colOff>
       <xdr:row>192</xdr:row>
       <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>182520</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7918,8 +8015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2192040" y="35369280"/>
-          <a:ext cx="4262400" cy="556920"/>
+          <a:off x="2191320" y="35369280"/>
+          <a:ext cx="4261680" cy="556200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -7955,9 +8052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>176040</xdr:colOff>
+      <xdr:colOff>175320</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7967,7 +8064,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="36664920"/>
-          <a:ext cx="3411360" cy="493560"/>
+          <a:ext cx="3410640" cy="492840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -8019,15 +8116,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>197</xdr:row>
       <xdr:rowOff>158760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8036,8 +8133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2259000" y="36435960"/>
-          <a:ext cx="10800" cy="227160"/>
+          <a:off x="2258280" y="36435960"/>
+          <a:ext cx="10080" cy="226440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8084,9 +8181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8096,7 +8193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="36185400"/>
-          <a:ext cx="10800" cy="725400"/>
+          <a:ext cx="10080" cy="724680"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8128,13 +8225,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8143,8 +8240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4019400" y="36173520"/>
-          <a:ext cx="744120" cy="7560"/>
+          <a:off x="4019400" y="36172800"/>
+          <a:ext cx="743400" cy="6840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8196,9 +8293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>747360</xdr:colOff>
+      <xdr:colOff>746640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8212,7 +8309,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2393640"/>
-          <a:ext cx="3924000" cy="2376720"/>
+          <a:ext cx="3923280" cy="2376000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8233,9 +8330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>140040</xdr:colOff>
+      <xdr:colOff>139320</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8249,7 +8346,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4971960"/>
-          <a:ext cx="7063200" cy="2654280"/>
+          <a:ext cx="7062480" cy="2653560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8270,9 +8367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8286,7 +8383,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4089600" cy="2436120"/>
+          <a:ext cx="4088880" cy="2435400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8307,9 +8404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8323,7 +8420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7967160"/>
-          <a:ext cx="6194160" cy="3347280"/>
+          <a:ext cx="6193440" cy="3346560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8344,9 +8441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>29880</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8360,7 +8457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11519640"/>
-          <a:ext cx="4705200" cy="3044880"/>
+          <a:ext cx="4704480" cy="3044160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8381,9 +8478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>29880</xdr:colOff>
+      <xdr:colOff>29160</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8397,7 +8494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14635440"/>
-          <a:ext cx="4705200" cy="2855880"/>
+          <a:ext cx="4704480" cy="2855160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8418,9 +8515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>468000</xdr:colOff>
+      <xdr:colOff>467280</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8434,7 +8531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17766000"/>
-          <a:ext cx="8140680" cy="2430360"/>
+          <a:ext cx="8139960" cy="2429640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8455,9 +8552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
+      <xdr:colOff>181800</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8471,7 +8568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20464920"/>
-          <a:ext cx="6356520" cy="2906640"/>
+          <a:ext cx="6355800" cy="2905920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8492,9 +8589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
+      <xdr:colOff>486360</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8508,7 +8605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23548320"/>
-          <a:ext cx="5911560" cy="4620960"/>
+          <a:ext cx="5910840" cy="4620240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8534,7 +8631,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
@@ -8546,7 +8643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="3835080"/>
-          <a:ext cx="1222920" cy="360"/>
+          <a:ext cx="1222200" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8589,13 +8686,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>590400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>588600</xdr:colOff>
+      <xdr:colOff>587880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8604,8 +8701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3723840" y="2181960"/>
-          <a:ext cx="747720" cy="4680"/>
+          <a:off x="3723840" y="2181240"/>
+          <a:ext cx="747000" cy="3960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8648,13 +8745,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8663,8 +8760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3889440" y="1851840"/>
-          <a:ext cx="747360" cy="4680"/>
+          <a:off x="3889440" y="1851120"/>
+          <a:ext cx="746640" cy="3960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8707,13 +8804,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>747360</xdr:colOff>
+      <xdr:colOff>746640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8722,8 +8819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3882960" y="1515240"/>
-          <a:ext cx="747360" cy="4680"/>
+          <a:off x="3882960" y="1514520"/>
+          <a:ext cx="746640" cy="3960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8766,13 +8863,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>747360</xdr:colOff>
+      <xdr:colOff>746640</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8781,8 +8878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3882960" y="1013400"/>
-          <a:ext cx="747360" cy="4680"/>
+          <a:off x="3882960" y="1012680"/>
+          <a:ext cx="746640" cy="3960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8825,13 +8922,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>12600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>192960</xdr:rowOff>
+      <xdr:rowOff>191520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8840,8 +8937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3895560" y="188280"/>
-          <a:ext cx="747360" cy="4680"/>
+          <a:off x="3895560" y="187560"/>
+          <a:ext cx="746640" cy="3960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8888,7 +8985,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
@@ -8900,7 +8997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1030680" y="2851200"/>
-          <a:ext cx="1222920" cy="360"/>
+          <a:ext cx="1222200" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8947,7 +9044,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
@@ -8959,7 +9056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="878040" y="3263760"/>
-          <a:ext cx="1362960" cy="360"/>
+          <a:ext cx="1362240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9006,7 +9103,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
@@ -9018,7 +9115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="878040" y="4489200"/>
-          <a:ext cx="1362960" cy="360"/>
+          <a:ext cx="1362240" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9061,13 +9158,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1210320</xdr:colOff>
+      <xdr:colOff>1209600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9076,8 +9173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1030680" y="6462720"/>
-          <a:ext cx="1203840" cy="10800"/>
+          <a:off x="1030680" y="6462000"/>
+          <a:ext cx="1203120" cy="10080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9124,7 +9221,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
@@ -9136,7 +9233,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="5581800"/>
-          <a:ext cx="1222920" cy="360"/>
+          <a:ext cx="1222200" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9183,7 +9280,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
@@ -9195,7 +9292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="4070160"/>
-          <a:ext cx="1222920" cy="360"/>
+          <a:ext cx="1222200" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9392,7 +9489,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9400,17 +9497,17 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -9566,8 +9663,8 @@
   </sheetPr>
   <dimension ref="A1:AW46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12030,7 +12127,7 @@
   </sheetPr>
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -13941,7 +14038,7 @@
   </sheetPr>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -14481,8 +14578,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14771,6 +14868,152 @@
       <c r="A48" s="0" t="s">
         <v>228</v>
       </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="F53" s="74"/>
+      <c r="G53" s="53"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="G54" s="55"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="G55" s="55"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="75"/>
+      <c r="G56" s="55"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="75"/>
+      <c r="G58" s="55"/>
+      <c r="I58" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="75"/>
+      <c r="G59" s="55"/>
+      <c r="I59" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="76" t="n">
+        <v>63</v>
+      </c>
+      <c r="B60" s="77"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="65"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="76" t="n">
+        <v>62</v>
+      </c>
+      <c r="B61" s="76"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="76" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="76"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" s="76"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" s="76"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="76" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" s="76"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" s="76"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" s="76"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" s="76"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" s="76"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="79"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="80"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="80"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="81"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="79"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="80"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="80"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="81"/>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14796,7 +15039,7 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -14820,715 +15063,715 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="76" t="s">
-        <v>230</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="78"/>
-      <c r="K1" s="77" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="78"/>
+      <c r="A1" s="82"/>
+      <c r="B1" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="87"/>
+      <c r="K1" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="88"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="M2" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="93"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="73"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="73"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="73"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
     </row>
     <row r="6" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="73"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="J6" s="96"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
     </row>
     <row r="7" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="73"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="73"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="M9" s="90"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="87"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="M9" s="99"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="73"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="97" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="M10" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
+      <c r="M10" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="73"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="73"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="100" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="109" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="73"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104" t="s">
+      <c r="A13" s="82"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="105" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
+      <c r="D13" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92" t="s">
-        <v>238</v>
-      </c>
-      <c r="J15" s="87"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" s="96"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
-      <c r="D17" s="111" t="s">
-        <v>251</v>
+      <c r="D17" s="120" t="s">
+        <v>261</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="120"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="M18" s="90"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="M18" s="99"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
-      <c r="B19" s="113" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="B19" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="M19" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="N19" s="87"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="87"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="M19" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="N19" s="96"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="96"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
-      <c r="B20" s="113" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
+      <c r="B20" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
-      <c r="B21" s="113" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="B21" s="122" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
-      <c r="B22" s="113" t="s">
-        <v>252</v>
+      <c r="B22" s="122" t="s">
+        <v>262</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
-      <c r="B23" s="113" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="111" t="s">
-        <v>241</v>
+      <c r="B23" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="120" t="s">
+        <v>251</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="92" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" s="87"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="J23" s="96"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
-      <c r="B24" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="D24" s="111"/>
+      <c r="B24" s="125" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="120"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="90"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="99"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
-      <c r="B25" s="116"/>
+      <c r="B25" s="125"/>
       <c r="D25" s="23" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="90"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="101"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="99"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
-      <c r="B26" s="116"/>
+      <c r="B26" s="125"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="I26" s="78"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="M26" s="90"/>
+      <c r="H26" s="86" t="s">
+        <v>252</v>
+      </c>
+      <c r="I26" s="87"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" s="99"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="B27" s="116"/>
-      <c r="D27" s="111" t="s">
-        <v>246</v>
+      <c r="B27" s="125"/>
+      <c r="D27" s="120" t="s">
+        <v>256</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="I27" s="86"/>
-      <c r="K27" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="L27" s="89"/>
-      <c r="M27" s="86"/>
+      <c r="H27" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="I27" s="95"/>
+      <c r="K27" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="L27" s="98"/>
+      <c r="M27" s="95"/>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
-      <c r="B28" s="113" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" s="111"/>
+      <c r="B28" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="120"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="78"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="78"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="87"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="87"/>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="113" t="s">
-        <v>252</v>
+      <c r="B29" s="122" t="s">
+        <v>262</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
-      <c r="B30" s="113" t="s">
-        <v>252</v>
+      <c r="B30" s="122" t="s">
+        <v>262</v>
       </c>
       <c r="G30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
-      <c r="B31" s="113" t="s">
-        <v>252</v>
+      <c r="B31" s="122" t="s">
+        <v>262</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
-      <c r="B32" s="113"/>
+      <c r="B32" s="122"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="117" t="s">
-        <v>257</v>
-      </c>
-      <c r="I32" s="118" t="s">
-        <v>258</v>
-      </c>
-      <c r="J32" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="K32" s="120" t="s">
-        <v>260</v>
+      <c r="H32" s="126" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" s="129" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
-      <c r="B33" s="113" t="s">
-        <v>261</v>
+      <c r="B33" s="122" t="s">
+        <v>271</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="I33" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="J33" s="121" t="s">
-        <v>263</v>
-      </c>
-      <c r="K33" s="122" t="s">
-        <v>264</v>
+      <c r="H33" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="I33" s="88" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" s="130" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" s="131" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
-      <c r="B34" s="113" t="s">
-        <v>261</v>
-      </c>
-      <c r="D34" s="115" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
+      <c r="B34" s="122" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="124" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="I34" s="94" t="s">
-        <v>266</v>
-      </c>
-      <c r="J34" s="123" t="s">
-        <v>267</v>
-      </c>
-      <c r="K34" s="124" t="s">
-        <v>268</v>
+      <c r="H34" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" s="133" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
-      <c r="B35" s="113" t="s">
-        <v>261</v>
+      <c r="B35" s="122" t="s">
+        <v>271</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="I35" s="94" t="s">
-        <v>270</v>
-      </c>
-      <c r="J35" s="123" t="s">
-        <v>236</v>
-      </c>
-      <c r="K35" s="124" t="s">
-        <v>271</v>
+      <c r="H35" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="I35" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" s="132" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" s="133" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
-      <c r="B36" s="113" t="s">
-        <v>254</v>
+      <c r="B36" s="122" t="s">
+        <v>264</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="91" t="s">
-        <v>269</v>
-      </c>
-      <c r="I36" s="94" t="s">
-        <v>272</v>
-      </c>
-      <c r="J36" s="123" t="n">
+      <c r="H36" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="I36" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="J36" s="132" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="124" t="s">
-        <v>269</v>
+      <c r="K36" s="133" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
-      <c r="B37" s="113" t="s">
-        <v>261</v>
+      <c r="B37" s="122" t="s">
+        <v>271</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="125" t="s">
-        <v>273</v>
-      </c>
-      <c r="I37" s="126" t="s">
+      <c r="H37" s="134" t="s">
+        <v>283</v>
+      </c>
+      <c r="I37" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="127" t="n">
+      <c r="J37" s="136" t="n">
         <v>0</v>
       </c>
-      <c r="K37" s="128" t="s">
-        <v>273</v>
+      <c r="K37" s="137" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
-      <c r="B38" s="113" t="s">
-        <v>261</v>
+      <c r="B38" s="122" t="s">
+        <v>271</v>
       </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
-      <c r="B39" s="129" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" s="115" t="s">
-        <v>274</v>
+      <c r="B39" s="138" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="124" t="s">
+        <v>284</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
-      <c r="D40" s="115"/>
+      <c r="D40" s="124"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="110"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -15582,7 +15825,7 @@
   <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15590,432 +15833,434 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="3.64"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="85"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="90" t="s">
-        <v>276</v>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="94"/>
+      <c r="B1" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="139" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL1" s="94"/>
+      <c r="AM1" s="95"/>
+      <c r="AN1" s="99" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="91"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="130"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="90"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="139"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="99"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="91"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="92"/>
-      <c r="AG3" s="130"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="90"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="139"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="99"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="91"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="130"/>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="90"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="139"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="99"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="91"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="130"/>
-      <c r="AL5" s="91"/>
-      <c r="AM5" s="92"/>
-      <c r="AN5" s="90"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="139"/>
+      <c r="AL5" s="100"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="99"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="91"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="94"/>
-      <c r="AC6" s="94"/>
-      <c r="AD6" s="94"/>
-      <c r="AE6" s="94"/>
-      <c r="AF6" s="92"/>
-      <c r="AG6" s="130"/>
-      <c r="AL6" s="91"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="90"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="139"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="101"/>
+      <c r="AN6" s="99"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="130"/>
-      <c r="AL7" s="91"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="90"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="139"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="99"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="131"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="132"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="133"/>
-      <c r="AG8" s="130"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="90"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
+      <c r="W8" s="141"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="141"/>
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="141"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="142"/>
+      <c r="AG8" s="139"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="99"/>
       <c r="AO8" s="0" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="135"/>
-      <c r="AF9" s="136"/>
-      <c r="AG9" s="130"/>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="90" t="s">
-        <v>278</v>
+      <c r="A9" s="143"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="144"/>
+      <c r="X9" s="144"/>
+      <c r="Y9" s="144"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="145"/>
+      <c r="AG9" s="139"/>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="99" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="134"/>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="135"/>
-      <c r="AF10" s="136"/>
-      <c r="AG10" s="130"/>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="90"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="144"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="144"/>
+      <c r="AA10" s="144"/>
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="139"/>
+      <c r="AL10" s="100"/>
+      <c r="AM10" s="101"/>
+      <c r="AN10" s="99"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="134"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="136"/>
-      <c r="AG11" s="130"/>
-      <c r="AL11" s="91"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="90"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="144"/>
+      <c r="Y11" s="144"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="144"/>
+      <c r="AB11" s="144"/>
+      <c r="AC11" s="144"/>
+      <c r="AD11" s="144"/>
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="145"/>
+      <c r="AG11" s="139"/>
+      <c r="AL11" s="100"/>
+      <c r="AM11" s="101"/>
+      <c r="AN11" s="99"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="n">
@@ -16114,293 +16359,293 @@
       <c r="AF12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AG12" s="130"/>
-      <c r="AL12" s="91"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="90"/>
+      <c r="AG12" s="139"/>
+      <c r="AL12" s="100"/>
+      <c r="AM12" s="101"/>
+      <c r="AN12" s="99"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="90"/>
+      <c r="AL13" s="100"/>
+      <c r="AM13" s="101"/>
+      <c r="AN13" s="99"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL14" s="91"/>
-      <c r="AM14" s="92"/>
-      <c r="AN14" s="90"/>
+      <c r="AL14" s="100"/>
+      <c r="AM14" s="101"/>
+      <c r="AN14" s="99"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="85"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="130" t="s">
-        <v>279</v>
-      </c>
-      <c r="AL15" s="91"/>
-      <c r="AM15" s="92"/>
-      <c r="AN15" s="90"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL15" s="100"/>
+      <c r="AM15" s="101"/>
+      <c r="AN15" s="99"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="91"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="130"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="90"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="139"/>
+      <c r="AL16" s="86"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="99"/>
       <c r="AO16" s="0" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="91"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="130"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="86"/>
-      <c r="AN17" s="90" t="s">
-        <v>280</v>
+      <c r="A17" s="100"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="139"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="99" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="138"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="138"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="138"/>
-      <c r="X18" s="138"/>
-      <c r="Y18" s="138"/>
-      <c r="Z18" s="138"/>
-      <c r="AA18" s="138"/>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="138"/>
-      <c r="AD18" s="138"/>
-      <c r="AE18" s="138"/>
-      <c r="AF18" s="139"/>
-      <c r="AG18" s="130"/>
-      <c r="AL18" s="91"/>
-      <c r="AM18" s="92"/>
-      <c r="AN18" s="90"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="147"/>
+      <c r="W18" s="147"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="147"/>
+      <c r="AA18" s="147"/>
+      <c r="AB18" s="147"/>
+      <c r="AC18" s="147"/>
+      <c r="AD18" s="147"/>
+      <c r="AE18" s="147"/>
+      <c r="AF18" s="148"/>
+      <c r="AG18" s="139"/>
+      <c r="AL18" s="100"/>
+      <c r="AM18" s="101"/>
+      <c r="AN18" s="99"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="140"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="141"/>
-      <c r="Z19" s="141"/>
-      <c r="AA19" s="141"/>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="141"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="141"/>
-      <c r="AF19" s="142"/>
-      <c r="AG19" s="130"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="92"/>
-      <c r="AN19" s="90"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="150"/>
+      <c r="Q19" s="150"/>
+      <c r="R19" s="150"/>
+      <c r="S19" s="150"/>
+      <c r="T19" s="150"/>
+      <c r="U19" s="150"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" s="150"/>
+      <c r="AC19" s="150"/>
+      <c r="AD19" s="150"/>
+      <c r="AE19" s="150"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="139"/>
+      <c r="AL19" s="100"/>
+      <c r="AM19" s="101"/>
+      <c r="AN19" s="99"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="141"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="141"/>
-      <c r="AA20" s="141"/>
-      <c r="AB20" s="141"/>
-      <c r="AC20" s="141"/>
-      <c r="AD20" s="141"/>
-      <c r="AE20" s="141"/>
-      <c r="AF20" s="142"/>
-      <c r="AG20" s="130"/>
-      <c r="AL20" s="91"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="90"/>
+      <c r="A20" s="149"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="150"/>
+      <c r="S20" s="150"/>
+      <c r="T20" s="150"/>
+      <c r="U20" s="150"/>
+      <c r="V20" s="150"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="150"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="150"/>
+      <c r="AA20" s="150"/>
+      <c r="AB20" s="150"/>
+      <c r="AC20" s="150"/>
+      <c r="AD20" s="150"/>
+      <c r="AE20" s="150"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="139"/>
+      <c r="AL20" s="100"/>
+      <c r="AM20" s="101"/>
+      <c r="AN20" s="99"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="140"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
-      <c r="W21" s="141"/>
-      <c r="X21" s="141"/>
-      <c r="Y21" s="141"/>
-      <c r="Z21" s="141"/>
-      <c r="AA21" s="141"/>
-      <c r="AB21" s="141"/>
-      <c r="AC21" s="141"/>
-      <c r="AD21" s="141"/>
-      <c r="AE21" s="141"/>
-      <c r="AF21" s="142"/>
-      <c r="AG21" s="130"/>
-      <c r="AL21" s="91"/>
-      <c r="AM21" s="92"/>
-      <c r="AN21" s="90"/>
+      <c r="A21" s="149"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="150"/>
+      <c r="S21" s="150"/>
+      <c r="T21" s="150"/>
+      <c r="U21" s="150"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="150"/>
+      <c r="AB21" s="150"/>
+      <c r="AC21" s="150"/>
+      <c r="AD21" s="150"/>
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="139"/>
+      <c r="AL21" s="100"/>
+      <c r="AM21" s="101"/>
+      <c r="AN21" s="99"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="n">
@@ -16499,75 +16744,75 @@
       <c r="AF22" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AG22" s="130"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="92"/>
-      <c r="AN22" s="90"/>
+      <c r="AG22" s="139"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="101"/>
+      <c r="AN22" s="99"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL23" s="91"/>
-      <c r="AM23" s="92"/>
-      <c r="AN23" s="90"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="101"/>
+      <c r="AN23" s="99"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL24" s="77"/>
-      <c r="AM24" s="78"/>
-      <c r="AN24" s="90"/>
+      <c r="AL24" s="86"/>
+      <c r="AM24" s="87"/>
+      <c r="AN24" s="99"/>
       <c r="AO24" s="0" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL25" s="85"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="90" t="s">
-        <v>281</v>
+      <c r="AL25" s="94"/>
+      <c r="AM25" s="95"/>
+      <c r="AN25" s="99" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="92"/>
-      <c r="AN26" s="90"/>
+        <v>293</v>
+      </c>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="101"/>
+      <c r="AN26" s="99"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="140"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="141"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="141"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="141"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="141"/>
-      <c r="AF27" s="142"/>
-      <c r="AL27" s="91"/>
-      <c r="AM27" s="92"/>
-      <c r="AN27" s="90"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="150"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="150"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="150"/>
+      <c r="U27" s="150"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="150"/>
+      <c r="Z27" s="150"/>
+      <c r="AA27" s="150"/>
+      <c r="AB27" s="150"/>
+      <c r="AC27" s="150"/>
+      <c r="AD27" s="150"/>
+      <c r="AE27" s="150"/>
+      <c r="AF27" s="151"/>
+      <c r="AL27" s="100"/>
+      <c r="AM27" s="101"/>
+      <c r="AN27" s="99"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="n">
@@ -16666,121 +16911,121 @@
       <c r="AF28" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="92"/>
-      <c r="AN28" s="90"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="99"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL29" s="91"/>
-      <c r="AM29" s="92"/>
-      <c r="AN29" s="90"/>
+      <c r="AL29" s="100"/>
+      <c r="AM29" s="101"/>
+      <c r="AN29" s="99"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL30" s="91"/>
-      <c r="AM30" s="92"/>
-      <c r="AN30" s="90"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="101"/>
+      <c r="AN30" s="99"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL31" s="91"/>
-      <c r="AM31" s="92"/>
-      <c r="AN31" s="90"/>
+      <c r="AL31" s="100"/>
+      <c r="AM31" s="101"/>
+      <c r="AN31" s="99"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="78"/>
-      <c r="AN32" s="90"/>
+      <c r="AL32" s="86"/>
+      <c r="AM32" s="87"/>
+      <c r="AN32" s="99"/>
       <c r="AO32" s="0" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL33" s="85"/>
-      <c r="AM33" s="86"/>
-      <c r="AN33" s="90" t="s">
-        <v>283</v>
+      <c r="AL33" s="94"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="99" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL34" s="91"/>
-      <c r="AM34" s="92"/>
-      <c r="AN34" s="90"/>
+      <c r="AL34" s="100"/>
+      <c r="AM34" s="101"/>
+      <c r="AN34" s="99"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL35" s="91"/>
-      <c r="AM35" s="92"/>
-      <c r="AN35" s="90"/>
+      <c r="AL35" s="100"/>
+      <c r="AM35" s="101"/>
+      <c r="AN35" s="99"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL36" s="91"/>
-      <c r="AM36" s="92"/>
-      <c r="AN36" s="90"/>
+      <c r="AL36" s="100"/>
+      <c r="AM36" s="101"/>
+      <c r="AN36" s="99"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL37" s="91"/>
-      <c r="AM37" s="92"/>
-      <c r="AN37" s="90"/>
+      <c r="AL37" s="100"/>
+      <c r="AM37" s="101"/>
+      <c r="AN37" s="99"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL38" s="91"/>
-      <c r="AM38" s="92"/>
-      <c r="AN38" s="90"/>
+      <c r="AL38" s="100"/>
+      <c r="AM38" s="101"/>
+      <c r="AN38" s="99"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL39" s="91"/>
-      <c r="AM39" s="92"/>
-      <c r="AN39" s="90"/>
+      <c r="AL39" s="100"/>
+      <c r="AM39" s="101"/>
+      <c r="AN39" s="99"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL40" s="77"/>
-      <c r="AM40" s="78"/>
-      <c r="AN40" s="90"/>
+      <c r="AL40" s="86"/>
+      <c r="AM40" s="87"/>
+      <c r="AN40" s="99"/>
       <c r="AO40" s="0" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL41" s="85"/>
-      <c r="AM41" s="86"/>
-      <c r="AN41" s="90" t="s">
-        <v>284</v>
+      <c r="AL41" s="94"/>
+      <c r="AM41" s="95"/>
+      <c r="AN41" s="99" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL42" s="91"/>
-      <c r="AM42" s="92"/>
-      <c r="AN42" s="90"/>
+      <c r="AL42" s="100"/>
+      <c r="AM42" s="101"/>
+      <c r="AN42" s="99"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL43" s="91"/>
-      <c r="AM43" s="92"/>
-      <c r="AN43" s="90"/>
+      <c r="AL43" s="100"/>
+      <c r="AM43" s="101"/>
+      <c r="AN43" s="99"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL44" s="91"/>
-      <c r="AM44" s="92"/>
-      <c r="AN44" s="90"/>
+      <c r="AL44" s="100"/>
+      <c r="AM44" s="101"/>
+      <c r="AN44" s="99"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL45" s="91"/>
-      <c r="AM45" s="92"/>
-      <c r="AN45" s="90"/>
+      <c r="AL45" s="100"/>
+      <c r="AM45" s="101"/>
+      <c r="AN45" s="99"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL46" s="91"/>
-      <c r="AM46" s="92"/>
-      <c r="AN46" s="90"/>
+      <c r="AL46" s="100"/>
+      <c r="AM46" s="101"/>
+      <c r="AN46" s="99"/>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL47" s="91"/>
-      <c r="AM47" s="92"/>
-      <c r="AN47" s="90"/>
+      <c r="AL47" s="100"/>
+      <c r="AM47" s="101"/>
+      <c r="AN47" s="99"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AL48" s="77"/>
-      <c r="AM48" s="78"/>
-      <c r="AN48" s="90"/>
+      <c r="AL48" s="86"/>
+      <c r="AM48" s="87"/>
+      <c r="AN48" s="99"/>
       <c r="AO48" s="0" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Diagrams/Diagrams-1.xlsx
+++ b/Diagrams/Diagrams-1.xlsx
@@ -2270,9 +2270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2282,7 +2282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="183960"/>
-          <a:ext cx="2004120" cy="365760"/>
+          <a:ext cx="2003400" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2340,9 +2340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2352,7 +2352,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="552240"/>
-          <a:ext cx="2004120" cy="365760"/>
+          <a:ext cx="2003400" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2422,9 +2422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2434,7 +2434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="920520"/>
-          <a:ext cx="2004120" cy="365760"/>
+          <a:ext cx="2003400" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2494,9 +2494,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2506,7 +2506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="1473120"/>
-          <a:ext cx="1502640" cy="365760"/>
+          <a:ext cx="1501920" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2564,9 +2564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2576,7 +2576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1755720" y="1473120"/>
-          <a:ext cx="1502280" cy="365760"/>
+          <a:ext cx="1501560" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2636,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>130680</xdr:colOff>
+      <xdr:colOff>129960</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2648,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3142800" y="1473120"/>
-          <a:ext cx="1502640" cy="365760"/>
+          <a:ext cx="1501920" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2708,9 +2708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2720,7 +2720,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="2393640"/>
-          <a:ext cx="12789720" cy="365760"/>
+          <a:ext cx="12789000" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2778,9 +2778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2790,7 +2790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="3130200"/>
-          <a:ext cx="12789720" cy="366120"/>
+          <a:ext cx="12789000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2848,9 +2848,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2860,7 +2860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="3867120"/>
-          <a:ext cx="14043600" cy="365760"/>
+          <a:ext cx="14042880" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2918,9 +2918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2930,7 +2930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="4419360"/>
-          <a:ext cx="12789720" cy="734040"/>
+          <a:ext cx="12789000" cy="733320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,9 +2988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3000,7 +3000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="263160" y="5340240"/>
-          <a:ext cx="12789720" cy="365760"/>
+          <a:ext cx="12789000" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3058,9 +3058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3070,7 +3070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="5892480"/>
-          <a:ext cx="12789720" cy="734400"/>
+          <a:ext cx="12789000" cy="733680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3128,9 +3128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3140,7 +3140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257040" y="6813360"/>
-          <a:ext cx="12789720" cy="365760"/>
+          <a:ext cx="12789000" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3198,9 +3198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3210,7 +3210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="7365960"/>
-          <a:ext cx="12789720" cy="365760"/>
+          <a:ext cx="12789000" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3270,7 +3270,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3280,7 +3280,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="2761920"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3329,7 +3329,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3339,7 +3339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="3498840"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3388,7 +3388,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>98640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3398,7 +3398,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="4235400"/>
-          <a:ext cx="360" cy="181440"/>
+          <a:ext cx="360" cy="180720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3445,9 +3445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>108360</xdr:colOff>
+      <xdr:colOff>107640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3457,7 +3457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="5155920"/>
-          <a:ext cx="10080" cy="181800"/>
+          <a:ext cx="9360" cy="181080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3498,15 +3498,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3515,8 +3515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6617520" y="5708520"/>
-          <a:ext cx="10080" cy="181440"/>
+          <a:off x="6616800" y="5708520"/>
+          <a:ext cx="9360" cy="180720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3563,9 +3563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3575,7 +3575,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6619680" y="6629400"/>
-          <a:ext cx="3960" cy="181440"/>
+          <a:ext cx="3240" cy="180720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3616,15 +3616,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>99360</xdr:colOff>
+      <xdr:colOff>97920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3633,8 +3633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6616800" y="7181640"/>
-          <a:ext cx="3960" cy="181800"/>
+          <a:off x="6616080" y="7181640"/>
+          <a:ext cx="3240" cy="181080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3681,9 +3681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3693,7 +3693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="8464320"/>
-          <a:ext cx="12789720" cy="365760"/>
+          <a:ext cx="12789000" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3751,9 +3751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>223920</xdr:colOff>
+      <xdr:colOff>223200</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3763,7 +3763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="226440" y="9016920"/>
-          <a:ext cx="12789360" cy="365760"/>
+          <a:ext cx="12788640" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3815,15 +3815,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3832,8 +3832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6610680" y="8832600"/>
-          <a:ext cx="3960" cy="181800"/>
+          <a:off x="6609960" y="8832600"/>
+          <a:ext cx="3240" cy="181080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3880,9 +3880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3892,7 +3892,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="9943920"/>
-          <a:ext cx="4010760" cy="365760"/>
+          <a:ext cx="4010040" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3950,9 +3950,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3962,7 +3962,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="10699560"/>
-          <a:ext cx="4010760" cy="365760"/>
+          <a:ext cx="4010040" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4020,9 +4020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4032,7 +4032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="11417040"/>
-          <a:ext cx="4010760" cy="365760"/>
+          <a:ext cx="4010040" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4090,9 +4090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4102,7 +4102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="12172680"/>
-          <a:ext cx="4010760" cy="365760"/>
+          <a:ext cx="4010040" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4160,9 +4160,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4172,7 +4172,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="250560" y="12890160"/>
-          <a:ext cx="4010760" cy="366120"/>
+          <a:ext cx="4010040" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4230,9 +4230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4242,7 +4242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="269640" y="13646160"/>
-          <a:ext cx="4010760" cy="365760"/>
+          <a:ext cx="4010040" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4300,9 +4300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4312,7 +4312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="10312200"/>
-          <a:ext cx="16560" cy="384840"/>
+          <a:ext cx="15840" cy="384120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4353,15 +4353,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4370,8 +4370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2255040" y="11067840"/>
-          <a:ext cx="16560" cy="346680"/>
+          <a:off x="2254320" y="11067840"/>
+          <a:ext cx="15840" cy="345960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4418,9 +4418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4430,7 +4430,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="11785320"/>
-          <a:ext cx="16560" cy="384840"/>
+          <a:ext cx="15840" cy="384120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4471,15 +4471,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4488,8 +4488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2255040" y="12540960"/>
-          <a:ext cx="16560" cy="346680"/>
+          <a:off x="2254320" y="12540960"/>
+          <a:ext cx="15840" cy="345960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4536,9 +4536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4548,7 +4548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2257200" y="13258800"/>
-          <a:ext cx="16560" cy="384840"/>
+          <a:ext cx="15840" cy="384120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4595,9 +4595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4607,7 +4607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="14731920"/>
-          <a:ext cx="7522200" cy="365760"/>
+          <a:ext cx="7521480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4665,9 +4665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4677,7 +4677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="15487560"/>
-          <a:ext cx="7522200" cy="1267560"/>
+          <a:ext cx="7521480" cy="1266840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4811,9 +4811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4823,7 +4823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="17145000"/>
-          <a:ext cx="7522200" cy="1267200"/>
+          <a:ext cx="7521480" cy="1266480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4919,9 +4919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4931,7 +4931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="18783000"/>
-          <a:ext cx="7522200" cy="365760"/>
+          <a:ext cx="7521480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4999,9 +4999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5011,7 +5011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="19519560"/>
-          <a:ext cx="7522200" cy="366120"/>
+          <a:ext cx="7521480" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5079,9 +5079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5091,7 +5091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="20256480"/>
-          <a:ext cx="7522200" cy="1267560"/>
+          <a:ext cx="7521480" cy="1266840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5225,9 +5225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5237,7 +5237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="21932640"/>
-          <a:ext cx="7522200" cy="1267560"/>
+          <a:ext cx="7521480" cy="1266840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5352,9 +5352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5364,7 +5364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="23590080"/>
-          <a:ext cx="7522200" cy="2004120"/>
+          <a:ext cx="7521480" cy="2003400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5593,9 +5593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5605,7 +5605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="25965000"/>
-          <a:ext cx="7522200" cy="1102320"/>
+          <a:ext cx="7521480" cy="1101600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5701,9 +5701,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5713,7 +5713,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="27438120"/>
-          <a:ext cx="7522200" cy="365760"/>
+          <a:ext cx="7521480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5771,9 +5771,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5783,7 +5783,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="28174680"/>
-          <a:ext cx="7522200" cy="365760"/>
+          <a:ext cx="7521480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5841,9 +5841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5853,7 +5853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="28911240"/>
-          <a:ext cx="7522200" cy="1096200"/>
+          <a:ext cx="7521480" cy="1095480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6016,9 +6016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6028,7 +6028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8277120" y="23571000"/>
-          <a:ext cx="6017040" cy="1838880"/>
+          <a:ext cx="6016320" cy="1838160"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
           <a:avLst>
@@ -6129,7 +6129,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6139,7 +6139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="15100200"/>
-          <a:ext cx="360" cy="384840"/>
+          <a:ext cx="360" cy="384120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6188,7 +6188,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6198,7 +6198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="16757640"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6247,7 +6247,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6257,7 +6257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="18414720"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6306,7 +6306,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6316,7 +6316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="19151280"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6365,7 +6365,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6375,7 +6375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="19888200"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6424,7 +6424,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6434,7 +6434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="21526560"/>
-          <a:ext cx="360" cy="384480"/>
+          <a:ext cx="360" cy="383760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6483,7 +6483,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6493,7 +6493,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="23202720"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6542,7 +6542,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6552,7 +6552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="25596720"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6601,7 +6601,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6611,7 +6611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="27069840"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6660,7 +6660,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6670,7 +6670,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="27806400"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6719,7 +6719,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6729,7 +6729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="28542960"/>
-          <a:ext cx="360" cy="365760"/>
+          <a:ext cx="360" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6776,9 +6776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6788,7 +6788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="30384720"/>
-          <a:ext cx="7522200" cy="365760"/>
+          <a:ext cx="7521480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6848,7 +6848,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6858,7 +6858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="30009960"/>
-          <a:ext cx="360" cy="372240"/>
+          <a:ext cx="360" cy="371520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6907,7 +6907,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>190800</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6917,7 +6917,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4203360" y="30759480"/>
-          <a:ext cx="360" cy="372240"/>
+          <a:ext cx="360" cy="371520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6964,9 +6964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>171</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6976,7 +6976,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="507960" y="31140360"/>
-          <a:ext cx="7522200" cy="365760"/>
+          <a:ext cx="7521480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7036,7 +7036,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>6840</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7046,7 +7046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4270320" y="31496040"/>
-          <a:ext cx="360" cy="372240"/>
+          <a:ext cx="360" cy="371520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7093,9 +7093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7105,7 +7105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="520560" y="31876920"/>
-          <a:ext cx="7522200" cy="365760"/>
+          <a:ext cx="7521480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7165,7 +7165,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>190800</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7175,7 +7175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4203360" y="32238720"/>
-          <a:ext cx="360" cy="372240"/>
+          <a:ext cx="360" cy="371520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7222,9 +7222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7234,7 +7234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="507960" y="32619960"/>
-          <a:ext cx="7522200" cy="365760"/>
+          <a:ext cx="7521480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7302,9 +7302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7314,7 +7314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="441000" y="33337440"/>
-          <a:ext cx="7522200" cy="365760"/>
+          <a:ext cx="7521480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7366,15 +7366,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>179</xdr:row>
       <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>250920</xdr:colOff>
       <xdr:row>181</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7383,8 +7383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4201200" y="32988240"/>
-          <a:ext cx="64080" cy="346680"/>
+          <a:off x="4200480" y="32988240"/>
+          <a:ext cx="63360" cy="345960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7431,9 +7431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
+      <xdr:colOff>168120</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7443,7 +7443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="441000" y="34264440"/>
-          <a:ext cx="3490200" cy="365760"/>
+          <a:ext cx="3489480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7495,15 +7495,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>178200</xdr:colOff>
+      <xdr:colOff>177480</xdr:colOff>
       <xdr:row>183</xdr:row>
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>245520</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7512,8 +7512,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2184480" y="33705720"/>
-          <a:ext cx="67320" cy="556560"/>
+          <a:off x="2183760" y="33705720"/>
+          <a:ext cx="66600" cy="555840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7560,9 +7560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7572,7 +7572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4777920" y="34264440"/>
-          <a:ext cx="3436200" cy="365760"/>
+          <a:ext cx="3435480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7629,10 +7629,10 @@
       <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>250920</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7642,7 +7642,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2196720" y="33890040"/>
-          <a:ext cx="4325400" cy="372240"/>
+          <a:ext cx="4324680" cy="371520"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7676,9 +7676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7688,7 +7688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="501480" y="35001000"/>
-          <a:ext cx="3436200" cy="365760"/>
+          <a:ext cx="3435480" cy="365040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7746,9 +7746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7758,7 +7758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="35934480"/>
-          <a:ext cx="3489840" cy="498960"/>
+          <a:ext cx="3489120" cy="498240"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7816,9 +7816,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7828,7 +7828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4765320" y="35928000"/>
-          <a:ext cx="3436200" cy="492840"/>
+          <a:ext cx="3435480" cy="492120"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7888,7 +7888,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>187560</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7898,7 +7898,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2193480" y="35369280"/>
-          <a:ext cx="360" cy="682920"/>
+          <a:ext cx="360" cy="682200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7945,9 +7945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
+      <xdr:colOff>184320</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7957,7 +7957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2187360" y="34632720"/>
-          <a:ext cx="3960" cy="365760"/>
+          <a:ext cx="3240" cy="365040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7998,15 +7998,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
+      <xdr:colOff>184320</xdr:colOff>
       <xdr:row>192</xdr:row>
       <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8015,8 +8015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2191320" y="35369280"/>
-          <a:ext cx="4261680" cy="556200"/>
+          <a:off x="2190600" y="35369280"/>
+          <a:ext cx="4260960" cy="555480"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8052,9 +8052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8064,7 +8064,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="36664920"/>
-          <a:ext cx="3410640" cy="492840"/>
+          <a:ext cx="3409920" cy="492120"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -8116,15 +8116,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>197</xdr:row>
       <xdr:rowOff>158760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
+      <xdr:colOff>9720</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8133,8 +8133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2258280" y="36435960"/>
-          <a:ext cx="10080" cy="226440"/>
+          <a:off x="2257560" y="36435960"/>
+          <a:ext cx="9360" cy="225720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8181,9 +8181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8193,7 +8193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="527040" y="36185400"/>
-          <a:ext cx="10080" cy="724680"/>
+          <a:ext cx="9360" cy="723960"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8225,13 +8225,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8240,8 +8240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4019400" y="36172800"/>
-          <a:ext cx="743400" cy="6840"/>
+          <a:off x="4019400" y="36172080"/>
+          <a:ext cx="742680" cy="6120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8293,9 +8293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>746640</xdr:colOff>
+      <xdr:colOff>745920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:rowOff>165240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8309,7 +8309,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2393640"/>
-          <a:ext cx="3923280" cy="2376000"/>
+          <a:ext cx="3922560" cy="2375280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8330,9 +8330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8346,7 +8346,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4971960"/>
-          <a:ext cx="7062480" cy="2653560"/>
+          <a:ext cx="7061760" cy="2652840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8367,9 +8367,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8383,7 +8383,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4088880" cy="2435400"/>
+          <a:ext cx="4088160" cy="2434680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8404,9 +8404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8420,7 +8420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7967160"/>
-          <a:ext cx="6193440" cy="3346560"/>
+          <a:ext cx="6192720" cy="3345840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8441,9 +8441,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
+      <xdr:colOff>28440</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8457,7 +8457,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11519640"/>
-          <a:ext cx="4704480" cy="3044160"/>
+          <a:ext cx="4703760" cy="3043440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8478,9 +8478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
+      <xdr:colOff>28440</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8494,7 +8494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14635440"/>
-          <a:ext cx="4704480" cy="2855160"/>
+          <a:ext cx="4703760" cy="2854440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8515,9 +8515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>467280</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8531,7 +8531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17766000"/>
-          <a:ext cx="8139960" cy="2429640"/>
+          <a:ext cx="8139240" cy="2428920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8552,9 +8552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>181800</xdr:colOff>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8568,7 +8568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="20464920"/>
-          <a:ext cx="6355800" cy="2905920"/>
+          <a:ext cx="6355080" cy="2905200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8589,9 +8589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>486360</xdr:colOff>
+      <xdr:colOff>485640</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8605,7 +8605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23548320"/>
-          <a:ext cx="5910840" cy="4620240"/>
+          <a:ext cx="5910120" cy="4619520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8631,7 +8631,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:to>
@@ -8643,7 +8643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="3835080"/>
-          <a:ext cx="1222200" cy="360"/>
+          <a:ext cx="1221480" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8686,13 +8686,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>590400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>587880</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>587160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8701,8 +8701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3723840" y="2181240"/>
-          <a:ext cx="747000" cy="3960"/>
+          <a:off x="3723840" y="2180520"/>
+          <a:ext cx="746280" cy="3240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8745,13 +8745,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>3240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8760,8 +8760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3889440" y="1851120"/>
-          <a:ext cx="746640" cy="3960"/>
+          <a:off x="3889440" y="1850400"/>
+          <a:ext cx="745920" cy="3240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8804,13 +8804,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>746640</xdr:colOff>
+      <xdr:colOff>745920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8819,8 +8819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3882960" y="1514520"/>
-          <a:ext cx="746640" cy="3960"/>
+          <a:off x="3882960" y="1513800"/>
+          <a:ext cx="745920" cy="3240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8863,13 +8863,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>746640</xdr:colOff>
+      <xdr:colOff>745920</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8878,8 +8878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3882960" y="1012680"/>
-          <a:ext cx="746640" cy="3960"/>
+          <a:off x="3882960" y="1011960"/>
+          <a:ext cx="745920" cy="3240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8922,13 +8922,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>12600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>187560</xdr:rowOff>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>191520</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8937,8 +8937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3895560" y="187560"/>
-          <a:ext cx="746640" cy="3960"/>
+          <a:off x="3895560" y="186840"/>
+          <a:ext cx="745920" cy="3240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8985,7 +8985,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
@@ -8997,7 +8997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1030680" y="2851200"/>
-          <a:ext cx="1222200" cy="360"/>
+          <a:ext cx="1221480" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9044,7 +9044,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
@@ -9056,7 +9056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="878040" y="3263760"/>
-          <a:ext cx="1362240" cy="360"/>
+          <a:ext cx="1361520" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9103,7 +9103,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
@@ -9115,7 +9115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="878040" y="4489200"/>
-          <a:ext cx="1362240" cy="360"/>
+          <a:ext cx="1361520" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9158,13 +9158,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>6480</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1209600</xdr:colOff>
+      <xdr:colOff>1208880</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9173,8 +9173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1030680" y="6462000"/>
-          <a:ext cx="1203120" cy="10080"/>
+          <a:off x="1030680" y="6461280"/>
+          <a:ext cx="1202400" cy="9360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9221,7 +9221,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
@@ -9233,7 +9233,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="5581800"/>
-          <a:ext cx="1222200" cy="360"/>
+          <a:ext cx="1221480" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9280,7 +9280,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
@@ -9292,7 +9292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1024200" y="4070160"/>
-          <a:ext cx="1222200" cy="360"/>
+          <a:ext cx="1221480" cy="360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14578,8 +14578,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Diagrams/Diagrams-1.xlsx
+++ b/Diagrams/Diagrams-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Safemaster\Desktop\bunings\Bunnings Addendas since 12.10.12\exploring_cs\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED2237B-339F-4087-A897-07F8D65441DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC050E6-FC53-4042-9783-B1CF22E87371}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10460" tabRatio="499" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10460" tabRatio="475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="374">
   <si>
     <t>Part 1: Our First Assembly Program</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Part 4: Understanding the Workflow</t>
   </si>
   <si>
-    <t>workflow</t>
-  </si>
-  <si>
     <t>tables</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>registers</t>
-  </si>
-  <si>
-    <t>memory</t>
   </si>
   <si>
     <t>descriptor</t>
@@ -336,9 +330,6 @@
     <t>sys_call.s</t>
   </si>
   <si>
-    <t>chips</t>
-  </si>
-  <si>
     <t>8259A</t>
   </si>
   <si>
@@ -384,22 +375,10 @@
     <t>exit.c</t>
   </si>
   <si>
-    <t>device_not_available</t>
-  </si>
-  <si>
     <t>jmp math_error</t>
   </si>
   <si>
     <t>soft interrupt</t>
-  </si>
-  <si>
-    <t>page_fault</t>
-  </si>
-  <si>
-    <t>reserved</t>
-  </si>
-  <si>
-    <t>COPROCESSOR ERROR</t>
   </si>
   <si>
     <t>TIMER INTERRUPT</t>
@@ -960,15 +939,6 @@
     <t>no, print error and ret</t>
   </si>
   <si>
-    <t>coprocessor_segment_overrun</t>
-  </si>
-  <si>
-    <t>reserved (unless the following)</t>
-  </si>
-  <si>
-    <t>18-47</t>
-  </si>
-  <si>
     <t>128(0x80)</t>
   </si>
   <si>
@@ -982,6 +952,288 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Any instruction that can generate an
+exception, an NMI, or an INTR.</t>
+  </si>
+  <si>
+    <t>yes(zero)</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double fault </t>
+  </si>
+  <si>
+    <t>32-47</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>Alignment Check</t>
+  </si>
+  <si>
+    <t>Any data reference in memory.</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>user defined (nonreserved)
+interrupts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streaming SIMD Extensions </t>
+  </si>
+  <si>
+    <t>SSE and SSE2 floating-point instructions. (for PIII cpu)</t>
+  </si>
+  <si>
+    <t>Machine Check</t>
+  </si>
+  <si>
+    <t>Abort</t>
+  </si>
+  <si>
+    <t>Error codes (if any) and source are
+model dependent</t>
+  </si>
+  <si>
+    <t>Floating-Point Error (Math Fault)</t>
+  </si>
+  <si>
+    <t>Floating-point or WAIT/FWAIT
+instruction.</t>
+  </si>
+  <si>
+    <t>Intel reserved. Do not use</t>
+  </si>
+  <si>
+    <t>Any memory reference</t>
+  </si>
+  <si>
+    <t>page fault</t>
+  </si>
+  <si>
+    <t>General Protection</t>
+  </si>
+  <si>
+    <t>Any memory reference and other
+protection checks</t>
+  </si>
+  <si>
+    <t>Stack-Segment Fault</t>
+  </si>
+  <si>
+    <t>Stack operations and SS register loads</t>
+  </si>
+  <si>
+    <t>Segment Not Present</t>
+  </si>
+  <si>
+    <t>Loading segment registers or accessing
+system segments</t>
+  </si>
+  <si>
+    <t>Invalid TSS</t>
+  </si>
+  <si>
+    <t>Task switch or TSS access</t>
+  </si>
+  <si>
+    <t>Coprocessor Segment Overrun
+(reserved)</t>
+  </si>
+  <si>
+    <t>Floating-point instruction (not for CPU
+after 386)</t>
+  </si>
+  <si>
+    <t>Device Not Available (No Math
+Coprocessor)</t>
+  </si>
+  <si>
+    <t>Floating-point or WAIT/FWAIT
+instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Opcode (Undefined) </t>
+  </si>
+  <si>
+    <t>UD2 instruction or reserved (new for
+P6)</t>
+  </si>
+  <si>
+    <t>BOUND Range Exceeded</t>
+  </si>
+  <si>
+    <t>BOUND instruction.</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>fault/trap</t>
+  </si>
+  <si>
+    <t>INTO instruction</t>
+  </si>
+  <si>
+    <t>Breakpoint</t>
+  </si>
+  <si>
+    <t>INT 3 instruction</t>
+  </si>
+  <si>
+    <t>Nonmaskable external interrupt.</t>
+  </si>
+  <si>
+    <t>Any code or data reference or the INT 1
+instruction.</t>
+  </si>
+  <si>
+    <t>DIV and IDIV instructions</t>
+  </si>
+  <si>
+    <t>Divide Error</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMI Interrupt </t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>do_reserved</t>
+  </si>
+  <si>
+    <t>device_not_available</t>
+  </si>
+  <si>
+    <t>mm/page.s</t>
+  </si>
+  <si>
+    <t>page_fault</t>
+  </si>
+  <si>
+    <t>coprocessor_error</t>
+  </si>
+  <si>
+    <t>reserved by Intel</t>
+  </si>
+  <si>
+    <t>system_call</t>
+  </si>
+  <si>
+    <t>handler</t>
+  </si>
+  <si>
+    <t>do_coprocessor_segment_overrun</t>
+  </si>
+  <si>
+    <t>traps.c</t>
+  </si>
+  <si>
+    <t>do_divide_error</t>
+  </si>
+  <si>
+    <t>do_overflow</t>
+  </si>
+  <si>
+    <t>do_double_fault</t>
+  </si>
+  <si>
+    <t>do_segment_not_present</t>
+  </si>
+  <si>
+    <t>do_general_protection</t>
+  </si>
+  <si>
+    <t>do_int3</t>
+  </si>
+  <si>
+    <t>do_nmi</t>
+  </si>
+  <si>
+    <t>do_bounds</t>
+  </si>
+  <si>
+    <t>do_invalid_op</t>
+  </si>
+  <si>
+    <t>do_invalid_TSS</t>
+  </si>
+  <si>
+    <t>do_stack_segment</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>_timer_interrupt</t>
+  </si>
+  <si>
+    <t>hardware: timer</t>
+  </si>
+  <si>
+    <t>hardware int</t>
+  </si>
+  <si>
+    <t>do_alignment_check</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>20-31</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>do_reserved, unless the following</t>
+  </si>
+  <si>
+    <t>48-255</t>
+  </si>
+  <si>
+    <t>INT n instruction or external interrupts</t>
+  </si>
+  <si>
+    <t>die unless the following</t>
+  </si>
+  <si>
+    <t>INTEL 80386 INTERRUPTS QUICK VIEW</t>
+  </si>
+  <si>
+    <t>system initialization</t>
+  </si>
+  <si>
+    <t>interrupts</t>
+  </si>
+  <si>
+    <t>memory managment</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>fs</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1388,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1257,8 +1509,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1782,13 +2040,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1902,7 +2212,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2042,55 +2351,112 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2159,16 +2525,19 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2182,12 +2551,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2207,6 +2570,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2225,57 +2603,271 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0510F7F3-1187-4C1C-8832-785CDD41E24B}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -8797,6 +9389,23 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B102AC38-BFDC-4E0D-B5F7-B85AB6992280}" name="Table1" displayName="Table1" ref="A2:H31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A2:H31" xr:uid="{E0CD2BE4-6605-4E42-93B5-AA8F8445F417}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D0DAF4A0-ABF6-4EE8-8D05-36A0B4CFD851}" name="name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CB77C0AE-FCD4-44FF-B8E2-4E03747E92B5}" name="type" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{363AD45A-F8C2-4AE1-9C2D-8EE1CDA43C5E}" name="number" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EAED7D76-88E4-4399-94E9-75BC96D2D84E}" name="error code?" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{C3103209-0961-45AF-9374-A5205FBE7998}" name="source" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6C6AE3E3-F5D8-4AE6-B960-5D9723FB27E0}" name="handler" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{E428C6F2-4A20-407A-ADC8-C407F74934D2}" name="process die?" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{67778C54-5931-4ACF-BEE6-074DF8F391E8}" name="file" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9096,7 +9705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
@@ -9109,98 +9718,118 @@
     <col min="5" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="235" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="236" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="236" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="235" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="C12" s="235" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13"/>
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" s="3"/>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="3"/>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="3"/>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="3"/>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" location="workflow!A1" display="workflow" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D8" location="arc!A1" display="architecture" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D9" location="reg!A1" display="registers" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D10" location="mem!A1" display="memory" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D11" location="des!A1" display="descriptor" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D12" location="pag!A1" display="paging" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D13" location="IO!A1" display="I/O" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" location="ini!A1" display="workflow" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C13" location="arc!A1" display="architecture" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C15" location="reg!A1" display="registers" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C14" location="des!A1" display="descriptor" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B5" location="pro!A1" display="process" xr:uid="{C411419C-0217-47AB-8FEE-FDBCF7D406FE}"/>
+    <hyperlink ref="B6" location="int!A1" display="interrupts" xr:uid="{858160F4-CF9A-4362-8F1A-F5E3A8195B71}"/>
+    <hyperlink ref="B7" location="mem!A1" display="memory managment" xr:uid="{17C7BAD9-0087-4A38-9254-C10FB1790B5C}"/>
+    <hyperlink ref="B8" location="pag!A1" display="paging" xr:uid="{C0A625D0-1809-408C-9011-DFF06EF04887}"/>
+    <hyperlink ref="B9" location="io!A1" display="io" xr:uid="{05DD034F-C391-4850-AE74-30A6CB0A9148}"/>
+    <hyperlink ref="B10" location="fs!A1" display="fs" xr:uid="{954F54E1-160E-4F56-A335-CC76B724394C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9211,9 +9840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9230,7 +9857,7 @@
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -9428,138 +10055,138 @@
       </c>
     </row>
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="228" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="41" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>56</v>
       </c>
       <c r="K3" s="41">
         <v>0</v>
       </c>
       <c r="L3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="228" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="228"/>
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="146" t="s">
+      <c r="R3" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" t="s">
+      <c r="S3" s="228"/>
+      <c r="T3" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="146" t="s">
+      <c r="U3" s="228" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="146"/>
-      <c r="T3" s="41" t="s">
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="146" t="s">
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="228"/>
+      <c r="AF3" s="228"/>
+      <c r="AG3" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="146"/>
-      <c r="W3" s="146"/>
-      <c r="X3" s="146"/>
-      <c r="Y3" s="146" t="s">
+      <c r="AH3" s="228"/>
+      <c r="AI3" s="228"/>
+      <c r="AJ3" s="228"/>
+      <c r="AK3" s="228"/>
+      <c r="AL3" s="228"/>
+      <c r="AM3" s="228"/>
+      <c r="AN3" s="228"/>
+      <c r="AO3" s="228"/>
+      <c r="AP3" s="228"/>
+      <c r="AQ3" s="228"/>
+      <c r="AR3" s="228"/>
+      <c r="AS3" s="228"/>
+      <c r="AT3" s="228"/>
+      <c r="AU3" s="228"/>
+      <c r="AV3" s="228"/>
+      <c r="AW3" s="228" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="146"/>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH3" s="146"/>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="146"/>
-      <c r="AL3" s="146"/>
-      <c r="AM3" s="146"/>
-      <c r="AN3" s="146"/>
-      <c r="AO3" s="146"/>
-      <c r="AP3" s="146"/>
-      <c r="AQ3" s="146"/>
-      <c r="AR3" s="146"/>
-      <c r="AS3" s="146"/>
-      <c r="AT3" s="146"/>
-      <c r="AU3" s="146"/>
-      <c r="AV3" s="146"/>
-      <c r="AW3" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX3" s="146"/>
-      <c r="AY3" s="146"/>
-      <c r="AZ3" s="146"/>
-      <c r="BA3" s="146"/>
-      <c r="BB3" s="146"/>
-      <c r="BC3" s="146"/>
-      <c r="BD3" s="146"/>
-      <c r="BE3" s="146"/>
-      <c r="BF3" s="146"/>
-      <c r="BG3" s="146"/>
-      <c r="BH3" s="146"/>
-      <c r="BI3" s="146"/>
-      <c r="BJ3" s="146"/>
-      <c r="BK3" s="146"/>
-      <c r="BL3" s="146"/>
+      <c r="AX3" s="228"/>
+      <c r="AY3" s="228"/>
+      <c r="AZ3" s="228"/>
+      <c r="BA3" s="228"/>
+      <c r="BB3" s="228"/>
+      <c r="BC3" s="228"/>
+      <c r="BD3" s="228"/>
+      <c r="BE3" s="228"/>
+      <c r="BF3" s="228"/>
+      <c r="BG3" s="228"/>
+      <c r="BH3" s="228"/>
+      <c r="BI3" s="228"/>
+      <c r="BJ3" s="228"/>
+      <c r="BK3" s="228"/>
+      <c r="BL3" s="228"/>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -9757,41 +10384,41 @@
       </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A15" s="146" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
+      <c r="A15" s="228" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="228"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
       <c r="I15" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K15" s="41">
         <v>0</v>
       </c>
       <c r="L15" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="228" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="228"/>
+      <c r="O15" s="228"/>
+      <c r="P15" s="228"/>
+      <c r="Q15" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="146" t="s">
+      <c r="R15" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" t="s">
-        <v>59</v>
-      </c>
-      <c r="R15" s="146" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="146"/>
+      <c r="S15" s="228"/>
       <c r="T15" s="42">
         <v>1</v>
       </c>
@@ -9799,64 +10426,64 @@
         <v>0</v>
       </c>
       <c r="V15" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="W15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="W15" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="X15" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y15" s="146" t="s">
+      <c r="Y15" s="228" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" s="228"/>
+      <c r="AA15" s="228"/>
+      <c r="AB15" s="228"/>
+      <c r="AC15" s="228"/>
+      <c r="AD15" s="228"/>
+      <c r="AE15" s="228"/>
+      <c r="AF15" s="228"/>
+      <c r="AG15" s="228" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH15" s="228"/>
+      <c r="AI15" s="228"/>
+      <c r="AJ15" s="228"/>
+      <c r="AK15" s="228"/>
+      <c r="AL15" s="228"/>
+      <c r="AM15" s="228"/>
+      <c r="AN15" s="228"/>
+      <c r="AO15" s="228"/>
+      <c r="AP15" s="228"/>
+      <c r="AQ15" s="228"/>
+      <c r="AR15" s="228"/>
+      <c r="AS15" s="228"/>
+      <c r="AT15" s="228"/>
+      <c r="AU15" s="228"/>
+      <c r="AV15" s="228"/>
+      <c r="AW15" s="228" t="s">
         <v>63</v>
       </c>
-      <c r="Z15" s="146"/>
-      <c r="AA15" s="146"/>
-      <c r="AB15" s="146"/>
-      <c r="AC15" s="146"/>
-      <c r="AD15" s="146"/>
-      <c r="AE15" s="146"/>
-      <c r="AF15" s="146"/>
-      <c r="AG15" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH15" s="146"/>
-      <c r="AI15" s="146"/>
-      <c r="AJ15" s="146"/>
-      <c r="AK15" s="146"/>
-      <c r="AL15" s="146"/>
-      <c r="AM15" s="146"/>
-      <c r="AN15" s="146"/>
-      <c r="AO15" s="146"/>
-      <c r="AP15" s="146"/>
-      <c r="AQ15" s="146"/>
-      <c r="AR15" s="146"/>
-      <c r="AS15" s="146"/>
-      <c r="AT15" s="146"/>
-      <c r="AU15" s="146"/>
-      <c r="AV15" s="146"/>
-      <c r="AW15" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX15" s="146"/>
-      <c r="AY15" s="146"/>
-      <c r="AZ15" s="146"/>
-      <c r="BA15" s="146"/>
-      <c r="BB15" s="146"/>
-      <c r="BC15" s="146"/>
-      <c r="BD15" s="146"/>
-      <c r="BE15" s="146"/>
-      <c r="BF15" s="146"/>
-      <c r="BG15" s="146"/>
-      <c r="BH15" s="146"/>
-      <c r="BI15" s="146"/>
-      <c r="BJ15" s="146"/>
-      <c r="BK15" s="146"/>
-      <c r="BL15" s="146"/>
+      <c r="AX15" s="228"/>
+      <c r="AY15" s="228"/>
+      <c r="AZ15" s="228"/>
+      <c r="BA15" s="228"/>
+      <c r="BB15" s="228"/>
+      <c r="BC15" s="228"/>
+      <c r="BD15" s="228"/>
+      <c r="BE15" s="228"/>
+      <c r="BF15" s="228"/>
+      <c r="BG15" s="228"/>
+      <c r="BH15" s="228"/>
+      <c r="BI15" s="228"/>
+      <c r="BJ15" s="228"/>
+      <c r="BK15" s="228"/>
+      <c r="BL15" s="228"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -10054,41 +10681,41 @@
       </c>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A19" s="146" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
+      <c r="A19" s="228" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="228"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
       <c r="I19" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K19" s="41">
         <v>0</v>
       </c>
       <c r="L19" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="228" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="228"/>
+      <c r="O19" s="228"/>
+      <c r="P19" s="228"/>
+      <c r="Q19" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="146" t="s">
+      <c r="R19" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="146" t="s">
-        <v>60</v>
-      </c>
-      <c r="S19" s="146"/>
+      <c r="S19" s="228"/>
       <c r="T19" s="42">
         <v>1</v>
       </c>
@@ -10096,64 +10723,64 @@
         <v>1</v>
       </c>
       <c r="V19" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W19" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X19" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y19" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y19" s="228" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z19" s="228"/>
+      <c r="AA19" s="228"/>
+      <c r="AB19" s="228"/>
+      <c r="AC19" s="228"/>
+      <c r="AD19" s="228"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="228"/>
+      <c r="AG19" s="228" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH19" s="228"/>
+      <c r="AI19" s="228"/>
+      <c r="AJ19" s="228"/>
+      <c r="AK19" s="228"/>
+      <c r="AL19" s="228"/>
+      <c r="AM19" s="228"/>
+      <c r="AN19" s="228"/>
+      <c r="AO19" s="228"/>
+      <c r="AP19" s="228"/>
+      <c r="AQ19" s="228"/>
+      <c r="AR19" s="228"/>
+      <c r="AS19" s="228"/>
+      <c r="AT19" s="228"/>
+      <c r="AU19" s="228"/>
+      <c r="AV19" s="228"/>
+      <c r="AW19" s="228" t="s">
         <v>63</v>
       </c>
-      <c r="Z19" s="146"/>
-      <c r="AA19" s="146"/>
-      <c r="AB19" s="146"/>
-      <c r="AC19" s="146"/>
-      <c r="AD19" s="146"/>
-      <c r="AE19" s="146"/>
-      <c r="AF19" s="146"/>
-      <c r="AG19" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH19" s="146"/>
-      <c r="AI19" s="146"/>
-      <c r="AJ19" s="146"/>
-      <c r="AK19" s="146"/>
-      <c r="AL19" s="146"/>
-      <c r="AM19" s="146"/>
-      <c r="AN19" s="146"/>
-      <c r="AO19" s="146"/>
-      <c r="AP19" s="146"/>
-      <c r="AQ19" s="146"/>
-      <c r="AR19" s="146"/>
-      <c r="AS19" s="146"/>
-      <c r="AT19" s="146"/>
-      <c r="AU19" s="146"/>
-      <c r="AV19" s="146"/>
-      <c r="AW19" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX19" s="146"/>
-      <c r="AY19" s="146"/>
-      <c r="AZ19" s="146"/>
-      <c r="BA19" s="146"/>
-      <c r="BB19" s="146"/>
-      <c r="BC19" s="146"/>
-      <c r="BD19" s="146"/>
-      <c r="BE19" s="146"/>
-      <c r="BF19" s="146"/>
-      <c r="BG19" s="146"/>
-      <c r="BH19" s="146"/>
-      <c r="BI19" s="146"/>
-      <c r="BJ19" s="146"/>
-      <c r="BK19" s="146"/>
-      <c r="BL19" s="146"/>
+      <c r="AX19" s="228"/>
+      <c r="AY19" s="228"/>
+      <c r="AZ19" s="228"/>
+      <c r="BA19" s="228"/>
+      <c r="BB19" s="228"/>
+      <c r="BC19" s="228"/>
+      <c r="BD19" s="228"/>
+      <c r="BE19" s="228"/>
+      <c r="BF19" s="228"/>
+      <c r="BG19" s="228"/>
+      <c r="BH19" s="228"/>
+      <c r="BI19" s="228"/>
+      <c r="BJ19" s="228"/>
+      <c r="BK19" s="228"/>
+      <c r="BL19" s="228"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -10351,96 +10978,96 @@
       </c>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A23" s="146" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
+      <c r="A23" s="228" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="228"/>
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
       <c r="I23" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="41">
         <v>0</v>
       </c>
       <c r="L23" s="41"/>
-      <c r="M23" s="146" t="s">
+      <c r="M23" s="228" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="228"/>
+      <c r="O23" s="228"/>
+      <c r="P23" s="228"/>
+      <c r="Q23" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" t="s">
-        <v>59</v>
-      </c>
-      <c r="R23" s="146" t="s">
-        <v>60</v>
-      </c>
-      <c r="S23" s="146"/>
+      <c r="S23" s="228"/>
       <c r="T23" s="42">
         <v>0</v>
       </c>
-      <c r="U23" s="147" t="s">
+      <c r="U23" s="229" t="s">
+        <v>60</v>
+      </c>
+      <c r="V23" s="229"/>
+      <c r="W23" s="229"/>
+      <c r="X23" s="229"/>
+      <c r="Y23" s="228" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z23" s="228"/>
+      <c r="AA23" s="228"/>
+      <c r="AB23" s="228"/>
+      <c r="AC23" s="228"/>
+      <c r="AD23" s="228"/>
+      <c r="AE23" s="228"/>
+      <c r="AF23" s="228"/>
+      <c r="AG23" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="146" t="s">
+      <c r="AH23" s="228"/>
+      <c r="AI23" s="228"/>
+      <c r="AJ23" s="228"/>
+      <c r="AK23" s="228"/>
+      <c r="AL23" s="228"/>
+      <c r="AM23" s="228"/>
+      <c r="AN23" s="228"/>
+      <c r="AO23" s="228"/>
+      <c r="AP23" s="228"/>
+      <c r="AQ23" s="228"/>
+      <c r="AR23" s="228"/>
+      <c r="AS23" s="228"/>
+      <c r="AT23" s="228"/>
+      <c r="AU23" s="228"/>
+      <c r="AV23" s="228"/>
+      <c r="AW23" s="228" t="s">
         <v>63</v>
       </c>
-      <c r="Z23" s="146"/>
-      <c r="AA23" s="146"/>
-      <c r="AB23" s="146"/>
-      <c r="AC23" s="146"/>
-      <c r="AD23" s="146"/>
-      <c r="AE23" s="146"/>
-      <c r="AF23" s="146"/>
-      <c r="AG23" s="146" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH23" s="146"/>
-      <c r="AI23" s="146"/>
-      <c r="AJ23" s="146"/>
-      <c r="AK23" s="146"/>
-      <c r="AL23" s="146"/>
-      <c r="AM23" s="146"/>
-      <c r="AN23" s="146"/>
-      <c r="AO23" s="146"/>
-      <c r="AP23" s="146"/>
-      <c r="AQ23" s="146"/>
-      <c r="AR23" s="146"/>
-      <c r="AS23" s="146"/>
-      <c r="AT23" s="146"/>
-      <c r="AU23" s="146"/>
-      <c r="AV23" s="146"/>
-      <c r="AW23" s="146" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX23" s="146"/>
-      <c r="AY23" s="146"/>
-      <c r="AZ23" s="146"/>
-      <c r="BA23" s="146"/>
-      <c r="BB23" s="146"/>
-      <c r="BC23" s="146"/>
-      <c r="BD23" s="146"/>
-      <c r="BE23" s="146"/>
-      <c r="BF23" s="146"/>
-      <c r="BG23" s="146"/>
-      <c r="BH23" s="146"/>
-      <c r="BI23" s="146"/>
-      <c r="BJ23" s="146"/>
-      <c r="BK23" s="146"/>
-      <c r="BL23" s="146"/>
+      <c r="AX23" s="228"/>
+      <c r="AY23" s="228"/>
+      <c r="AZ23" s="228"/>
+      <c r="BA23" s="228"/>
+      <c r="BB23" s="228"/>
+      <c r="BC23" s="228"/>
+      <c r="BD23" s="228"/>
+      <c r="BE23" s="228"/>
+      <c r="BF23" s="228"/>
+      <c r="BG23" s="228"/>
+      <c r="BH23" s="228"/>
+      <c r="BI23" s="228"/>
+      <c r="BJ23" s="228"/>
+      <c r="BK23" s="228"/>
+      <c r="BL23" s="228"/>
     </row>
     <row r="25" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="31"/>
       <c r="F25" s="31"/>
@@ -10640,44 +11267,44 @@
       </c>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A27" s="146" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="146"/>
-      <c r="P27" s="146"/>
+      <c r="A27" s="228" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="228"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="228"/>
+      <c r="K27" s="228"/>
+      <c r="L27" s="228"/>
+      <c r="M27" s="228"/>
+      <c r="N27" s="228"/>
+      <c r="O27" s="228"/>
+      <c r="P27" s="228"/>
       <c r="Q27" t="s">
-        <v>59</v>
-      </c>
-      <c r="R27" s="146" t="s">
-        <v>60</v>
-      </c>
-      <c r="S27" s="146"/>
+        <v>57</v>
+      </c>
+      <c r="R27" s="228" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27" s="228"/>
       <c r="T27" s="42">
         <v>0</v>
       </c>
-      <c r="U27" s="85">
+      <c r="U27" s="84">
         <v>1</v>
       </c>
-      <c r="V27" s="85">
+      <c r="V27" s="84">
         <v>1</v>
       </c>
-      <c r="W27" s="85">
+      <c r="W27" s="84">
         <v>1</v>
       </c>
-      <c r="X27" s="85">
+      <c r="X27" s="84">
         <v>0</v>
       </c>
       <c r="Y27">
@@ -10689,42 +11316,42 @@
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AG27" s="146" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="146"/>
-      <c r="AJ27" s="146"/>
-      <c r="AK27" s="146"/>
-      <c r="AL27" s="146"/>
-      <c r="AM27" s="146"/>
-      <c r="AN27" s="146"/>
-      <c r="AO27" s="146"/>
-      <c r="AP27" s="146"/>
-      <c r="AQ27" s="146"/>
-      <c r="AR27" s="146"/>
-      <c r="AS27" s="146"/>
-      <c r="AT27" s="146"/>
-      <c r="AU27" s="146"/>
-      <c r="AV27" s="146"/>
-      <c r="AW27" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX27" s="146"/>
-      <c r="AY27" s="146"/>
-      <c r="AZ27" s="146"/>
-      <c r="BA27" s="146"/>
-      <c r="BB27" s="146"/>
-      <c r="BC27" s="146"/>
-      <c r="BD27" s="146"/>
-      <c r="BE27" s="146"/>
-      <c r="BF27" s="146"/>
-      <c r="BG27" s="146"/>
-      <c r="BH27" s="146"/>
-      <c r="BI27" s="146"/>
-      <c r="BJ27" s="146"/>
-      <c r="BK27" s="146"/>
-      <c r="BL27" s="146"/>
+      <c r="AG27" s="228" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH27" s="228"/>
+      <c r="AI27" s="228"/>
+      <c r="AJ27" s="228"/>
+      <c r="AK27" s="228"/>
+      <c r="AL27" s="228"/>
+      <c r="AM27" s="228"/>
+      <c r="AN27" s="228"/>
+      <c r="AO27" s="228"/>
+      <c r="AP27" s="228"/>
+      <c r="AQ27" s="228"/>
+      <c r="AR27" s="228"/>
+      <c r="AS27" s="228"/>
+      <c r="AT27" s="228"/>
+      <c r="AU27" s="228"/>
+      <c r="AV27" s="228"/>
+      <c r="AW27" s="228" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX27" s="228"/>
+      <c r="AY27" s="228"/>
+      <c r="AZ27" s="228"/>
+      <c r="BA27" s="228"/>
+      <c r="BB27" s="228"/>
+      <c r="BC27" s="228"/>
+      <c r="BD27" s="228"/>
+      <c r="BE27" s="228"/>
+      <c r="BF27" s="228"/>
+      <c r="BG27" s="228"/>
+      <c r="BH27" s="228"/>
+      <c r="BI27" s="228"/>
+      <c r="BJ27" s="228"/>
+      <c r="BK27" s="228"/>
+      <c r="BL27" s="228"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
@@ -10781,7 +11408,7 @@
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="31"/>
       <c r="F29" s="31"/>
@@ -10981,44 +11608,44 @@
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="146" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
+      <c r="A31" s="228" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="228"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="228"/>
+      <c r="K31" s="228"/>
+      <c r="L31" s="228"/>
+      <c r="M31" s="228"/>
+      <c r="N31" s="228"/>
+      <c r="O31" s="228"/>
+      <c r="P31" s="228"/>
       <c r="Q31" t="s">
-        <v>59</v>
-      </c>
-      <c r="R31" s="146" t="s">
-        <v>60</v>
-      </c>
-      <c r="S31" s="146"/>
+        <v>57</v>
+      </c>
+      <c r="R31" s="228" t="s">
+        <v>58</v>
+      </c>
+      <c r="S31" s="228"/>
       <c r="T31" s="42">
         <v>0</v>
       </c>
-      <c r="U31" s="85">
+      <c r="U31" s="84">
         <v>1</v>
       </c>
-      <c r="V31" s="85">
+      <c r="V31" s="84">
         <v>1</v>
       </c>
-      <c r="W31" s="85">
+      <c r="W31" s="84">
         <v>1</v>
       </c>
-      <c r="X31" s="85">
+      <c r="X31" s="84">
         <v>1</v>
       </c>
       <c r="Y31">
@@ -11030,42 +11657,42 @@
       <c r="AA31">
         <v>0</v>
       </c>
-      <c r="AG31" s="146" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH31" s="146"/>
-      <c r="AI31" s="146"/>
-      <c r="AJ31" s="146"/>
-      <c r="AK31" s="146"/>
-      <c r="AL31" s="146"/>
-      <c r="AM31" s="146"/>
-      <c r="AN31" s="146"/>
-      <c r="AO31" s="146"/>
-      <c r="AP31" s="146"/>
-      <c r="AQ31" s="146"/>
-      <c r="AR31" s="146"/>
-      <c r="AS31" s="146"/>
-      <c r="AT31" s="146"/>
-      <c r="AU31" s="146"/>
-      <c r="AV31" s="146"/>
-      <c r="AW31" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX31" s="146"/>
-      <c r="AY31" s="146"/>
-      <c r="AZ31" s="146"/>
-      <c r="BA31" s="146"/>
-      <c r="BB31" s="146"/>
-      <c r="BC31" s="146"/>
-      <c r="BD31" s="146"/>
-      <c r="BE31" s="146"/>
-      <c r="BF31" s="146"/>
-      <c r="BG31" s="146"/>
-      <c r="BH31" s="146"/>
-      <c r="BI31" s="146"/>
-      <c r="BJ31" s="146"/>
-      <c r="BK31" s="146"/>
-      <c r="BL31" s="146"/>
+      <c r="AG31" s="228" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH31" s="228"/>
+      <c r="AI31" s="228"/>
+      <c r="AJ31" s="228"/>
+      <c r="AK31" s="228"/>
+      <c r="AL31" s="228"/>
+      <c r="AM31" s="228"/>
+      <c r="AN31" s="228"/>
+      <c r="AO31" s="228"/>
+      <c r="AP31" s="228"/>
+      <c r="AQ31" s="228"/>
+      <c r="AR31" s="228"/>
+      <c r="AS31" s="228"/>
+      <c r="AT31" s="228"/>
+      <c r="AU31" s="228"/>
+      <c r="AV31" s="228"/>
+      <c r="AW31" s="228" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX31" s="228"/>
+      <c r="AY31" s="228"/>
+      <c r="AZ31" s="228"/>
+      <c r="BA31" s="228"/>
+      <c r="BB31" s="228"/>
+      <c r="BC31" s="228"/>
+      <c r="BD31" s="228"/>
+      <c r="BE31" s="228"/>
+      <c r="BF31" s="228"/>
+      <c r="BG31" s="228"/>
+      <c r="BH31" s="228"/>
+      <c r="BI31" s="228"/>
+      <c r="BJ31" s="228"/>
+      <c r="BK31" s="228"/>
+      <c r="BL31" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -11114,7 +11741,7 @@
   <dimension ref="A1:AMK46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD30"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11123,17 +11750,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A1" s="143">
+      <c r="A1" s="230">
         <v>80386</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -11186,7 +11813,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11239,7 +11866,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -11292,7 +11919,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -11345,7 +11972,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -11398,7 +12025,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -11451,7 +12078,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -11504,7 +12131,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -11557,7 +12184,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -11610,7 +12237,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -11663,7 +12290,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -11716,7 +12343,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -11785,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -11840,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
@@ -11975,10 +12602,10 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="144"/>
+      <c r="O19" s="231" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="231"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
@@ -12020,7 +12647,7 @@
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -12073,7 +12700,7 @@
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12126,7 +12753,7 @@
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -12179,7 +12806,7 @@
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -12235,7 +12862,7 @@
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -12288,7 +12915,7 @@
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="20"/>
@@ -12341,7 +12968,7 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -12374,24 +13001,24 @@
       <c r="AD28" s="20"/>
       <c r="AE28" s="20"/>
       <c r="AF28" s="20"/>
-      <c r="AG28" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="145"/>
-      <c r="AM28" s="145"/>
-      <c r="AN28" s="145"/>
-      <c r="AO28" s="145"/>
-      <c r="AP28" s="145"/>
-      <c r="AQ28" s="145"/>
-      <c r="AR28" s="145"/>
-      <c r="AS28" s="145"/>
-      <c r="AT28" s="145"/>
-      <c r="AU28" s="145"/>
-      <c r="AV28" s="145"/>
+      <c r="AG28" s="206" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH28" s="206"/>
+      <c r="AI28" s="206"/>
+      <c r="AJ28" s="206"/>
+      <c r="AK28" s="206"/>
+      <c r="AL28" s="206"/>
+      <c r="AM28" s="206"/>
+      <c r="AN28" s="206"/>
+      <c r="AO28" s="206"/>
+      <c r="AP28" s="206"/>
+      <c r="AQ28" s="206"/>
+      <c r="AR28" s="206"/>
+      <c r="AS28" s="206"/>
+      <c r="AT28" s="206"/>
+      <c r="AU28" s="206"/>
+      <c r="AV28" s="206"/>
       <c r="AW28" s="15"/>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.35">
@@ -12543,7 +13170,7 @@
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -12596,7 +13223,7 @@
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -12629,24 +13256,24 @@
       <c r="AD31" s="20"/>
       <c r="AE31" s="20"/>
       <c r="AF31" s="20"/>
-      <c r="AG31" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH31" s="145"/>
-      <c r="AI31" s="145"/>
-      <c r="AJ31" s="145"/>
-      <c r="AK31" s="145"/>
-      <c r="AL31" s="145"/>
-      <c r="AM31" s="145"/>
-      <c r="AN31" s="145"/>
-      <c r="AO31" s="145"/>
-      <c r="AP31" s="145"/>
-      <c r="AQ31" s="145"/>
-      <c r="AR31" s="145"/>
-      <c r="AS31" s="145"/>
-      <c r="AT31" s="145"/>
-      <c r="AU31" s="145"/>
-      <c r="AV31" s="145"/>
+      <c r="AG31" s="206" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH31" s="206"/>
+      <c r="AI31" s="206"/>
+      <c r="AJ31" s="206"/>
+      <c r="AK31" s="206"/>
+      <c r="AL31" s="206"/>
+      <c r="AM31" s="206"/>
+      <c r="AN31" s="206"/>
+      <c r="AO31" s="206"/>
+      <c r="AP31" s="206"/>
+      <c r="AQ31" s="206"/>
+      <c r="AR31" s="206"/>
+      <c r="AS31" s="206"/>
+      <c r="AT31" s="206"/>
+      <c r="AU31" s="206"/>
+      <c r="AV31" s="206"/>
       <c r="AW31" s="15"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.35">
@@ -12798,7 +13425,7 @@
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -12851,7 +13478,7 @@
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -12884,24 +13511,24 @@
       <c r="AD34" s="20"/>
       <c r="AE34" s="20"/>
       <c r="AF34" s="20"/>
-      <c r="AG34" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH34" s="145"/>
-      <c r="AI34" s="145"/>
-      <c r="AJ34" s="145"/>
-      <c r="AK34" s="145"/>
-      <c r="AL34" s="145"/>
-      <c r="AM34" s="145"/>
-      <c r="AN34" s="145"/>
-      <c r="AO34" s="145"/>
-      <c r="AP34" s="145"/>
-      <c r="AQ34" s="145"/>
-      <c r="AR34" s="145"/>
-      <c r="AS34" s="145"/>
-      <c r="AT34" s="145"/>
-      <c r="AU34" s="145"/>
-      <c r="AV34" s="145"/>
+      <c r="AG34" s="206" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH34" s="206"/>
+      <c r="AI34" s="206"/>
+      <c r="AJ34" s="206"/>
+      <c r="AK34" s="206"/>
+      <c r="AL34" s="206"/>
+      <c r="AM34" s="206"/>
+      <c r="AN34" s="206"/>
+      <c r="AO34" s="206"/>
+      <c r="AP34" s="206"/>
+      <c r="AQ34" s="206"/>
+      <c r="AR34" s="206"/>
+      <c r="AS34" s="206"/>
+      <c r="AT34" s="206"/>
+      <c r="AU34" s="206"/>
+      <c r="AV34" s="206"/>
       <c r="AW34" s="15"/>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.35">
@@ -13053,7 +13680,7 @@
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -13109,7 +13736,7 @@
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -13162,11 +13789,11 @@
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="36"/>
       <c r="C39" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -13217,7 +13844,7 @@
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -13270,7 +13897,7 @@
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -13323,7 +13950,7 @@
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -13379,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -13546,7 +14173,7 @@
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -13566,703 +14193,703 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="87" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" style="88" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="87" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" style="87" customWidth="1"/>
-    <col min="5" max="12" width="9.08984375" style="87" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="96" customWidth="1"/>
-    <col min="14" max="1025" width="9.08984375" style="87" customWidth="1"/>
-    <col min="1026" max="16384" width="8.7265625" style="87"/>
+    <col min="1" max="1" width="9.08984375" style="86" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" style="87" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="86" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="86" customWidth="1"/>
+    <col min="5" max="12" width="9.08984375" style="86" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="95" customWidth="1"/>
+    <col min="14" max="1025" width="9.08984375" style="86" customWidth="1"/>
+    <col min="1026" max="16384" width="8.7265625" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="M1" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="87"/>
+      <c r="T1" s="88"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B2" s="178" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="T2" s="88"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B3" s="181" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="N3" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="88"/>
+      <c r="U3" s="89"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B4" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="185"/>
+      <c r="D4" s="186"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="T4" s="88"/>
+      <c r="U4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="188"/>
+      <c r="D5" s="189"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="T5" s="88"/>
+      <c r="U5" s="89"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B6" s="86"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6" s="88"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B7" s="86" t="s">
+        <v>244</v>
+      </c>
+      <c r="N7" s="87"/>
+      <c r="P7" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" s="88"/>
+      <c r="V7" s="89"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N8" s="87"/>
+      <c r="P8" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="T8" s="88"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N9" s="87"/>
+      <c r="P9" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="T9" s="88"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N10" s="87"/>
+      <c r="P10" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" s="88"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N11" s="87"/>
+      <c r="P11" s="124" t="s">
+        <v>147</v>
+      </c>
+      <c r="T11" s="88"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="N12" s="87"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M13" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" s="86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="O14" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="168" t="s">
+        <v>233</v>
+      </c>
+      <c r="J15" s="169"/>
+      <c r="Q15" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="S15" s="90" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="88"/>
-      <c r="T1" s="89"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B2" s="158" t="s">
+      <c r="C16" s="177" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="89"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="161" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="N3" s="89" t="s">
-        <v>143</v>
-      </c>
-      <c r="O3" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="90"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="164" t="s">
+      <c r="D16" s="176"/>
+      <c r="E16" s="176" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="I16" s="102">
+        <v>63</v>
+      </c>
+      <c r="J16" s="103"/>
+      <c r="S16" s="90" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="104" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="170" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="171"/>
+      <c r="G17" s="172"/>
+      <c r="I17" s="102">
+        <v>62</v>
+      </c>
+      <c r="J17" s="105"/>
+      <c r="Q17" s="90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="104" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="173" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="174"/>
+      <c r="G18" s="175"/>
+      <c r="I18" s="102">
+        <v>61</v>
+      </c>
+      <c r="J18" s="105"/>
+      <c r="O18" s="87"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B19" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="173"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="175"/>
+      <c r="I19" s="102">
+        <v>60</v>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="M19" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" s="87" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B20" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="173" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="174"/>
+      <c r="G20" s="175"/>
+      <c r="I20" s="102">
+        <v>59</v>
+      </c>
+      <c r="J20" s="105"/>
+      <c r="O20" s="87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="165" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="166"/>
+      <c r="G21" s="167"/>
+      <c r="I21" s="102">
+        <v>58</v>
+      </c>
+      <c r="J21" s="105"/>
+      <c r="O21" s="86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B22" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="I22" s="102">
+        <v>57</v>
+      </c>
+      <c r="J22" s="105"/>
+      <c r="O22" s="87"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B23" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" s="102">
+        <v>56</v>
+      </c>
+      <c r="J23" s="105"/>
+      <c r="M23" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" s="87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B24" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="105"/>
+      <c r="O24" s="87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="110"/>
+      <c r="I25" s="102">
+        <v>8</v>
+      </c>
+      <c r="J25" s="105"/>
+      <c r="O25" s="86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B26" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="102">
+        <v>7</v>
+      </c>
+      <c r="J26" s="105"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B27" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="I27" s="102">
+        <v>6</v>
+      </c>
+      <c r="J27" s="105"/>
+      <c r="N27" s="87"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B28" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="102">
+        <v>5</v>
+      </c>
+      <c r="J28" s="105"/>
+      <c r="M28" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="N28" s="87"/>
+      <c r="O28" s="86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B29" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="I29" s="102">
+        <v>4</v>
+      </c>
+      <c r="J29" s="105"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B30" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="177"/>
+      <c r="D30" s="176"/>
+      <c r="I30" s="102">
+        <v>3</v>
+      </c>
+      <c r="J30" s="105"/>
+      <c r="N30" s="87"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B31" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="I31" s="102">
+        <v>2</v>
+      </c>
+      <c r="J31" s="105"/>
+      <c r="M31" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="N31" s="87"/>
+      <c r="O31" s="90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B32" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="I32" s="102">
+        <v>1</v>
+      </c>
+      <c r="J32" s="105"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="106" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="177" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="166"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="P4" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="T4" s="89"/>
-      <c r="U4" s="90"/>
-    </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="90" t="s">
-        <v>147</v>
-      </c>
-      <c r="P5" s="87" t="s">
-        <v>148</v>
-      </c>
-      <c r="T5" s="89"/>
-      <c r="U5" s="90"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="87"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="P6" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="T6" s="89"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="N7" s="88"/>
-      <c r="P7" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="T7" s="89"/>
-      <c r="V7" s="90"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="N8" s="88"/>
-      <c r="P8" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="T8" s="89"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="N9" s="88"/>
-      <c r="P9" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="T9" s="89"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="N10" s="88"/>
-      <c r="P10" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="T10" s="89"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="N11" s="88"/>
-      <c r="P11" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="T11" s="89"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="N12" s="88"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="M13" s="96" t="s">
-        <v>144</v>
-      </c>
-      <c r="O13" s="87" t="s">
+      <c r="D33" s="177"/>
+      <c r="I33" s="107">
+        <v>0</v>
+      </c>
+      <c r="J33" s="108"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B34" s="86"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="86"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="N36" s="87"/>
+      <c r="O36" s="86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B37" s="86"/>
+      <c r="C37" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="N37" s="87"/>
+      <c r="O37" s="86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B38" s="86"/>
+      <c r="C38" s="86" t="s">
+        <v>270</v>
+      </c>
+      <c r="N38" s="87"/>
+      <c r="O38" s="86" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="O14" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q14" s="91" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="148" t="s">
-        <v>240</v>
-      </c>
-      <c r="J15" s="149"/>
-      <c r="Q15" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="S15" s="91" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="157" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="I16" s="103">
-        <v>63</v>
-      </c>
-      <c r="J16" s="104"/>
-      <c r="S16" s="91" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="105" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="150" t="s">
-        <v>254</v>
-      </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="152"/>
-      <c r="I17" s="103">
-        <v>62</v>
-      </c>
-      <c r="J17" s="106"/>
-      <c r="Q17" s="91" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="105" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="153" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="154"/>
-      <c r="G18" s="155"/>
-      <c r="I18" s="103">
-        <v>61</v>
-      </c>
-      <c r="J18" s="106"/>
-      <c r="O18" s="88"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="153"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155"/>
-      <c r="I19" s="103">
-        <v>60</v>
-      </c>
-      <c r="J19" s="106"/>
-      <c r="M19" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="O19" s="88" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="153" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="154"/>
-      <c r="G20" s="155"/>
-      <c r="I20" s="103">
-        <v>59</v>
-      </c>
-      <c r="J20" s="106"/>
-      <c r="O20" s="88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" s="170" t="s">
-        <v>253</v>
-      </c>
-      <c r="F21" s="171"/>
-      <c r="G21" s="172"/>
-      <c r="I21" s="103">
-        <v>58</v>
-      </c>
-      <c r="J21" s="106"/>
-      <c r="O21" s="87" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="I22" s="103">
-        <v>57</v>
-      </c>
-      <c r="J22" s="106"/>
-      <c r="O22" s="88"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="I23" s="103">
-        <v>56</v>
-      </c>
-      <c r="J23" s="106"/>
-      <c r="M23" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="O23" s="88" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="105" t="s">
-        <v>215</v>
-      </c>
-      <c r="I24" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="J24" s="106"/>
-      <c r="O24" s="88" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="111"/>
-      <c r="I25" s="103">
-        <v>8</v>
-      </c>
-      <c r="J25" s="106"/>
-      <c r="O25" s="87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B26" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="I26" s="103">
-        <v>7</v>
-      </c>
-      <c r="J26" s="106"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="87" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B27" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="I27" s="103">
-        <v>6</v>
-      </c>
-      <c r="J27" s="106"/>
-      <c r="N27" s="88"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B28" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="I28" s="103">
-        <v>5</v>
-      </c>
-      <c r="J28" s="106"/>
-      <c r="M28" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="N28" s="88"/>
-      <c r="O28" s="87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B29" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="I29" s="103">
-        <v>4</v>
-      </c>
-      <c r="J29" s="106"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B30" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="157"/>
-      <c r="D30" s="156"/>
-      <c r="I30" s="103">
-        <v>3</v>
-      </c>
-      <c r="J30" s="106"/>
-      <c r="N30" s="88"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B31" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="I31" s="103">
-        <v>2</v>
-      </c>
-      <c r="J31" s="106"/>
-      <c r="M31" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="N31" s="88"/>
-      <c r="O31" s="91" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B39" s="86"/>
+      <c r="C39" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="N39" s="87"/>
+      <c r="O39" s="86" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B32" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="I32" s="103">
-        <v>1</v>
-      </c>
-      <c r="J32" s="106"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="92" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B40" s="86"/>
+      <c r="N40" s="87"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B41" s="86"/>
+      <c r="C41" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="M41" s="95" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="157" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" s="157"/>
-      <c r="I33" s="108">
-        <v>0</v>
-      </c>
-      <c r="J33" s="109"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="87" t="s">
+      <c r="N41" s="87"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B42" s="86"/>
+      <c r="C42" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="N42" s="87"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B43" s="86"/>
+      <c r="C43" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="N43" s="87"/>
+      <c r="O43" s="86" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B34" s="87"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="87" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B44" s="86"/>
+      <c r="C44" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="N44" s="87"/>
+      <c r="O44" s="86" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="87"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="87" t="s">
+      <c r="Q44" s="86" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="N36" s="88"/>
-      <c r="O36" s="87" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B45" s="86"/>
+      <c r="C45" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="N45" s="87"/>
+      <c r="Q45" s="89" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B37" s="87"/>
-      <c r="C37" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="N37" s="88"/>
-      <c r="O37" s="87" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B46" s="86"/>
+      <c r="N46" s="87"/>
+      <c r="Q46" s="86" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B38" s="87"/>
-      <c r="C38" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="N38" s="88"/>
-      <c r="O38" s="87" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B39" s="87"/>
-      <c r="C39" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="N39" s="88"/>
-      <c r="O39" s="87" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B47" s="86"/>
+      <c r="M47" s="95" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B40" s="87"/>
-      <c r="N40" s="88"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B41" s="87"/>
-      <c r="C41" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="M41" s="96" t="s">
+      <c r="N47" s="87"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B48" s="86"/>
+      <c r="M48" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="N41" s="88"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B42" s="87"/>
-      <c r="C42" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="N42" s="88"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B43" s="87"/>
-      <c r="C43" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="N43" s="88"/>
-      <c r="O43" s="87" t="s">
+      <c r="N48" s="87"/>
+    </row>
+    <row r="49" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="N49" s="87"/>
+    </row>
+    <row r="50" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="M50" s="95" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B44" s="87"/>
-      <c r="C44" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="N44" s="88"/>
-      <c r="O44" s="87" t="s">
+      <c r="N50" s="87"/>
+    </row>
+    <row r="51" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="N51" s="87"/>
+      <c r="Q51" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="Q44" s="87" t="s">
+      <c r="R51" s="93"/>
+      <c r="S51" s="94"/>
+    </row>
+    <row r="52" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="N52" s="87"/>
+      <c r="Q52" s="95" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B45" s="87"/>
-      <c r="C45" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="N45" s="88"/>
-      <c r="Q45" s="90" t="s">
+      <c r="R52" s="96"/>
+      <c r="S52" s="97"/>
+    </row>
+    <row r="53" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="N53" s="87"/>
+      <c r="Q53" s="95" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B46" s="87"/>
-      <c r="N46" s="88"/>
-      <c r="Q46" s="87" t="s">
+      <c r="R53" s="96"/>
+      <c r="S53" s="97"/>
+    </row>
+    <row r="54" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="N54" s="87"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="97"/>
+    </row>
+    <row r="55" spans="13:19" x14ac:dyDescent="0.35">
+      <c r="N55" s="87"/>
+      <c r="Q55" s="95" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B47" s="87"/>
-      <c r="M47" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="N47" s="88"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B48" s="87"/>
-      <c r="M48" s="96" t="s">
-        <v>189</v>
-      </c>
-      <c r="N48" s="88"/>
-    </row>
-    <row r="49" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N49" s="88"/>
-    </row>
-    <row r="50" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="M50" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="N50" s="88"/>
-    </row>
-    <row r="51" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N51" s="88"/>
-      <c r="Q51" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="R51" s="94"/>
-      <c r="S51" s="95"/>
-    </row>
-    <row r="52" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N52" s="88"/>
-      <c r="Q52" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="R52" s="97"/>
-      <c r="S52" s="98"/>
-    </row>
-    <row r="53" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N53" s="88"/>
-      <c r="Q53" s="96" t="s">
-        <v>193</v>
-      </c>
-      <c r="R53" s="97"/>
-      <c r="S53" s="98"/>
-    </row>
-    <row r="54" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N54" s="88"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="97"/>
-      <c r="S54" s="98"/>
-    </row>
-    <row r="55" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N55" s="88"/>
-      <c r="Q55" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="R55" s="97"/>
-      <c r="S55" s="98"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="97"/>
     </row>
     <row r="56" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N56" s="88"/>
-      <c r="Q56" s="96" t="s">
-        <v>292</v>
-      </c>
-      <c r="R56" s="97"/>
-      <c r="S56" s="98"/>
+      <c r="N56" s="87"/>
+      <c r="Q56" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="R56" s="96"/>
+      <c r="S56" s="97"/>
     </row>
     <row r="57" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N57" s="88"/>
-      <c r="Q57" s="99" t="s">
-        <v>293</v>
-      </c>
-      <c r="R57" s="100"/>
-      <c r="S57" s="101"/>
+      <c r="N57" s="87"/>
+      <c r="Q57" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="R57" s="99"/>
+      <c r="S57" s="100"/>
     </row>
     <row r="58" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N58" s="88"/>
+      <c r="N58" s="87"/>
     </row>
     <row r="59" spans="13:19" x14ac:dyDescent="0.35">
-      <c r="N59" s="88"/>
+      <c r="N59" s="87"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="87"/>
+      <c r="B108" s="86"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="87"/>
+      <c r="B109" s="86"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" s="87"/>
+      <c r="B110" s="86"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="87"/>
+      <c r="B111" s="86"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" s="87"/>
+      <c r="B112" s="86"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="87"/>
+      <c r="B113" s="86"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="87"/>
+      <c r="B114" s="86"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="87"/>
+      <c r="B115" s="86"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="87"/>
+      <c r="B116" s="86"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="87"/>
+      <c r="B117" s="86"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="87"/>
+      <c r="B118" s="86"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="87"/>
+      <c r="B119" s="86"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" s="87"/>
+      <c r="B120" s="86"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="87"/>
+      <c r="B121" s="86"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122" s="87"/>
+      <c r="B122" s="86"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="87"/>
+      <c r="B123" s="86"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124" s="87"/>
+      <c r="B124" s="86"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B125" s="87"/>
+      <c r="B125" s="86"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126" s="87"/>
+      <c r="B126" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -14293,1324 +14920,1823 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="192" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="192" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
-    <col min="8" max="9" width="9.08984375" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="207" customWidth="1"/>
-    <col min="11" max="1025" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" style="141" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="141" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" style="130" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="141" customWidth="1"/>
+    <col min="5" max="5" width="35" style="141" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" style="141" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" style="141" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" style="141" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" style="136" customWidth="1"/>
+    <col min="13" max="1027" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A1" s="194" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="194" t="s">
+      <c r="A1" s="234" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="L1" s="54"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="148" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="150" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="150" t="s">
+        <v>334</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="144" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="132">
+        <v>0</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="156" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="146" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="136" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+    </row>
+    <row r="4" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="144" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="139" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="132">
+        <v>1</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="140" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="146" t="s">
+        <v>350</v>
+      </c>
+      <c r="G4" s="156" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="144" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="132">
+        <v>2</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="146" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="144" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="139" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="132">
+        <v>3</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="139" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="146" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" s="156" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="144" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="139" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="132">
+        <v>4</v>
+      </c>
+      <c r="D7" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="146" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="144" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="132">
+        <v>5</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="139" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="146" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="H8" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="190" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="190"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+    </row>
+    <row r="9" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="144" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="132">
+        <v>6</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="140" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="146" t="s">
+        <v>353</v>
+      </c>
+      <c r="G9" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="191" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="191"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+    </row>
+    <row r="10" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="155" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="133">
+        <v>7</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="140" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="146" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="157" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="135" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+    </row>
+    <row r="11" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="144" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="132">
+        <v>8</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="140" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="146" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="191" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="191"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+    </row>
+    <row r="12" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="155" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="133">
+        <v>9</v>
+      </c>
+      <c r="D12" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="140" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12" s="146" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="H12" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="192" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" s="192"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A13" s="144" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="132">
+        <v>10</v>
+      </c>
+      <c r="D13" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="146" t="s">
+        <v>354</v>
+      </c>
+      <c r="G13" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="146"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+    </row>
+    <row r="14" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="144" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="132">
+        <v>11</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="140" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A15" s="144" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="132">
+        <v>12</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="139" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="146" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" s="156" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+    </row>
+    <row r="16" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="144" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="132">
+        <v>13</v>
+      </c>
+      <c r="D16" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="146" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A17" s="144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="133">
+        <v>14</v>
+      </c>
+      <c r="D17" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="139" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="146" t="s">
+        <v>338</v>
+      </c>
+      <c r="G17" s="157" t="s">
+        <v>356</v>
+      </c>
+      <c r="H17" s="158" t="s">
+        <v>337</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A18" s="144" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" s="132">
+        <v>15</v>
+      </c>
+      <c r="D18" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="146" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+    </row>
+    <row r="19" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="144" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="133">
+        <v>16</v>
+      </c>
+      <c r="D19" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="140" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" s="146" t="s">
+        <v>339</v>
+      </c>
+      <c r="G19" s="157" t="s">
+        <v>356</v>
+      </c>
+      <c r="H19" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A20" s="144" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="132">
+        <v>17</v>
+      </c>
+      <c r="D20" s="139" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="139" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="146" t="s">
+        <v>360</v>
+      </c>
+      <c r="G20" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="H20" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+    </row>
+    <row r="21" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="144" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="139" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="132">
+        <v>18</v>
+      </c>
+      <c r="D21" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="140" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="146" t="s">
+        <v>335</v>
+      </c>
+      <c r="G21" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+    </row>
+    <row r="22" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="144" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="139" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="132">
+        <v>19</v>
+      </c>
+      <c r="D22" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="140" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="146" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="H22" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A23" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" s="132" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="164" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" s="164" t="s">
+        <v>293</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+    </row>
+    <row r="24" spans="1:33" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="233" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="140" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="132" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="F24" s="146" t="s">
+        <v>364</v>
+      </c>
+      <c r="G24" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="H24" s="146" t="s">
+        <v>344</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A25" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="139" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="132">
+        <v>20</v>
+      </c>
+      <c r="D25" s="160"/>
+      <c r="E25" s="143" t="s">
+        <v>358</v>
+      </c>
+      <c r="F25" s="146" t="s">
+        <v>357</v>
+      </c>
+      <c r="G25" s="157" t="s">
+        <v>356</v>
+      </c>
+      <c r="H25" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A26" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="139"/>
+      <c r="C26" s="133">
+        <v>38</v>
+      </c>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A27" s="163" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="139"/>
+      <c r="C27" s="132">
+        <v>39</v>
+      </c>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A28" s="163" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="139"/>
+      <c r="C28" s="132">
+        <v>45</v>
+      </c>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A29" s="163" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="139"/>
+      <c r="C29" s="133">
+        <v>46</v>
+      </c>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="139" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="146"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+    </row>
+    <row r="30" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="145" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="140" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="132" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="139" t="s">
+        <v>366</v>
+      </c>
+      <c r="F30" s="164" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" s="143" t="s">
+        <v>293</v>
+      </c>
+      <c r="H30" s="164" t="s">
+        <v>293</v>
+      </c>
+      <c r="I30" s="54"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A31" s="151" t="s">
+        <v>341</v>
+      </c>
+      <c r="B31" s="152" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="153" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" s="162" t="s">
+        <v>293</v>
+      </c>
+      <c r="E31" s="152" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="154" t="s">
+        <v>341</v>
+      </c>
+      <c r="G31" s="232" t="s">
+        <v>293</v>
+      </c>
+      <c r="H31" s="159" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="54"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="54"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="54"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A36" s="142"/>
+      <c r="C36" s="131"/>
+      <c r="K36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="54"/>
+      <c r="AF36" s="54"/>
+      <c r="AG36" s="54"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="54"/>
+      <c r="AF37" s="54"/>
+      <c r="AG37" s="54"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K38" s="54"/>
+      <c r="L38" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="194" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="194" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="194" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="I1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="195">
-        <v>0</v>
-      </c>
-      <c r="D2" s="195" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="196"/>
-      <c r="G2" s="112"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="207" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="128" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" s="128" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="195">
-        <v>1</v>
-      </c>
-      <c r="D3" s="195"/>
-      <c r="E3" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="207" t="s">
-        <v>101</v>
-      </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="O3" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="P3" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q3" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="R3" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="195">
-        <v>2</v>
-      </c>
-      <c r="D4" s="195"/>
-      <c r="E4" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="207" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="195">
-        <v>3</v>
-      </c>
-      <c r="D5" s="195"/>
-      <c r="E5" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="207" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="195">
-        <v>4</v>
-      </c>
-      <c r="D6" s="195"/>
-      <c r="E6" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="199" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="195">
-        <v>5</v>
-      </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="200" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" s="200"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="195">
-        <v>6</v>
-      </c>
-      <c r="D8" s="195"/>
-      <c r="E8" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="201" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="201"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A9" s="112" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="197">
-        <v>7</v>
-      </c>
-      <c r="D9" s="195"/>
-      <c r="E9" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="202" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" s="198"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="195">
-        <v>8</v>
-      </c>
-      <c r="D10" s="195" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="201" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="201"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" s="112" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="197">
-        <v>9</v>
-      </c>
-      <c r="D11" s="195"/>
-      <c r="E11" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="203" t="s">
-        <v>278</v>
-      </c>
-      <c r="K11" s="203"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" s="198"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="195">
-        <v>10</v>
-      </c>
-      <c r="D12" s="195"/>
-      <c r="E12" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="I12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" s="198"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="195">
-        <v>11</v>
-      </c>
-      <c r="D13" s="195"/>
-      <c r="E13" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="207" t="s">
-        <v>290</v>
-      </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A14" s="198"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="195">
-        <v>12</v>
-      </c>
-      <c r="D14" s="195"/>
-      <c r="E14" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="I14" s="55"/>
-      <c r="K14" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="198"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="195">
-        <v>13</v>
-      </c>
-      <c r="D15" s="195"/>
-      <c r="E15" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="I15" s="55"/>
-      <c r="K15" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A16" s="198" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="197">
-        <v>14</v>
-      </c>
-      <c r="D16" s="195"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="I16" s="55"/>
-      <c r="K16" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="195">
-        <v>15</v>
-      </c>
-      <c r="D17" s="195"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="I17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A18" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="197">
-        <v>16</v>
-      </c>
-      <c r="D18" s="195"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="I18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" s="196"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="195">
-        <v>17</v>
-      </c>
-      <c r="D19" s="195"/>
-      <c r="E19" s="112" t="s">
-        <v>284</v>
-      </c>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="I19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" s="112" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="195" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="195"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="I20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="197">
-        <v>32</v>
-      </c>
-      <c r="D21" s="195"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="I21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A22" s="112" t="s">
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K39" s="54"/>
+      <c r="M39" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K40" s="54"/>
+      <c r="M40" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="54"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K41" s="54"/>
+      <c r="M41" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="197">
-        <v>38</v>
-      </c>
-      <c r="D22" s="195"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="I22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A23" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="195">
-        <v>39</v>
-      </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="I23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A24" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="195">
-        <v>45</v>
-      </c>
-      <c r="D24" s="195"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="I24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55" t="s">
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="K42" s="54"/>
+      <c r="M42" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A25" s="112" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="197">
-        <v>46</v>
-      </c>
-      <c r="D25" s="195"/>
-      <c r="E25" s="112" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="I25" s="55"/>
-      <c r="K25" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="195" t="s">
-        <v>289</v>
-      </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="I26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="I27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="I28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="I29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="I30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A31" s="45"/>
-      <c r="C31" s="193"/>
-      <c r="I31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="128" t="s">
-        <v>131</v>
-      </c>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="I32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-    </row>
-    <row r="33" spans="9:31" x14ac:dyDescent="0.35">
-      <c r="I33" s="55"/>
-      <c r="J33" s="207" t="s">
-        <v>291</v>
-      </c>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="55"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-    </row>
-    <row r="34" spans="9:31" x14ac:dyDescent="0.35">
-      <c r="I34" s="55"/>
-      <c r="K34" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-    </row>
-    <row r="35" spans="9:31" x14ac:dyDescent="0.35">
-      <c r="I35" s="55"/>
-      <c r="K35" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-    </row>
-    <row r="36" spans="9:31" x14ac:dyDescent="0.35">
-      <c r="I36" s="55"/>
-      <c r="K36" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
-    </row>
-    <row r="37" spans="9:31" x14ac:dyDescent="0.35">
-      <c r="I37" s="55"/>
-      <c r="K37" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="J7:K7"/>
+  <mergeCells count="5">
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15618,6 +16744,9 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -15625,9 +16754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15649,738 +16776,738 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="115" t="s">
+      <c r="B2" s="113" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="118" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="117" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="119" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D6" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E6" s="118" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="119" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="118" t="s">
+      <c r="C7" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="119" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="112">
+        <v>0</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="122">
+        <v>0</v>
+      </c>
+      <c r="E9" s="123" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="45"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="196" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="197" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="198" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="45"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="45"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="45"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="45"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="193" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="45"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="200" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="201" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="198"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="45"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="45"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="193" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="50"/>
+    </row>
+    <row r="20" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="45"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="203" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="112" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="113" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="119" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="112" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="113" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="119" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="113" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="119" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="120" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="119" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="119" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="120" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="113">
-        <v>0</v>
-      </c>
-      <c r="E8" s="119" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="121" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="123">
-        <v>0</v>
-      </c>
-      <c r="E9" s="124" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="173" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="174"/>
-      <c r="C12" s="175" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="176" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="46"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="173" t="s">
+      <c r="E20" s="198"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="45"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="193" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="51"/>
-    </row>
-    <row r="17" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="181" t="s">
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="45"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="182" t="s">
+      <c r="E22" s="198"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="45"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="177"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="46"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-    </row>
-    <row r="19" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="46"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="173" t="s">
+      <c r="E23" s="198"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="193" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="46"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="184" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="182" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="177"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="46"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="173" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="177"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="51"/>
-    </row>
-    <row r="23" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="177"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="173" t="s">
-        <v>210</v>
-      </c>
-      <c r="H23" s="51"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="51"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="51"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="51"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="D27" s="179" t="s">
-        <v>212</v>
+      <c r="D27" s="194" t="s">
+        <v>205</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="51"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
-      <c r="B28" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" s="179"/>
+      <c r="B28" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="194"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="51"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
-      <c r="B29" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
+      <c r="B29" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="55"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-      <c r="B30" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="185" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
+      <c r="B30" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="204" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30" s="204"/>
+      <c r="F30" s="204"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="51"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
-      <c r="B31" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
+      <c r="B31" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="51"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
-      <c r="B32" s="69" t="s">
-        <v>213</v>
+      <c r="B32" s="68" t="s">
+        <v>206</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="51"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
-      <c r="B33" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="179" t="s">
-        <v>203</v>
+      <c r="B33" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="194" t="s">
+        <v>196</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="51"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
-      <c r="B34" s="178" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="179"/>
+      <c r="B34" s="205" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="194"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
-      <c r="B35" s="178"/>
-      <c r="D35" s="145" t="s">
-        <v>206</v>
-      </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
+      <c r="B35" s="205"/>
+      <c r="D35" s="206" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
-      <c r="B36" s="178"/>
+      <c r="B36" s="205"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
-      <c r="B37" s="178"/>
-      <c r="D37" s="179" t="s">
-        <v>207</v>
+      <c r="B37" s="205"/>
+      <c r="D37" s="194" t="s">
+        <v>200</v>
       </c>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
-      <c r="B38" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="D38" s="179"/>
+      <c r="B38" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="194"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
-      <c r="B39" s="69" t="s">
-        <v>213</v>
+      <c r="B39" s="68" t="s">
+        <v>206</v>
       </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
-      <c r="B40" s="69" t="s">
-        <v>213</v>
+      <c r="B40" s="68" t="s">
+        <v>206</v>
       </c>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
-      <c r="B41" s="69" t="s">
-        <v>213</v>
+      <c r="B41" s="68" t="s">
+        <v>206</v>
       </c>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
-      <c r="B42" s="69"/>
+      <c r="B42" s="68"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
-      <c r="B43" s="69" t="s">
-        <v>221</v>
+      <c r="B43" s="68" t="s">
+        <v>214</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
-      <c r="B44" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" s="185" t="s">
-        <v>224</v>
-      </c>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
+      <c r="B44" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="204" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" s="204"/>
+      <c r="F44" s="204"/>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
-      <c r="B45" s="69" t="s">
-        <v>221</v>
+      <c r="B45" s="68" t="s">
+        <v>214</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
-      <c r="B46" s="69" t="s">
-        <v>215</v>
+      <c r="B46" s="68" t="s">
+        <v>208</v>
       </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
-      <c r="B47" s="69" t="s">
-        <v>221</v>
+      <c r="B47" s="68" t="s">
+        <v>214</v>
       </c>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
-      <c r="B48" s="69" t="s">
-        <v>221</v>
+      <c r="B48" s="68" t="s">
+        <v>214</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
-      <c r="B49" s="72" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="185" t="s">
-        <v>231</v>
+      <c r="B49" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="204" t="s">
+        <v>224</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
-      <c r="D50" s="185"/>
+      <c r="D50" s="204"/>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="67"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="66"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D53"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D54"/>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D55"/>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="126"/>
-      <c r="D56" s="127"/>
+      <c r="B56" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="125"/>
+      <c r="D56" s="126"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="52"/>
-      <c r="C57" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="204" t="s">
-        <v>199</v>
-      </c>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="207" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="54"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="205"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="208"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="205"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="208"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="54"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="205"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="208"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="205"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="208"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="205"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="208"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="54"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="205"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="208"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
     </row>
     <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="56"/>
-      <c r="C64" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" s="206"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="209"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="52"/>
-      <c r="C65" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="204" t="s">
-        <v>199</v>
-      </c>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="207" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="205"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="208"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="54"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="205"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="208"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="205"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="208"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="54"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="208"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="54"/>
-      <c r="C70" s="55"/>
-      <c r="D70" s="205"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="208"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="205"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="208"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="205"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="208"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
     </row>
     <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="56"/>
-      <c r="C73" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D73" s="206"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="209"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="52"/>
-      <c r="C74" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" s="204" t="s">
-        <v>199</v>
-      </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="55"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="207" t="s">
+        <v>192</v>
+      </c>
+      <c r="E74" s="50"/>
+      <c r="F74" s="54"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="54"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="205"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="208"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="54"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="205"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="208"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="54"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="205"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="208"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="54"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="205"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="208"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="54"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="205"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="208"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="54"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="205"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="208"/>
     </row>
     <row r="81" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="56"/>
-      <c r="C81" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="D81" s="206"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" s="209"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B82" s="186" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82" s="187"/>
-      <c r="D82" s="188"/>
+      <c r="B82" s="210" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="211"/>
+      <c r="D82" s="212"/>
     </row>
     <row r="83" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="189"/>
-      <c r="C83" s="190"/>
-      <c r="D83" s="191"/>
+      <c r="B83" s="213"/>
+      <c r="C83" s="214"/>
+      <c r="D83" s="215"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D84"/>
@@ -16401,6 +17528,13 @@
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D37:D38"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E23"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
@@ -16410,13 +17544,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16438,148 +17565,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="75"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="74"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="78"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="77"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="78"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="77"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="78"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="77"/>
     </row>
     <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
@@ -16679,7 +17806,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
@@ -16749,381 +17876,381 @@
       <c r="AE9" s="14"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="81"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="80"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="84"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="83"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A12" s="82"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="84"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="83"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="84"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="83"/>
     </row>
     <row r="14" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>31</v>
       </c>
-      <c r="B14" s="110">
+      <c r="B14" s="109">
         <v>30</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="109">
         <v>29</v>
       </c>
-      <c r="D14" s="110">
+      <c r="D14" s="109">
         <v>28</v>
       </c>
-      <c r="E14" s="110">
+      <c r="E14" s="109">
         <v>27</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="109">
         <v>26</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="109">
         <v>25</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="109">
         <v>24</v>
       </c>
-      <c r="I14" s="110">
+      <c r="I14" s="109">
         <v>23</v>
       </c>
-      <c r="J14" s="110">
+      <c r="J14" s="109">
         <v>22</v>
       </c>
-      <c r="K14" s="110">
+      <c r="K14" s="109">
         <v>21</v>
       </c>
-      <c r="L14" s="110">
+      <c r="L14" s="109">
         <v>20</v>
       </c>
-      <c r="M14" s="110">
+      <c r="M14" s="109">
         <v>19</v>
       </c>
-      <c r="N14" s="110">
+      <c r="N14" s="109">
         <v>18</v>
       </c>
-      <c r="O14" s="110">
+      <c r="O14" s="109">
         <v>17</v>
       </c>
-      <c r="P14" s="110">
+      <c r="P14" s="109">
         <v>16</v>
       </c>
-      <c r="Q14" s="110">
+      <c r="Q14" s="109">
         <v>15</v>
       </c>
-      <c r="R14" s="110">
+      <c r="R14" s="109">
         <v>14</v>
       </c>
-      <c r="S14" s="110">
+      <c r="S14" s="109">
         <v>13</v>
       </c>
-      <c r="T14" s="110">
+      <c r="T14" s="109">
         <v>12</v>
       </c>
-      <c r="U14" s="110">
+      <c r="U14" s="109">
         <v>11</v>
       </c>
-      <c r="V14" s="110">
+      <c r="V14" s="109">
         <v>10</v>
       </c>
-      <c r="W14" s="110">
+      <c r="W14" s="109">
         <v>9</v>
       </c>
-      <c r="X14" s="110">
+      <c r="X14" s="109">
         <v>8</v>
       </c>
-      <c r="Y14" s="110">
+      <c r="Y14" s="109">
         <v>7</v>
       </c>
-      <c r="Z14" s="110">
+      <c r="Z14" s="109">
         <v>6</v>
       </c>
-      <c r="AA14" s="110">
+      <c r="AA14" s="109">
         <v>5</v>
       </c>
-      <c r="AB14" s="110">
+      <c r="AB14" s="109">
         <v>4</v>
       </c>
-      <c r="AC14" s="110">
+      <c r="AC14" s="109">
         <v>3</v>
       </c>
-      <c r="AD14" s="110">
+      <c r="AD14" s="109">
         <v>2</v>
       </c>
-      <c r="AE14" s="110">
+      <c r="AE14" s="109">
         <v>1</v>
       </c>
       <c r="AF14" s="17">
         <v>0</v>
       </c>
-      <c r="AG14" s="128" t="s">
-        <v>265</v>
+      <c r="AG14" s="127" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="81"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="80"/>
     </row>
     <row r="18" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>31</v>
       </c>
-      <c r="B18" s="110">
+      <c r="B18" s="109">
         <v>30</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="109">
         <v>29</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D18" s="109">
         <v>28</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="109">
         <v>27</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="109">
         <v>26</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="109">
         <v>25</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="109">
         <v>24</v>
       </c>
-      <c r="I18" s="110">
+      <c r="I18" s="109">
         <v>23</v>
       </c>
-      <c r="J18" s="110">
+      <c r="J18" s="109">
         <v>22</v>
       </c>
-      <c r="K18" s="110">
+      <c r="K18" s="109">
         <v>21</v>
       </c>
-      <c r="L18" s="110">
+      <c r="L18" s="109">
         <v>20</v>
       </c>
-      <c r="M18" s="110">
+      <c r="M18" s="109">
         <v>19</v>
       </c>
-      <c r="N18" s="110">
+      <c r="N18" s="109">
         <v>18</v>
       </c>
-      <c r="O18" s="110">
+      <c r="O18" s="109">
         <v>17</v>
       </c>
-      <c r="P18" s="110">
+      <c r="P18" s="109">
         <v>16</v>
       </c>
-      <c r="Q18" s="110">
+      <c r="Q18" s="109">
         <v>15</v>
       </c>
-      <c r="R18" s="110">
+      <c r="R18" s="109">
         <v>14</v>
       </c>
-      <c r="S18" s="110">
+      <c r="S18" s="109">
         <v>13</v>
       </c>
-      <c r="T18" s="110">
+      <c r="T18" s="109">
         <v>12</v>
       </c>
-      <c r="U18" s="110">
+      <c r="U18" s="109">
         <v>11</v>
       </c>
-      <c r="V18" s="110">
+      <c r="V18" s="109">
         <v>10</v>
       </c>
-      <c r="W18" s="110">
+      <c r="W18" s="109">
         <v>9</v>
       </c>
-      <c r="X18" s="110">
+      <c r="X18" s="109">
         <v>8</v>
       </c>
-      <c r="Y18" s="110">
+      <c r="Y18" s="109">
         <v>7</v>
       </c>
-      <c r="Z18" s="110">
+      <c r="Z18" s="109">
         <v>6</v>
       </c>
-      <c r="AA18" s="110">
+      <c r="AA18" s="109">
         <v>5</v>
       </c>
-      <c r="AB18" s="110">
+      <c r="AB18" s="109">
         <v>4</v>
       </c>
-      <c r="AC18" s="110">
+      <c r="AC18" s="109">
         <v>3</v>
       </c>
-      <c r="AD18" s="110">
+      <c r="AD18" s="109">
         <v>2</v>
       </c>
-      <c r="AE18" s="110">
+      <c r="AE18" s="109">
         <v>1</v>
       </c>
       <c r="AF18" s="17">
         <v>0</v>
       </c>
       <c r="AG18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -17134,22 +18261,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="31">
         <v>8237</v>
@@ -17157,30 +18277,30 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -17215,38 +18335,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B88170A-FB4E-4A29-8E64-8617242151A1}">
   <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="Q215" sqref="Q215"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="2.81640625" style="86"/>
+    <col min="1" max="16384" width="2.81640625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="85" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="86" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="85" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="86" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="86" t="s">
-        <v>238</v>
+      <c r="A79" s="85" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -17260,9 +18378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C7:F101"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD73"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -17278,39 +18394,39 @@
     </row>
     <row r="95" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="96" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C96" s="131" t="s">
-        <v>241</v>
-      </c>
-      <c r="D96" s="132"/>
-      <c r="E96" s="133"/>
+      <c r="C96" s="216" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="217"/>
+      <c r="E96" s="218"/>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C97" s="134" t="s">
+      <c r="C97" s="219" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="220"/>
+      <c r="E97" s="221"/>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C98" s="222" t="s">
+        <v>235</v>
+      </c>
+      <c r="D98" s="223"/>
+      <c r="E98" s="224"/>
+    </row>
+    <row r="99" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C99" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="135"/>
-      <c r="E97" s="136"/>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C98" s="137" t="s">
-        <v>242</v>
-      </c>
-      <c r="D98" s="138"/>
-      <c r="E98" s="139"/>
-    </row>
-    <row r="99" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C99" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="141"/>
-      <c r="E99" s="142"/>
+      <c r="D99" s="226"/>
+      <c r="E99" s="227"/>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F100" s="7"/>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D101" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
